--- a/Data/SupplementalGrazing.xlsx
+++ b/Data/SupplementalGrazing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10905"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://outlookuga-my.sharepoint.com/personal/ccz99536_uga_edu/Documents/Cruises/NES_CCS_Comparison/AcidotropicManuscript/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://outlookuga-my.sharepoint.com/personal/ccz99536_uga_edu/Documents/Cruises/NES_CCS_Comparison/AcidotropicManuscript/AcidotropicDyes/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="8_{976B7C3B-B834-2A4C-A1AE-E694B56BC778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A9DF5250-0BE4-404F-A5BA-B3A8CD627520}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="8_{976B7C3B-B834-2A4C-A1AE-E694B56BC778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{55C445D1-12BE-3149-804E-B5CF0081C1AA}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{B6F7C1C0-5192-CC47-A1D2-D0875B587AFE}"/>
+    <workbookView xWindow="33760" yWindow="-480" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{B6F7C1C0-5192-CC47-A1D2-D0875B587AFE}"/>
   </bookViews>
   <sheets>
     <sheet name="Tetraselmis" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="22">
   <si>
     <t>Culture</t>
   </si>
@@ -69,9 +69,6 @@
     <t>Date</t>
   </si>
   <si>
-    <t>Type</t>
-  </si>
-  <si>
     <t>GrazingRate</t>
   </si>
   <si>
@@ -99,16 +96,10 @@
     <t>Replete</t>
   </si>
   <si>
-    <t>PreyCurve</t>
-  </si>
-  <si>
     <t>MA</t>
   </si>
   <si>
     <t>PT</t>
-  </si>
-  <si>
-    <t>Treatments</t>
   </si>
   <si>
     <t>FLPPercent</t>
@@ -502,7 +493,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9604D2F-6EF8-2C4B-8971-059F8F12C050}">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -519,7 +510,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -613,15 +604,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9BDF01E-F873-7D45-8D6A-2A3A840C9EF6}">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:K10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -652,322 +643,292 @@
       <c r="J1" t="s">
         <v>16</v>
       </c>
-      <c r="K1" t="s">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>18</v>
-      </c>
-      <c r="B2" t="s">
-        <v>19</v>
       </c>
       <c r="C2" s="3">
         <v>45413</v>
       </c>
-      <c r="D2" t="s">
-        <v>20</v>
+      <c r="D2">
+        <v>5.3439285681361809E-3</v>
       </c>
       <c r="E2">
-        <v>5.3439285681361809E-3</v>
+        <v>2.6239511831930794E-3</v>
       </c>
       <c r="F2">
-        <v>2.6239511831930794E-3</v>
+        <v>2.9544299701269843</v>
       </c>
       <c r="G2">
-        <v>2.9544299701269843</v>
-      </c>
-      <c r="H2">
         <v>1.5711770957215645</v>
       </c>
-      <c r="I2" s="4">
+      <c r="H2" s="4">
         <v>1185304.1601818854</v>
       </c>
+      <c r="I2">
+        <v>3159.2502318207048</v>
+      </c>
       <c r="J2">
-        <v>3159.2502318207048</v>
-      </c>
-      <c r="K2">
         <v>8.0580900100171853</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" s="3">
         <v>45413</v>
       </c>
-      <c r="D3" t="s">
-        <v>20</v>
+      <c r="D3">
+        <v>5.5950105502844604E-3</v>
       </c>
       <c r="E3">
-        <v>5.5950105502844604E-3</v>
+        <v>3.7511532471093813E-3</v>
       </c>
       <c r="F3">
-        <v>3.7511532471093813E-3</v>
+        <v>1.4364749381842044</v>
       </c>
       <c r="G3">
-        <v>1.4364749381842044</v>
-      </c>
-      <c r="H3">
         <v>0.96613393342476606</v>
       </c>
-      <c r="I3" s="4">
+      <c r="H3" s="4">
         <v>521882.54151030275</v>
       </c>
+      <c r="I3">
+        <v>3553.1078197646098</v>
+      </c>
       <c r="J3">
-        <v>3553.1078197646098</v>
-      </c>
-      <c r="K3">
         <v>8.1755779416806629</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" s="3">
         <v>45413</v>
       </c>
-      <c r="D4" t="s">
-        <v>20</v>
+      <c r="D4">
+        <v>1.3665568412137112E-2</v>
       </c>
       <c r="E4">
-        <v>1.3665568412137112E-2</v>
+        <v>6.2659727346834407E-3</v>
       </c>
       <c r="F4">
-        <v>6.2659727346834407E-3</v>
+        <v>5.3298067021070779</v>
       </c>
       <c r="G4">
-        <v>5.3298067021070779</v>
-      </c>
-      <c r="H4">
         <v>2.7376432758325908</v>
       </c>
-      <c r="I4" s="4">
+      <c r="H4" s="4">
         <v>636657.25229646929</v>
       </c>
+      <c r="I4">
+        <v>3989.0072608534233</v>
+      </c>
       <c r="J4">
-        <v>3989.0072608534233</v>
-      </c>
-      <c r="K4">
         <v>8.2912976721227079</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="3">
         <v>45413</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5">
+        <v>6.0710607010571694E-3</v>
+      </c>
+      <c r="E5">
+        <v>2.1684259429858659E-3</v>
+      </c>
+      <c r="F5">
+        <v>2.3783342687232429</v>
+      </c>
+      <c r="G5">
+        <v>0.93531876575892381</v>
+      </c>
+      <c r="H5" s="4">
+        <v>973486.16282045597</v>
+      </c>
+      <c r="I5">
+        <v>5117.9731036740968</v>
+      </c>
+      <c r="J5">
+        <v>8.5405137614644442</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>20</v>
       </c>
-      <c r="E5">
-        <v>6.0710607010571694E-3</v>
-      </c>
-      <c r="F5">
-        <v>2.1684259429858659E-3</v>
-      </c>
-      <c r="G5">
-        <v>2.3783342687232429</v>
-      </c>
-      <c r="H5">
-        <v>0.93531876575892381</v>
-      </c>
-      <c r="I5" s="4">
-        <v>973486.16282045597</v>
-      </c>
-      <c r="J5">
-        <v>5117.9731036740968</v>
-      </c>
-      <c r="K5">
-        <v>8.5405137614644442</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C6" s="3">
         <v>45413</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6">
+        <v>7.1028904738634074E-3</v>
+      </c>
+      <c r="E6">
+        <v>1.1083698585764844E-2</v>
+      </c>
+      <c r="F6">
+        <v>1.4371876380044533</v>
+      </c>
+      <c r="G6">
+        <v>2.3615612055560669</v>
+      </c>
+      <c r="H6" s="4">
+        <v>1123412.6984126985</v>
+      </c>
+      <c r="I6">
+        <v>5626.2794584600533</v>
+      </c>
+      <c r="J6">
+        <v>8.6352036604894682</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>20</v>
       </c>
-      <c r="E6">
-        <v>7.1028904738634074E-3</v>
-      </c>
-      <c r="F6">
-        <v>1.1083698585764844E-2</v>
-      </c>
-      <c r="G6">
-        <v>1.4371876380044533</v>
-      </c>
-      <c r="H6">
-        <v>2.3615612055560669</v>
-      </c>
-      <c r="I6" s="4">
-        <v>1123412.6984126985</v>
-      </c>
-      <c r="J6">
-        <v>5626.2794584600533</v>
-      </c>
-      <c r="K6">
-        <v>8.6352036604894682</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="3">
         <v>45413</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7">
+        <v>4.5680421243171742E-3</v>
+      </c>
+      <c r="E7">
+        <v>5.5997698839037307E-3</v>
+      </c>
+      <c r="F7">
+        <v>1.8162651248940911</v>
+      </c>
+      <c r="G7">
+        <v>2.1981225150456636</v>
+      </c>
+      <c r="H7" s="4">
+        <v>1786640.2116402115</v>
+      </c>
+      <c r="I7">
+        <v>5387.0538559779652</v>
+      </c>
+      <c r="J7">
+        <v>8.5917539200276209</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>20</v>
       </c>
-      <c r="E7">
-        <v>4.5680421243171742E-3</v>
-      </c>
-      <c r="F7">
-        <v>5.5997698839037307E-3</v>
-      </c>
-      <c r="G7">
-        <v>1.8162651248940911</v>
-      </c>
-      <c r="H7">
-        <v>2.1981225150456636</v>
-      </c>
-      <c r="I7" s="4">
-        <v>1786640.2116402115</v>
-      </c>
-      <c r="J7">
-        <v>5387.0538559779652</v>
-      </c>
-      <c r="K7">
-        <v>8.5917539200276209</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="3">
         <v>45413</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8">
+        <v>7.1622771047132917E-4</v>
+      </c>
+      <c r="E8">
+        <v>2.6769191584830798E-3</v>
+      </c>
+      <c r="F8">
+        <v>0.22914392006265868</v>
+      </c>
+      <c r="G8">
+        <v>0.98181376985143964</v>
+      </c>
+      <c r="H8" s="4">
+        <v>1669973.5449735448</v>
+      </c>
+      <c r="I8">
+        <v>5182.9373619674088</v>
+      </c>
+      <c r="J8">
+        <v>8.5531272328315939</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>20</v>
       </c>
-      <c r="E8">
-        <v>7.1622771047132917E-4</v>
-      </c>
-      <c r="F8">
-        <v>2.6769191584830798E-3</v>
-      </c>
-      <c r="G8">
-        <v>0.22914392006265868</v>
-      </c>
-      <c r="H8">
-        <v>0.98181376985143964</v>
-      </c>
-      <c r="I8" s="4">
-        <v>1669973.5449735448</v>
-      </c>
-      <c r="J8">
-        <v>5182.9373619674088</v>
-      </c>
-      <c r="K8">
-        <v>8.5531272328315939</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="3">
         <v>45566</v>
       </c>
-      <c r="D9" t="s">
-        <v>23</v>
+      <c r="D9">
+        <v>3.7767006414676121E-3</v>
       </c>
       <c r="E9">
-        <v>3.7767006414676121E-3</v>
+        <v>7.1768050381053128E-3</v>
       </c>
       <c r="F9">
-        <v>7.1768050381053128E-3</v>
+        <v>1.4576306657265234</v>
       </c>
       <c r="G9">
-        <v>1.4576306657265234</v>
-      </c>
-      <c r="H9">
         <v>2.7169326937273688</v>
       </c>
-      <c r="I9" s="4">
+      <c r="H9" s="4">
         <v>1395412.1990951102</v>
       </c>
+      <c r="I9">
+        <v>4016.7028680549215</v>
+      </c>
       <c r="J9">
-        <v>4016.7028680549215</v>
-      </c>
-      <c r="K9">
         <v>8.2982166630038332</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
         <v>18</v>
-      </c>
-      <c r="B10" t="s">
-        <v>19</v>
       </c>
       <c r="C10" s="3">
         <v>45352</v>
       </c>
-      <c r="D10" t="s">
-        <v>23</v>
+      <c r="D10">
+        <v>1.4303355133189219E-2</v>
       </c>
       <c r="E10">
-        <v>1.4303355133189219E-2</v>
+        <v>8.8496073542370681E-4</v>
       </c>
       <c r="F10">
-        <v>8.8496073542370681E-4</v>
+        <v>3.230166382424418</v>
       </c>
       <c r="G10">
-        <v>3.230166382424418</v>
-      </c>
-      <c r="H10">
         <v>0.1245723399640745</v>
       </c>
-      <c r="I10" s="4">
+      <c r="H10" s="4">
         <v>1599895.6703182056</v>
       </c>
+      <c r="I10">
+        <v>5950.6358039861034</v>
+      </c>
       <c r="J10">
-        <v>5950.6358039861034</v>
-      </c>
-      <c r="K10">
         <v>8.6912533506435761</v>
       </c>
     </row>

--- a/Data/SupplementalGrazing.xlsx
+++ b/Data/SupplementalGrazing.xlsx
@@ -8,15 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://outlookuga-my.sharepoint.com/personal/ccz99536_uga_edu/Documents/Cruises/NES_CCS_Comparison/AcidotropicManuscript/AcidotropicDyes/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="8_{976B7C3B-B834-2A4C-A1AE-E694B56BC778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{55C445D1-12BE-3149-804E-B5CF0081C1AA}"/>
+  <xr:revisionPtr revIDLastSave="362" documentId="8_{976B7C3B-B834-2A4C-A1AE-E694B56BC778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8CD88A32-9D88-2147-9232-EE1936D1FD39}"/>
   <bookViews>
-    <workbookView xWindow="33760" yWindow="-480" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{B6F7C1C0-5192-CC47-A1D2-D0875B587AFE}"/>
+    <workbookView xWindow="32500" yWindow="-1460" windowWidth="35980" windowHeight="18780" activeTab="1" xr2:uid="{B6F7C1C0-5192-CC47-A1D2-D0875B587AFE}"/>
   </bookViews>
   <sheets>
     <sheet name="Tetraselmis" sheetId="1" r:id="rId1"/>
     <sheet name="SOmixos" sheetId="2" r:id="rId2"/>
+    <sheet name="Raw_TetraselmisFLP" sheetId="3" r:id="rId3"/>
+    <sheet name="Raw_TetraselmisPreyRemoval" sheetId="4" r:id="rId4"/>
+    <sheet name="Raw_SOmixoPreyRemoval" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <externalReferences>
+    <externalReference r:id="rId6"/>
+  </externalReferences>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="61">
   <si>
     <t>Culture</t>
   </si>
@@ -69,27 +75,12 @@
     <t>Date</t>
   </si>
   <si>
-    <t>GrazingRate</t>
-  </si>
-  <si>
-    <t>SdGrazingRate</t>
-  </si>
-  <si>
     <t>IngestionRate</t>
   </si>
   <si>
     <t>SdIngestionRate</t>
   </si>
   <si>
-    <t>BacteriaConc</t>
-  </si>
-  <si>
-    <t>MixotrophConc</t>
-  </si>
-  <si>
-    <t>logmixotroph</t>
-  </si>
-  <si>
     <t>GC</t>
   </si>
   <si>
@@ -103,13 +94,148 @@
   </si>
   <si>
     <t>FLPPercent</t>
+  </si>
+  <si>
+    <t>Timepoint</t>
+  </si>
+  <si>
+    <t>percentmixo</t>
+  </si>
+  <si>
+    <t>VolFiltered</t>
+  </si>
+  <si>
+    <t>Areaofsquare</t>
+  </si>
+  <si>
+    <t>NumSquareCounted</t>
+  </si>
+  <si>
+    <t>nanoeukconc</t>
+  </si>
+  <si>
+    <t>mixoconc</t>
+  </si>
+  <si>
+    <t>subpercent</t>
+  </si>
+  <si>
+    <t>av</t>
+  </si>
+  <si>
+    <t>std</t>
+  </si>
+  <si>
+    <t>T0</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>T. chui</t>
+  </si>
+  <si>
+    <t>Tetraselmis sp.</t>
+  </si>
+  <si>
+    <t>ChlCount</t>
+  </si>
+  <si>
+    <t>MixoCount</t>
+  </si>
+  <si>
+    <t>BeadIngested</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>T24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A </t>
+  </si>
+  <si>
+    <t>T48</t>
+  </si>
+  <si>
+    <t>Bacteria alone treatments</t>
+  </si>
+  <si>
+    <t>Measured Concentrations</t>
+  </si>
+  <si>
+    <t>Average mixotroph concentration across timepoints</t>
+  </si>
+  <si>
+    <t>Bacteria with mixotroph treatments</t>
+  </si>
+  <si>
+    <t>k - growth constant for bacterial growth</t>
+  </si>
+  <si>
+    <t>g - grazing coefficient</t>
+  </si>
+  <si>
+    <t>&lt;C&gt; - average cell concentration during time interval</t>
+  </si>
+  <si>
+    <t>F - volume swept clear</t>
+  </si>
+  <si>
+    <t>Calculated Values (Frost 1972)</t>
+  </si>
+  <si>
+    <t>I - Ingestion Rate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KEY: </t>
+  </si>
+  <si>
+    <t>1 - GC Replete 5/1/24</t>
+  </si>
+  <si>
+    <t>2- MA Replete 5/1/24 (A)</t>
+  </si>
+  <si>
+    <t>3- MA Replete 5/1/24 (B)</t>
+  </si>
+  <si>
+    <t>4- MA Replete 5/1/24 (C)</t>
+  </si>
+  <si>
+    <t>5- PT Replete 5/1/24 (A)</t>
+  </si>
+  <si>
+    <t>6- PT Replete 5/1/24 (B)</t>
+  </si>
+  <si>
+    <t>7- PT Replete 5/1/24 (C)</t>
+  </si>
+  <si>
+    <t>8- PT Replete 10/1/24</t>
+  </si>
+  <si>
+    <t>9- GC Replete 3/1/24</t>
+  </si>
+  <si>
+    <t>Average Ingestion Rate</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Std</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -130,16 +256,55 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.89999084444715716"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -147,16 +312,223 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -172,6 +544,59 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Tetraselmis"/>
+      <sheetName val="Bacteria"/>
+      <sheetName val="ClaireCalc"/>
+      <sheetName val="T24"/>
+      <sheetName val="T48"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3">
+        <row r="39">
+          <cell r="B39" t="str">
+            <v>Lab Tet</v>
+          </cell>
+          <cell r="C39" t="str">
+            <v>ACUFF Tet</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="B44">
+            <v>2.1227773111258625</v>
+          </cell>
+          <cell r="C44">
+            <v>1.7848958096936316</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="B45">
+            <v>0.35765365273472349</v>
+          </cell>
+          <cell r="C45">
+            <v>0.28694308080517811</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -494,10 +919,14 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -510,7 +939,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -520,8 +949,8 @@
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2">
-        <v>2.1514421725068895</v>
+      <c r="C2" s="6">
+        <v>2.1589357294778178</v>
       </c>
       <c r="D2" s="2">
         <v>-1.6999999999999999E-3</v>
@@ -534,8 +963,8 @@
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3">
-        <v>2.1794471457350437</v>
+      <c r="C3" s="6">
+        <v>2.1829710135674274</v>
       </c>
       <c r="D3" s="2">
         <v>7.7000000000000002E-3</v>
@@ -548,8 +977,8 @@
       <c r="B4" t="s">
         <v>7</v>
       </c>
-      <c r="C4">
-        <v>3.6666139927516164</v>
+      <c r="C4" s="6">
+        <v>3.6604424505521247</v>
       </c>
       <c r="D4" s="2">
         <v>1.9E-3</v>
@@ -563,7 +992,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="1">
-        <v>1.9805537129334099</v>
+        <v>1.988396014168216</v>
       </c>
       <c r="D5" s="2">
         <v>4.1000000000000003E-3</v>
@@ -577,7 +1006,7 @@
         <v>6</v>
       </c>
       <c r="C6" s="1">
-        <v>1.5682128967288014</v>
+        <v>1.5666723381279493</v>
       </c>
       <c r="D6" s="2">
         <v>6.6E-3</v>
@@ -591,7 +1020,7 @@
         <v>7</v>
       </c>
       <c r="C7" s="1">
-        <v>2.6539650645615138</v>
+        <v>2.6587354132858541</v>
       </c>
       <c r="D7" s="2">
         <v>2.3999999999999998E-3</v>
@@ -604,15 +1033,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9BDF01E-F873-7D45-8D6A-2A3A840C9EF6}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="H8" sqref="H8:P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -628,311 +1061,3714 @@
       <c r="E1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="G1" t="s">
+      <c r="B2" t="s">
         <v>13</v>
-      </c>
-      <c r="H1" t="s">
-        <v>14</v>
-      </c>
-      <c r="I1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
       </c>
       <c r="C2" s="3">
         <v>45413</v>
       </c>
-      <c r="D2">
-        <v>5.3439285681361809E-3</v>
-      </c>
-      <c r="E2">
-        <v>2.6239511831930794E-3</v>
-      </c>
-      <c r="F2">
+      <c r="D2" s="45">
         <v>2.9544299701269843</v>
       </c>
-      <c r="G2">
-        <v>1.5711770957215645</v>
-      </c>
-      <c r="H2" s="4">
-        <v>1185304.1601818854</v>
-      </c>
-      <c r="I2">
-        <v>3159.2502318207048</v>
-      </c>
-      <c r="J2">
-        <v>8.0580900100171853</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E2" s="45">
+        <v>1.5711770957215601</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C3" s="3">
         <v>45413</v>
       </c>
-      <c r="D3">
-        <v>5.5950105502844604E-3</v>
-      </c>
-      <c r="E3">
-        <v>3.7511532471093813E-3</v>
-      </c>
-      <c r="F3">
+      <c r="D3" s="45">
         <v>1.4364749381842044</v>
       </c>
-      <c r="G3">
+      <c r="E3" s="45">
         <v>0.96613393342476606</v>
       </c>
-      <c r="H3" s="4">
-        <v>521882.54151030275</v>
-      </c>
-      <c r="I3">
-        <v>3553.1078197646098</v>
-      </c>
-      <c r="J3">
-        <v>8.1755779416806629</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C4" s="3">
         <v>45413</v>
       </c>
-      <c r="D4">
-        <v>1.3665568412137112E-2</v>
-      </c>
-      <c r="E4">
-        <v>6.2659727346834407E-3</v>
-      </c>
-      <c r="F4">
+      <c r="D4" s="45">
         <v>5.3298067021070779</v>
       </c>
-      <c r="G4">
+      <c r="E4" s="45">
         <v>2.7376432758325908</v>
       </c>
-      <c r="H4" s="4">
-        <v>636657.25229646929</v>
-      </c>
-      <c r="I4">
-        <v>3989.0072608534233</v>
-      </c>
-      <c r="J4">
-        <v>8.2912976721227079</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C5" s="3">
         <v>45413</v>
       </c>
-      <c r="D5">
-        <v>6.0710607010571694E-3</v>
-      </c>
-      <c r="E5">
-        <v>2.1684259429858659E-3</v>
-      </c>
-      <c r="F5">
+      <c r="D5" s="45">
         <v>2.3783342687232429</v>
       </c>
-      <c r="G5">
+      <c r="E5" s="45">
         <v>0.93531876575892381</v>
       </c>
-      <c r="H5" s="4">
-        <v>973486.16282045597</v>
-      </c>
-      <c r="I5">
-        <v>5117.9731036740968</v>
-      </c>
-      <c r="J5">
-        <v>8.5405137614644442</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C6" s="3">
         <v>45413</v>
       </c>
-      <c r="D6">
-        <v>7.1028904738634074E-3</v>
-      </c>
-      <c r="E6">
-        <v>1.1083698585764844E-2</v>
-      </c>
-      <c r="F6">
+      <c r="D6" s="45">
         <v>1.4371876380044533</v>
       </c>
-      <c r="G6">
+      <c r="E6" s="45">
         <v>2.3615612055560669</v>
       </c>
-      <c r="H6" s="4">
-        <v>1123412.6984126985</v>
-      </c>
-      <c r="I6">
-        <v>5626.2794584600533</v>
-      </c>
-      <c r="J6">
-        <v>8.6352036604894682</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C7" s="3">
         <v>45413</v>
       </c>
-      <c r="D7">
-        <v>4.5680421243171742E-3</v>
-      </c>
-      <c r="E7">
-        <v>5.5997698839037307E-3</v>
-      </c>
-      <c r="F7">
+      <c r="D7" s="45">
         <v>1.8162651248940911</v>
       </c>
-      <c r="G7">
+      <c r="E7" s="45">
         <v>2.1981225150456636</v>
       </c>
-      <c r="H7" s="4">
-        <v>1786640.2116402115</v>
-      </c>
-      <c r="I7">
-        <v>5387.0538559779652</v>
-      </c>
-      <c r="J7">
-        <v>8.5917539200276209</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C8" s="3">
         <v>45413</v>
       </c>
-      <c r="D8">
-        <v>7.1622771047132917E-4</v>
-      </c>
-      <c r="E8">
-        <v>2.6769191584830798E-3</v>
-      </c>
-      <c r="F8">
+      <c r="D8" s="45">
         <v>0.22914392006265868</v>
       </c>
-      <c r="G8">
+      <c r="E8" s="45">
         <v>0.98181376985143964</v>
       </c>
-      <c r="H8" s="4">
-        <v>1669973.5449735448</v>
-      </c>
-      <c r="I8">
-        <v>5182.9373619674088</v>
-      </c>
-      <c r="J8">
-        <v>8.5531272328315939</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
+      <c r="M8" s="45"/>
+      <c r="N8" s="45"/>
+      <c r="O8" s="45"/>
+      <c r="P8" s="45"/>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C9" s="3">
         <v>45566</v>
       </c>
-      <c r="D9">
-        <v>3.7767006414676121E-3</v>
-      </c>
-      <c r="E9">
-        <v>7.1768050381053128E-3</v>
-      </c>
-      <c r="F9">
+      <c r="D9" s="45">
         <v>1.4576306657265234</v>
       </c>
-      <c r="G9">
+      <c r="E9" s="45">
         <v>2.7169326937273688</v>
       </c>
-      <c r="H9" s="4">
-        <v>1395412.1990951102</v>
-      </c>
-      <c r="I9">
-        <v>4016.7028680549215</v>
-      </c>
-      <c r="J9">
-        <v>8.2982166630038332</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C10" s="3">
         <v>45352</v>
       </c>
-      <c r="D10">
-        <v>1.4303355133189219E-2</v>
-      </c>
-      <c r="E10">
-        <v>8.8496073542370681E-4</v>
-      </c>
-      <c r="F10">
-        <v>3.230166382424418</v>
-      </c>
-      <c r="G10">
-        <v>0.1245723399640745</v>
-      </c>
-      <c r="H10" s="4">
-        <v>1599895.6703182056</v>
-      </c>
-      <c r="I10">
-        <v>5950.6358039861034</v>
-      </c>
-      <c r="J10">
-        <v>8.6912533506435761</v>
+      <c r="D10" s="45">
+        <v>3.2301594841792731</v>
+      </c>
+      <c r="E10" s="45">
+        <v>0.12467215930983444</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6960837-3E1F-0D49-BB90-0373E4F6625D}">
+  <dimension ref="A1:O14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="5">
+        <v>169</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0</v>
+      </c>
+      <c r="F2" s="5">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
+        <f>E2/(E2+D2)</f>
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <v>5</v>
+      </c>
+      <c r="I2" s="5">
+        <v>1.6986931199999999</v>
+      </c>
+      <c r="J2" s="5">
+        <v>15</v>
+      </c>
+      <c r="K2" s="5">
+        <f>((D2*981.747704247)/(I2*J2))/H2</f>
+        <v>1302.2981024984902</v>
+      </c>
+      <c r="L2" s="5">
+        <f>((E2*981.747704247)/(J2*I2))/H2</f>
+        <v>0</v>
+      </c>
+      <c r="M2" s="2">
+        <f>G3-G2</f>
+        <v>4.11522633744856E-3</v>
+      </c>
+      <c r="N2" s="2">
+        <v>4.4000000000000003E-3</v>
+      </c>
+      <c r="O2" s="2">
+        <v>2.2000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="5">
+        <v>242</v>
+      </c>
+      <c r="E3" s="5">
+        <v>1</v>
+      </c>
+      <c r="F3" s="5">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2">
+        <f>E3/(E3+D3)</f>
+        <v>4.11522633744856E-3</v>
+      </c>
+      <c r="H3" s="5">
+        <v>5</v>
+      </c>
+      <c r="I3" s="5">
+        <v>1.6986931199999999</v>
+      </c>
+      <c r="J3" s="5">
+        <v>15</v>
+      </c>
+      <c r="K3" s="5">
+        <f t="shared" ref="K3:K13" si="0">((D3*981.747704247)/(I3*J3))/H3</f>
+        <v>1864.8292355303824</v>
+      </c>
+      <c r="L3" s="5">
+        <f t="shared" ref="L3:L13" si="1">((E3*981.747704247)/(J3*I3))/H3</f>
+        <v>7.7059059319437297</v>
+      </c>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="5">
+        <v>175</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0</v>
+      </c>
+      <c r="G4" s="2">
+        <f t="shared" ref="G4:G13" si="2">E4/(E4+D4)</f>
+        <v>0</v>
+      </c>
+      <c r="H4" s="5">
+        <v>5</v>
+      </c>
+      <c r="I4" s="5">
+        <v>1.6986931199999999</v>
+      </c>
+      <c r="J4" s="5">
+        <v>15</v>
+      </c>
+      <c r="K4" s="5">
+        <f t="shared" si="0"/>
+        <v>1348.5335380901527</v>
+      </c>
+      <c r="L4" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M4" s="2">
+        <f t="shared" ref="M4:M14" si="3">G5-G4</f>
+        <v>6.6006600660066007E-3</v>
+      </c>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="5">
+        <v>301</v>
+      </c>
+      <c r="E5" s="5">
+        <v>2</v>
+      </c>
+      <c r="F5" s="5">
+        <v>2</v>
+      </c>
+      <c r="G5" s="2">
+        <f t="shared" si="2"/>
+        <v>6.6006600660066007E-3</v>
+      </c>
+      <c r="H5" s="5">
+        <v>5</v>
+      </c>
+      <c r="I5" s="5">
+        <v>1.6986931199999999</v>
+      </c>
+      <c r="J5" s="5">
+        <v>15</v>
+      </c>
+      <c r="K5" s="5">
+        <f t="shared" si="0"/>
+        <v>2319.4776855150621</v>
+      </c>
+      <c r="L5" s="5">
+        <f t="shared" si="1"/>
+        <v>15.411811863887459</v>
+      </c>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="5">
+        <v>396</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="5">
+        <v>5</v>
+      </c>
+      <c r="I6" s="5">
+        <v>1.6986931199999999</v>
+      </c>
+      <c r="J6" s="5">
+        <v>15</v>
+      </c>
+      <c r="K6" s="5">
+        <f t="shared" si="0"/>
+        <v>3051.5387490497169</v>
+      </c>
+      <c r="L6" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M6" s="2">
+        <f t="shared" ref="M6:M14" si="4">G7-G6</f>
+        <v>2.3474178403755869E-3</v>
+      </c>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="5">
+        <v>850</v>
+      </c>
+      <c r="E7" s="5">
+        <v>2</v>
+      </c>
+      <c r="F7" s="5">
+        <v>2</v>
+      </c>
+      <c r="G7" s="2">
+        <f t="shared" si="2"/>
+        <v>2.3474178403755869E-3</v>
+      </c>
+      <c r="H7" s="5">
+        <v>5</v>
+      </c>
+      <c r="I7" s="5">
+        <v>1.6986931199999999</v>
+      </c>
+      <c r="J7" s="5">
+        <v>15</v>
+      </c>
+      <c r="K7" s="5">
+        <f t="shared" si="0"/>
+        <v>6550.0200421521704</v>
+      </c>
+      <c r="L7" s="5">
+        <f t="shared" si="1"/>
+        <v>15.411811863887459</v>
+      </c>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="5">
+        <v>459</v>
+      </c>
+      <c r="E8" s="5">
+        <v>2</v>
+      </c>
+      <c r="F8" s="5">
+        <v>2</v>
+      </c>
+      <c r="G8" s="2">
+        <f t="shared" si="2"/>
+        <v>4.3383947939262474E-3</v>
+      </c>
+      <c r="H8" s="5">
+        <v>5</v>
+      </c>
+      <c r="I8" s="5">
+        <v>1.6986931199999999</v>
+      </c>
+      <c r="J8" s="5">
+        <v>15</v>
+      </c>
+      <c r="K8" s="5">
+        <f t="shared" si="0"/>
+        <v>3537.0108227621722</v>
+      </c>
+      <c r="L8" s="5">
+        <f t="shared" si="1"/>
+        <v>15.411811863887459</v>
+      </c>
+      <c r="M8" s="2">
+        <f t="shared" ref="M8:M14" si="5">G9-G8</f>
+        <v>-1.6858749000270433E-3</v>
+      </c>
+      <c r="N8" s="2">
+        <v>2.5999999999999999E-3</v>
+      </c>
+      <c r="O8" s="2">
+        <v>4.7000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="5">
+        <v>752</v>
+      </c>
+      <c r="E9" s="5">
+        <v>2</v>
+      </c>
+      <c r="F9" s="5">
+        <v>2</v>
+      </c>
+      <c r="G9" s="2">
+        <f t="shared" si="2"/>
+        <v>2.6525198938992041E-3</v>
+      </c>
+      <c r="H9" s="5">
+        <v>5</v>
+      </c>
+      <c r="I9" s="5">
+        <v>1.6986931199999999</v>
+      </c>
+      <c r="J9" s="5">
+        <v>15</v>
+      </c>
+      <c r="K9" s="5">
+        <f t="shared" si="0"/>
+        <v>5794.841260821684</v>
+      </c>
+      <c r="L9" s="5">
+        <f t="shared" si="1"/>
+        <v>15.411811863887459</v>
+      </c>
+      <c r="M9" s="5"/>
+      <c r="N9" s="5"/>
+      <c r="O9" s="5"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="5">
+        <v>471</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="5">
+        <v>5</v>
+      </c>
+      <c r="I10" s="5">
+        <v>1.6986931199999999</v>
+      </c>
+      <c r="J10" s="5">
+        <v>15</v>
+      </c>
+      <c r="K10" s="5">
+        <f t="shared" si="0"/>
+        <v>3629.4816939454963</v>
+      </c>
+      <c r="L10" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M10" s="2">
+        <f t="shared" ref="M10:M14" si="6">G11-G10</f>
+        <v>7.6335877862595417E-3</v>
+      </c>
+      <c r="N10" s="5"/>
+      <c r="O10" s="5"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="5">
+        <v>520</v>
+      </c>
+      <c r="E11" s="5">
+        <v>4</v>
+      </c>
+      <c r="F11" s="5">
+        <v>4</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="2"/>
+        <v>7.6335877862595417E-3</v>
+      </c>
+      <c r="H11" s="5">
+        <v>5</v>
+      </c>
+      <c r="I11" s="5">
+        <v>1.6986931199999999</v>
+      </c>
+      <c r="J11" s="5">
+        <v>15</v>
+      </c>
+      <c r="K11" s="5">
+        <f t="shared" si="0"/>
+        <v>4007.0710846107395</v>
+      </c>
+      <c r="L11" s="5">
+        <f t="shared" si="1"/>
+        <v>30.823623727774919</v>
+      </c>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="5">
+        <v>514</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="5">
+        <v>5</v>
+      </c>
+      <c r="I12" s="5">
+        <v>1.6986931199999999</v>
+      </c>
+      <c r="J12" s="5">
+        <v>15</v>
+      </c>
+      <c r="K12" s="5">
+        <f t="shared" si="0"/>
+        <v>3960.8356490190772</v>
+      </c>
+      <c r="L12" s="5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M12" s="2">
+        <f t="shared" ref="M12:M14" si="7">G13-G12</f>
+        <v>1.8832391713747645E-3</v>
+      </c>
+      <c r="N12" s="5"/>
+      <c r="O12" s="5"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A13" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="5">
+        <v>530</v>
+      </c>
+      <c r="E13" s="5">
+        <v>1</v>
+      </c>
+      <c r="F13" s="5">
+        <v>1</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="2"/>
+        <v>1.8832391713747645E-3</v>
+      </c>
+      <c r="H13" s="5">
+        <v>5</v>
+      </c>
+      <c r="I13" s="5">
+        <v>1.6986931199999999</v>
+      </c>
+      <c r="J13" s="5">
+        <v>15</v>
+      </c>
+      <c r="K13" s="5">
+        <f t="shared" si="0"/>
+        <v>4084.1301439301765</v>
+      </c>
+      <c r="L13" s="5">
+        <f t="shared" si="1"/>
+        <v>7.7059059319437297</v>
+      </c>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="M14" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9400430-3753-324D-8609-3C8C1566D620}">
+  <dimension ref="A1:M47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:C43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.1640625" style="23"/>
+    <col min="2" max="2" width="13.1640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" style="23" customWidth="1"/>
+    <col min="4" max="16384" width="12.1640625" style="23"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="10"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="7"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="L3" s="7"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="15">
+        <v>444509</v>
+      </c>
+      <c r="C4" s="15">
+        <v>394752</v>
+      </c>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="16">
+        <v>749000</v>
+      </c>
+      <c r="G4" s="16">
+        <v>3670000</v>
+      </c>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" s="16">
+        <v>23400000</v>
+      </c>
+      <c r="K4" s="17">
+        <v>32300000</v>
+      </c>
+      <c r="L4" s="8"/>
+      <c r="M4" s="24"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="15">
+        <v>409329</v>
+      </c>
+      <c r="C5" s="15">
+        <v>599417</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" s="16">
+        <v>738000</v>
+      </c>
+      <c r="G5" s="16">
+        <v>3510000</v>
+      </c>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" s="16">
+        <v>22200000</v>
+      </c>
+      <c r="K5" s="17">
+        <v>34200000</v>
+      </c>
+      <c r="L5" s="8"/>
+      <c r="M5" s="24"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="15">
+        <v>297959</v>
+      </c>
+      <c r="C6" s="15">
+        <v>391837</v>
+      </c>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="16">
+        <v>755000</v>
+      </c>
+      <c r="G6" s="16">
+        <v>3390000</v>
+      </c>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="J6" s="16">
+        <v>23900000</v>
+      </c>
+      <c r="K6" s="17">
+        <v>33700000</v>
+      </c>
+      <c r="L6" s="8"/>
+      <c r="M6" s="24"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="12"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="7"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="12"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="J8" s="16"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="8"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="12"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="16">
+        <v>1890000</v>
+      </c>
+      <c r="G9" s="16">
+        <v>6140000</v>
+      </c>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9" s="16">
+        <v>20800000</v>
+      </c>
+      <c r="K9" s="17">
+        <v>29300000</v>
+      </c>
+      <c r="L9" s="8"/>
+      <c r="M9" s="24"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="12"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="16">
+        <v>1930000</v>
+      </c>
+      <c r="G10" s="16">
+        <v>6970000</v>
+      </c>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="J10" s="16">
+        <v>22000000</v>
+      </c>
+      <c r="K10" s="17">
+        <v>35600000</v>
+      </c>
+      <c r="L10" s="8"/>
+      <c r="M10" s="24"/>
+    </row>
+    <row r="11" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="18"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="20">
+        <v>2180000</v>
+      </c>
+      <c r="G11" s="20">
+        <v>6690000</v>
+      </c>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="J11" s="20">
+        <v>22100000</v>
+      </c>
+      <c r="K11" s="21">
+        <v>30500000</v>
+      </c>
+      <c r="L11" s="8"/>
+      <c r="M11" s="24"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+    </row>
+    <row r="14" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7"/>
+      <c r="J14" s="7"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="7"/>
+    </row>
+    <row r="15" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="38" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="39"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+      <c r="J15" s="7"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="7"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="12"/>
+      <c r="B16" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+      <c r="J16" s="7"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="7"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="26">
+        <f>LN(F9/F4)/24</f>
+        <v>3.8566380189019527E-2</v>
+      </c>
+      <c r="C17" s="27">
+        <f>LN(G9/G4)/24</f>
+        <v>2.1443045003857176E-2</v>
+      </c>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+      <c r="J17" s="7"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="7"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="26">
+        <f t="shared" ref="B18:B19" si="0">LN(F10/F5)/24</f>
+        <v>4.0055477387435777E-2</v>
+      </c>
+      <c r="C18" s="27">
+        <f t="shared" ref="C18:C19" si="1">LN(G10/G5)/24</f>
+        <v>2.8583299470610751E-2</v>
+      </c>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="26">
+        <f t="shared" si="0"/>
+        <v>4.4181766938921251E-2</v>
+      </c>
+      <c r="C19" s="27">
+        <f t="shared" si="1"/>
+        <v>2.8324331364490755E-2</v>
+      </c>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="7"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="12"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+      <c r="J20" s="7"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="42"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="12"/>
+      <c r="B22" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7"/>
+      <c r="K22" s="7"/>
+      <c r="L22" s="7"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" s="28">
+        <f>-(((LN(J9/J4)/24))-B17)</f>
+        <v>4.3474006674702172E-2</v>
+      </c>
+      <c r="C23" s="29">
+        <f>-(((LN(K9/K4)/24))-C17)</f>
+        <v>2.5504699762423394E-2</v>
+      </c>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7"/>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="28">
+        <f t="shared" ref="B24:C24" si="2">-(((LN(J10/J5)/24))-B18)</f>
+        <v>4.0432553867432358E-2</v>
+      </c>
+      <c r="C24" s="29">
+        <f t="shared" si="2"/>
+        <v>2.6911633062718029E-2</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B25" s="28">
+        <f t="shared" ref="B25:C25" si="3">-(((LN(J11/J6)/24))-B19)</f>
+        <v>4.7444302372827825E-2</v>
+      </c>
+      <c r="C25" s="29">
+        <f t="shared" si="3"/>
+        <v>3.2481462770530337E-2</v>
+      </c>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
+      <c r="K25" s="7"/>
+      <c r="L25" s="7"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="12"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7"/>
+      <c r="K26" s="7"/>
+      <c r="L26" s="7"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" s="42"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="7"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="12"/>
+      <c r="B28" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+      <c r="J28" s="7"/>
+      <c r="K28" s="7"/>
+      <c r="L28" s="7"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="30">
+        <f>(J4*(EXP((B17-B23)*24)-1))/(24*(B17-B23))</f>
+        <v>22074486.240829784</v>
+      </c>
+      <c r="C29" s="31">
+        <f>(K4*(EXP((C17-C23)*24)-1))/(24*(C17-C23))</f>
+        <v>30775633.930079643</v>
+      </c>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+      <c r="J29" s="7"/>
+      <c r="K29" s="7"/>
+      <c r="L29" s="7"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" s="30">
+        <f t="shared" ref="B30:C30" si="4">(J5*(EXP((B18-B24)*24)-1))/(24*(B18-B24))</f>
+        <v>22099849.169613831</v>
+      </c>
+      <c r="C30" s="31">
+        <f t="shared" si="4"/>
+        <v>34895319.459620871</v>
+      </c>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="30">
+        <f t="shared" ref="B31" si="5">(J6*(EXP((B19-B25)*24)-1))/(24*(B19-B25))</f>
+        <v>22988256.0724236</v>
+      </c>
+      <c r="C31" s="31">
+        <f>(K6*(EXP((C19-C25)*24)-1))/(24*(C19-C25))</f>
+        <v>32073398.771956831</v>
+      </c>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" s="12"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33" s="41" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" s="42"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34" s="12"/>
+      <c r="B34" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A35" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="32">
+        <f>(B23*200)/(B4*200)</f>
+        <v>9.7802309232663844E-8</v>
+      </c>
+      <c r="C35" s="33">
+        <f>(C23*200)/(C4*200)</f>
+        <v>6.4609425062883514E-8</v>
+      </c>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A36" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B36" s="32">
+        <f t="shared" ref="B36:C37" si="6">(B24*200)/(B5*200)</f>
+        <v>9.8777643087668745E-8</v>
+      </c>
+      <c r="C36" s="33">
+        <f t="shared" si="6"/>
+        <v>4.4896346054112632E-8</v>
+      </c>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B37" s="32">
+        <f t="shared" si="6"/>
+        <v>1.5923097598269501E-7</v>
+      </c>
+      <c r="C37" s="33">
+        <f t="shared" si="6"/>
+        <v>8.2895343651902036E-8</v>
+      </c>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+      <c r="K37" s="7"/>
+      <c r="L37" s="7"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A38" s="12"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+      <c r="K38" s="7"/>
+      <c r="L38" s="7"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A39" s="41" t="s">
+        <v>47</v>
+      </c>
+      <c r="B39" s="42"/>
+      <c r="C39" s="43"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="7"/>
+      <c r="K39" s="7"/>
+      <c r="L39" s="7"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40" s="12"/>
+      <c r="B40" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="7"/>
+      <c r="K40" s="7"/>
+      <c r="L40" s="7"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" s="34">
+        <f>B35*B29</f>
+        <v>2.1589357294778178</v>
+      </c>
+      <c r="C41" s="35">
+        <f>C35*C29</f>
+        <v>1.988396014168216</v>
+      </c>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="7"/>
+      <c r="K41" s="7"/>
+      <c r="L41" s="7"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A42" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" s="34">
+        <f t="shared" ref="B42:C43" si="7">B36*B30</f>
+        <v>2.1829710135674274</v>
+      </c>
+      <c r="C42" s="35">
+        <f t="shared" si="7"/>
+        <v>1.5666723381279493</v>
+      </c>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="7"/>
+    </row>
+    <row r="43" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B43" s="36">
+        <f t="shared" si="7"/>
+        <v>3.6604424505521247</v>
+      </c>
+      <c r="C43" s="37">
+        <f t="shared" si="7"/>
+        <v>2.6587354132858541</v>
+      </c>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="7"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="7"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="7"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="A33:C33"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F04B14C-6342-794A-B115-ABE7D5AFFDF0}">
+  <dimension ref="A1:AF53"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="M40" sqref="M40:U40"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="45"/>
+    <col min="2" max="2" width="12.1640625" style="45" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="45"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A1" s="68" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A2" s="66" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="66"/>
+      <c r="C2" s="66" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="66"/>
+      <c r="E2" s="66" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="66"/>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A3" s="66" t="s">
+        <v>50</v>
+      </c>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="66"/>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A4" s="66" t="s">
+        <v>51</v>
+      </c>
+      <c r="B4" s="66"/>
+      <c r="C4" s="66" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="66"/>
+      <c r="E4" s="66" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="66"/>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A5" s="65"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+    </row>
+    <row r="6" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="67" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="67"/>
+      <c r="C6" s="67"/>
+      <c r="D6" s="67"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
+      <c r="L6" s="67"/>
+      <c r="M6" s="67"/>
+      <c r="N6" s="67"/>
+      <c r="O6" s="67"/>
+      <c r="P6" s="67"/>
+      <c r="Q6" s="67"/>
+      <c r="R6" s="67"/>
+      <c r="S6" s="67"/>
+      <c r="T6" s="67"/>
+      <c r="U6" s="67"/>
+      <c r="V6" s="67"/>
+      <c r="W6" s="67"/>
+      <c r="X6" s="67"/>
+      <c r="Y6" s="67"/>
+      <c r="Z6" s="67"/>
+      <c r="AA6" s="67"/>
+      <c r="AB6" s="67"/>
+      <c r="AC6" s="67"/>
+      <c r="AD6" s="67"/>
+      <c r="AE6" s="67"/>
+      <c r="AF6" s="67"/>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="M7" s="49"/>
+      <c r="N7" s="49"/>
+      <c r="O7" s="49"/>
+      <c r="P7" s="49"/>
+      <c r="Q7" s="49"/>
+      <c r="R7" s="49"/>
+      <c r="S7" s="49"/>
+      <c r="T7" s="49"/>
+      <c r="U7" s="49"/>
+      <c r="V7" s="48"/>
+      <c r="W7" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="X7" s="49"/>
+      <c r="Y7" s="49"/>
+      <c r="Z7" s="48"/>
+      <c r="AA7" s="49"/>
+      <c r="AB7" s="49"/>
+      <c r="AC7" s="49"/>
+      <c r="AD7" s="49"/>
+      <c r="AE7" s="49"/>
+      <c r="AF7" s="50"/>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A8" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="52">
+        <v>1</v>
+      </c>
+      <c r="C8" s="52">
+        <v>2</v>
+      </c>
+      <c r="D8" s="52">
+        <v>3</v>
+      </c>
+      <c r="E8" s="52">
+        <v>4</v>
+      </c>
+      <c r="F8" s="52">
+        <v>5</v>
+      </c>
+      <c r="G8" s="52">
+        <v>6</v>
+      </c>
+      <c r="H8" s="52">
+        <v>7</v>
+      </c>
+      <c r="I8" s="52">
+        <v>8</v>
+      </c>
+      <c r="J8" s="52">
+        <v>9</v>
+      </c>
+      <c r="K8" s="53"/>
+      <c r="L8" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="M8" s="52">
+        <v>1</v>
+      </c>
+      <c r="N8" s="52">
+        <v>2</v>
+      </c>
+      <c r="O8" s="52">
+        <v>3</v>
+      </c>
+      <c r="P8" s="52">
+        <v>4</v>
+      </c>
+      <c r="Q8" s="52">
+        <v>5</v>
+      </c>
+      <c r="R8" s="52">
+        <v>6</v>
+      </c>
+      <c r="S8" s="52">
+        <v>7</v>
+      </c>
+      <c r="T8" s="52">
+        <v>8</v>
+      </c>
+      <c r="U8" s="52">
+        <v>9</v>
+      </c>
+      <c r="V8" s="53"/>
+      <c r="W8" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="X8" s="52">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="52">
+        <v>2</v>
+      </c>
+      <c r="Z8" s="52">
+        <v>3</v>
+      </c>
+      <c r="AA8" s="52">
+        <v>4</v>
+      </c>
+      <c r="AB8" s="52">
+        <v>5</v>
+      </c>
+      <c r="AC8" s="52">
+        <v>6</v>
+      </c>
+      <c r="AD8" s="52">
+        <v>7</v>
+      </c>
+      <c r="AE8" s="52">
+        <v>8</v>
+      </c>
+      <c r="AF8" s="54">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A9" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="52">
+        <v>3512.1811883072201</v>
+      </c>
+      <c r="C9" s="52">
+        <v>3160.8040003686747</v>
+      </c>
+      <c r="D9" s="52">
+        <v>4000.4346968124951</v>
+      </c>
+      <c r="E9" s="52">
+        <v>4831.9261825486701</v>
+      </c>
+      <c r="F9" s="52">
+        <v>6087.5627024789956</v>
+      </c>
+      <c r="G9" s="52">
+        <v>5939.5193694686604</v>
+      </c>
+      <c r="H9" s="52">
+        <v>5532.5254005157149</v>
+      </c>
+      <c r="I9" s="52">
+        <v>4126.9692927341848</v>
+      </c>
+      <c r="J9" s="55">
+        <v>6326</v>
+      </c>
+      <c r="K9" s="53"/>
+      <c r="L9" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" s="56">
+        <v>1075998.882369377</v>
+      </c>
+      <c r="N9" s="57">
+        <v>376794.72254559566</v>
+      </c>
+      <c r="O9" s="57">
+        <v>589833.13930927438</v>
+      </c>
+      <c r="P9" s="57">
+        <v>858362.43694218074</v>
+      </c>
+      <c r="Q9" s="57">
+        <v>937301.58730158722</v>
+      </c>
+      <c r="R9" s="57">
+        <v>2068650.7936507936</v>
+      </c>
+      <c r="S9" s="57">
+        <v>1857936.5079365082</v>
+      </c>
+      <c r="T9" s="57">
+        <v>1919307.7600161475</v>
+      </c>
+      <c r="U9" s="57">
+        <v>1013492.0634920634</v>
+      </c>
+      <c r="V9" s="56"/>
+      <c r="W9" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="X9" s="57">
+        <v>1160379.9944118469</v>
+      </c>
+      <c r="Y9" s="57">
+        <v>665114.47419480013</v>
+      </c>
+      <c r="Z9" s="57">
+        <v>1145906.0923554522</v>
+      </c>
+      <c r="AA9" s="57">
+        <v>1514939.8525417151</v>
+      </c>
+      <c r="AB9" s="57">
+        <v>1064880.9523809524</v>
+      </c>
+      <c r="AC9" s="57">
+        <v>1811904.7619047619</v>
+      </c>
+      <c r="AD9" s="57">
+        <v>1538095.2380952381</v>
+      </c>
+      <c r="AE9" s="57">
+        <v>1632475.1515877875</v>
+      </c>
+      <c r="AF9" s="58">
+        <v>1153571.4285714284</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A10" s="51" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="52">
+        <v>3372.34901583174</v>
+      </c>
+      <c r="C10" s="52">
+        <v>3648.88202020171</v>
+      </c>
+      <c r="D10" s="52">
+        <v>4149.1146731051249</v>
+      </c>
+      <c r="E10" s="52">
+        <v>4941.8438359453503</v>
+      </c>
+      <c r="F10" s="52">
+        <v>5523.1225485033192</v>
+      </c>
+      <c r="G10" s="52">
+        <v>5096.7960806320552</v>
+      </c>
+      <c r="H10" s="52">
+        <v>4850.1203197474006</v>
+      </c>
+      <c r="I10" s="52">
+        <v>4020.4300880112501</v>
+      </c>
+      <c r="J10" s="55">
+        <v>5881</v>
+      </c>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="M10" s="56">
+        <v>1100866.1637328863</v>
+      </c>
+      <c r="N10" s="57">
+        <v>402405.89833139308</v>
+      </c>
+      <c r="O10" s="57">
+        <v>519984.47807528131</v>
+      </c>
+      <c r="P10" s="57">
+        <v>814901.04772991838</v>
+      </c>
+      <c r="Q10" s="57">
+        <v>952380.95238095243</v>
+      </c>
+      <c r="R10" s="57">
+        <v>2005555.5555555553</v>
+      </c>
+      <c r="S10" s="57">
+        <v>1853968.2539682537</v>
+      </c>
+      <c r="T10" s="57">
+        <v>1819992.6507210676</v>
+      </c>
+      <c r="U10" s="57">
+        <v>867063.49206349195</v>
+      </c>
+      <c r="V10" s="56"/>
+      <c r="W10" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="X10" s="57">
+        <v>1235431.8993777323</v>
+      </c>
+      <c r="Y10" s="57">
+        <v>727202.17306946067</v>
+      </c>
+      <c r="Z10" s="57">
+        <v>1224291.812184711</v>
+      </c>
+      <c r="AA10" s="57">
+        <v>1502910.3608847496</v>
+      </c>
+      <c r="AB10" s="57">
+        <v>1169444.4444444445</v>
+      </c>
+      <c r="AC10" s="57">
+        <v>1753571.4285714284</v>
+      </c>
+      <c r="AD10" s="57">
+        <v>1769841.2698412696</v>
+      </c>
+      <c r="AE10" s="57">
+        <v>1782709.8255714877</v>
+      </c>
+      <c r="AF10" s="58">
+        <v>1063095.2380952381</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A11" s="51" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="52">
+        <v>2593.2204913231549</v>
+      </c>
+      <c r="C11" s="52">
+        <v>3849.637438723445</v>
+      </c>
+      <c r="D11" s="52">
+        <v>3817.4724126426499</v>
+      </c>
+      <c r="E11" s="52">
+        <v>5580.1492925282701</v>
+      </c>
+      <c r="F11" s="52">
+        <v>5268.1531243978452</v>
+      </c>
+      <c r="G11" s="52">
+        <v>5124.84611783318</v>
+      </c>
+      <c r="H11" s="52">
+        <v>5166.1663656391102</v>
+      </c>
+      <c r="I11" s="52">
+        <v>3902.7092234193296</v>
+      </c>
+      <c r="J11" s="55">
+        <v>5645</v>
+      </c>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53" t="s">
+        <v>7</v>
+      </c>
+      <c r="M11" s="56">
+        <v>1031293.657446214</v>
+      </c>
+      <c r="N11" s="57">
+        <v>390376.40667442762</v>
+      </c>
+      <c r="O11" s="57">
+        <v>494761.35040745052</v>
+      </c>
+      <c r="P11" s="57">
+        <v>768723.32169188978</v>
+      </c>
+      <c r="Q11" s="57">
+        <v>955952.38095238095</v>
+      </c>
+      <c r="R11" s="57">
+        <v>1798412.6984126985</v>
+      </c>
+      <c r="S11" s="57">
+        <v>1896031.746031746</v>
+      </c>
+      <c r="T11" s="57">
+        <v>1978769.1496370875</v>
+      </c>
+      <c r="U11" s="57">
+        <v>1024206.3492063492</v>
+      </c>
+      <c r="V11" s="56"/>
+      <c r="W11" s="56" t="s">
+        <v>7</v>
+      </c>
+      <c r="X11" s="56">
+        <v>1160100.5867560771</v>
+      </c>
+      <c r="Y11" s="57">
+        <v>727978.26930539391</v>
+      </c>
+      <c r="Z11" s="57">
+        <v>1331005.0446255335</v>
+      </c>
+      <c r="AA11" s="57">
+        <v>1497089.6391152504</v>
+      </c>
+      <c r="AB11" s="57">
+        <v>926190.47619047621</v>
+      </c>
+      <c r="AC11" s="57">
+        <v>1794444.4444444443</v>
+      </c>
+      <c r="AD11" s="57">
+        <v>1701984.1269841269</v>
+      </c>
+      <c r="AE11" s="57">
+        <v>1604722.5573350277</v>
+      </c>
+      <c r="AF11" s="58">
+        <v>1133333.3333333333</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A12" s="51"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="53"/>
+      <c r="L12" s="53"/>
+      <c r="M12" s="53"/>
+      <c r="N12" s="53"/>
+      <c r="O12" s="53"/>
+      <c r="P12" s="52"/>
+      <c r="Q12" s="53"/>
+      <c r="R12" s="53"/>
+      <c r="S12" s="53"/>
+      <c r="T12" s="53"/>
+      <c r="U12" s="53"/>
+      <c r="V12" s="53"/>
+      <c r="W12" s="53"/>
+      <c r="X12" s="53"/>
+      <c r="Y12" s="53"/>
+      <c r="Z12" s="53"/>
+      <c r="AA12" s="52"/>
+      <c r="AB12" s="52"/>
+      <c r="AC12" s="52"/>
+      <c r="AD12" s="52"/>
+      <c r="AE12" s="52"/>
+      <c r="AF12" s="54"/>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A13" s="51"/>
+      <c r="B13" s="59"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="M13" s="52">
+        <v>1</v>
+      </c>
+      <c r="N13" s="52">
+        <v>2</v>
+      </c>
+      <c r="O13" s="52">
+        <v>3</v>
+      </c>
+      <c r="P13" s="52">
+        <v>4</v>
+      </c>
+      <c r="Q13" s="52">
+        <v>5</v>
+      </c>
+      <c r="R13" s="52">
+        <v>6</v>
+      </c>
+      <c r="S13" s="52">
+        <v>7</v>
+      </c>
+      <c r="T13" s="52">
+        <v>8</v>
+      </c>
+      <c r="U13" s="52">
+        <v>9</v>
+      </c>
+      <c r="V13" s="53"/>
+      <c r="W13" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="X13" s="52">
+        <v>1</v>
+      </c>
+      <c r="Y13" s="52">
+        <v>2</v>
+      </c>
+      <c r="Z13" s="52">
+        <v>3</v>
+      </c>
+      <c r="AA13" s="52">
+        <v>4</v>
+      </c>
+      <c r="AB13" s="52">
+        <v>5</v>
+      </c>
+      <c r="AC13" s="52">
+        <v>6</v>
+      </c>
+      <c r="AD13" s="52">
+        <v>7</v>
+      </c>
+      <c r="AE13" s="52">
+        <v>8</v>
+      </c>
+      <c r="AF13" s="54">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A14" s="51"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="53"/>
+      <c r="K14" s="53"/>
+      <c r="L14" s="53" t="s">
+        <v>5</v>
+      </c>
+      <c r="M14" s="56">
+        <v>2731830.7267709291</v>
+      </c>
+      <c r="N14" s="57">
+        <v>709666.66666666663</v>
+      </c>
+      <c r="O14" s="57">
+        <v>1207415.9907300116</v>
+      </c>
+      <c r="P14" s="57">
+        <v>1686751.6415604476</v>
+      </c>
+      <c r="Q14" s="57">
+        <v>1443359.9526767228</v>
+      </c>
+      <c r="R14" s="56">
+        <v>2980922.8039041702</v>
+      </c>
+      <c r="S14" s="57">
+        <v>2250517.5983436853</v>
+      </c>
+      <c r="T14" s="57">
+        <v>1549871.5424496131</v>
+      </c>
+      <c r="U14" s="57">
+        <v>1987089.2018779342</v>
+      </c>
+      <c r="V14" s="56"/>
+      <c r="W14" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="X14" s="57">
+        <v>2476847.5927629559</v>
+      </c>
+      <c r="Y14" s="57">
+        <v>1061000</v>
+      </c>
+      <c r="Z14" s="57">
+        <v>1708767.8640401699</v>
+      </c>
+      <c r="AA14" s="57">
+        <v>2516415.6044804943</v>
+      </c>
+      <c r="AB14" s="57">
+        <v>1181011.5350488022</v>
+      </c>
+      <c r="AC14" s="57">
+        <v>2729370.0088731144</v>
+      </c>
+      <c r="AD14" s="57">
+        <v>1826530.612244898</v>
+      </c>
+      <c r="AE14" s="57">
+        <v>1381822.4435061933</v>
+      </c>
+      <c r="AF14" s="58">
+        <v>1587636.9327073554</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A15" s="51"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="53"/>
+      <c r="K15" s="53"/>
+      <c r="L15" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="M15" s="56">
+        <v>2089229.8948564932</v>
+      </c>
+      <c r="N15" s="57">
+        <v>761666.66666666663</v>
+      </c>
+      <c r="O15" s="57">
+        <v>1076091.1548860564</v>
+      </c>
+      <c r="P15" s="57">
+        <v>1582078.0224024719</v>
+      </c>
+      <c r="Q15" s="57">
+        <v>1541555.7527358772</v>
+      </c>
+      <c r="R15" s="56">
+        <v>3044365.5723158829</v>
+      </c>
+      <c r="S15" s="57">
+        <v>1951197.8704525288</v>
+      </c>
+      <c r="T15" s="57">
+        <v>1769552.0770756132</v>
+      </c>
+      <c r="U15" s="57">
+        <v>1918622.848200313</v>
+      </c>
+      <c r="V15" s="56"/>
+      <c r="W15" s="56" t="s">
+        <v>6</v>
+      </c>
+      <c r="X15" s="56">
+        <v>2216191.3523459062</v>
+      </c>
+      <c r="Y15" s="57">
+        <v>1122333.3333333333</v>
+      </c>
+      <c r="Z15" s="57">
+        <v>2108922.3638470448</v>
+      </c>
+      <c r="AA15" s="57">
+        <v>2430281.9621475474</v>
+      </c>
+      <c r="AB15" s="57">
+        <v>1374741.2008281574</v>
+      </c>
+      <c r="AC15" s="57">
+        <v>2245785.2706299913</v>
+      </c>
+      <c r="AD15" s="57">
+        <v>1719313.8124815144</v>
+      </c>
+      <c r="AE15" s="57">
+        <v>1305081.6553551534</v>
+      </c>
+      <c r="AF15" s="58">
+        <v>1645931.1424100157</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="60"/>
+      <c r="B16" s="61"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="61"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="61"/>
+      <c r="I16" s="61"/>
+      <c r="J16" s="61"/>
+      <c r="K16" s="61"/>
+      <c r="L16" s="61" t="s">
+        <v>7</v>
+      </c>
+      <c r="M16" s="62">
+        <v>2361750.4973003692</v>
+      </c>
+      <c r="N16" s="63">
+        <v>656000</v>
+      </c>
+      <c r="O16" s="63">
+        <v>1121282.3483970645</v>
+      </c>
+      <c r="P16" s="63">
+        <v>1484356.8945538818</v>
+      </c>
+      <c r="Q16" s="63">
+        <v>1322094.0550133095</v>
+      </c>
+      <c r="R16" s="62">
+        <v>2848565.5131617864</v>
+      </c>
+      <c r="S16" s="63">
+        <v>2375628.5122744753</v>
+      </c>
+      <c r="T16" s="63">
+        <v>1915161.6495935631</v>
+      </c>
+      <c r="U16" s="63">
+        <v>1946791.8622848203</v>
+      </c>
+      <c r="V16" s="62"/>
+      <c r="W16" s="62" t="s">
+        <v>7</v>
+      </c>
+      <c r="X16" s="62">
+        <v>2275375.6516406015</v>
+      </c>
+      <c r="Y16" s="63">
+        <v>1184000</v>
+      </c>
+      <c r="Z16" s="63">
+        <v>1859791.4252607182</v>
+      </c>
+      <c r="AA16" s="63">
+        <v>2651989.1850135182</v>
+      </c>
+      <c r="AB16" s="63">
+        <v>1468500.443655723</v>
+      </c>
+      <c r="AC16" s="63">
+        <v>2319432.1206743568</v>
+      </c>
+      <c r="AD16" s="63">
+        <v>2238095.2380952383</v>
+      </c>
+      <c r="AE16" s="63">
+        <v>1499332.4984239831</v>
+      </c>
+      <c r="AF16" s="64">
+        <v>1566118.9358372458</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A17" s="44"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="44"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="44"/>
+      <c r="L17" s="44"/>
+      <c r="M17" s="46"/>
+      <c r="N17" s="46"/>
+      <c r="O17" s="46"/>
+      <c r="Q17" s="47"/>
+      <c r="R17" s="47"/>
+      <c r="S17" s="47"/>
+      <c r="T17" s="47"/>
+      <c r="U17" s="47"/>
+      <c r="V17" s="46"/>
+      <c r="W17" s="46"/>
+      <c r="X17" s="46"/>
+      <c r="Y17" s="46"/>
+      <c r="Z17" s="46"/>
+    </row>
+    <row r="18" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="44"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="44"/>
+      <c r="K18" s="44"/>
+      <c r="L18" s="44"/>
+      <c r="M18" s="46"/>
+      <c r="N18" s="46"/>
+      <c r="O18" s="46"/>
+      <c r="Q18" s="46"/>
+      <c r="R18" s="46"/>
+      <c r="S18" s="46"/>
+      <c r="T18" s="46"/>
+      <c r="U18" s="46"/>
+      <c r="V18" s="44"/>
+      <c r="W18" s="44"/>
+      <c r="X18" s="44"/>
+      <c r="Y18" s="44"/>
+      <c r="Z18" s="44"/>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A19" s="74" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="75"/>
+      <c r="C19" s="75"/>
+      <c r="D19" s="75"/>
+      <c r="E19" s="75"/>
+      <c r="F19" s="75"/>
+      <c r="G19" s="75"/>
+      <c r="H19" s="75"/>
+      <c r="I19" s="75"/>
+      <c r="J19" s="76"/>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A20" s="77" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="73"/>
+      <c r="C20" s="73"/>
+      <c r="D20" s="73"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="73"/>
+      <c r="G20" s="73"/>
+      <c r="H20" s="73"/>
+      <c r="I20" s="73"/>
+      <c r="J20" s="78"/>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A21" s="12"/>
+      <c r="B21" s="13">
+        <v>1</v>
+      </c>
+      <c r="C21" s="13">
+        <v>2</v>
+      </c>
+      <c r="D21" s="52">
+        <v>3</v>
+      </c>
+      <c r="E21" s="72">
+        <v>4</v>
+      </c>
+      <c r="F21" s="72">
+        <v>5</v>
+      </c>
+      <c r="G21" s="72">
+        <v>6</v>
+      </c>
+      <c r="H21" s="72">
+        <v>7</v>
+      </c>
+      <c r="I21" s="72">
+        <v>8</v>
+      </c>
+      <c r="J21" s="79">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A22" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="26">
+        <f>LN(M14/M9)/24</f>
+        <v>3.8821773220242599E-2</v>
+      </c>
+      <c r="C22" s="26">
+        <f t="shared" ref="C22:J24" si="0">LN(N14/N9)/24</f>
+        <v>2.6378951650178034E-2</v>
+      </c>
+      <c r="D22" s="26">
+        <f t="shared" si="0"/>
+        <v>2.9849922001746965E-2</v>
+      </c>
+      <c r="E22" s="26">
+        <f t="shared" si="0"/>
+        <v>2.8147225906006785E-2</v>
+      </c>
+      <c r="F22" s="26">
+        <f t="shared" si="0"/>
+        <v>1.7988494995311178E-2</v>
+      </c>
+      <c r="G22" s="26">
+        <f t="shared" si="0"/>
+        <v>1.5222346419074641E-2</v>
+      </c>
+      <c r="H22" s="26">
+        <f t="shared" si="0"/>
+        <v>7.9872402468020662E-3</v>
+      </c>
+      <c r="I22" s="26">
+        <f t="shared" si="0"/>
+        <v>-8.9080219880358167E-3</v>
+      </c>
+      <c r="J22" s="27">
+        <f>LN(U14/U9)/24</f>
+        <v>2.8052874967366831E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A23" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23" s="26">
+        <f t="shared" ref="B23:B24" si="1">LN(M15/M10)/24</f>
+        <v>2.6695759799499338E-2</v>
+      </c>
+      <c r="C23" s="26">
+        <f t="shared" si="0"/>
+        <v>2.658532242087067E-2</v>
+      </c>
+      <c r="D23" s="26">
+        <f t="shared" si="0"/>
+        <v>3.0303812178984226E-2</v>
+      </c>
+      <c r="E23" s="26">
+        <f t="shared" si="0"/>
+        <v>2.7642823912860701E-2</v>
+      </c>
+      <c r="F23" s="26">
+        <f t="shared" si="0"/>
+        <v>2.0065929154428414E-2</v>
+      </c>
+      <c r="G23" s="26">
+        <f t="shared" si="0"/>
+        <v>1.7390475890666796E-2</v>
+      </c>
+      <c r="H23" s="26">
+        <f t="shared" si="0"/>
+        <v>2.1297971880162923E-3</v>
+      </c>
+      <c r="I23" s="26">
+        <f t="shared" si="0"/>
+        <v>-1.1710838439416965E-3</v>
+      </c>
+      <c r="J23" s="27">
+        <f t="shared" si="0"/>
+        <v>3.309378062893336E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A24" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="26">
+        <f t="shared" si="1"/>
+        <v>3.4524545331977852E-2</v>
+      </c>
+      <c r="C24" s="26">
+        <f t="shared" si="0"/>
+        <v>2.1627057081443021E-2</v>
+      </c>
+      <c r="D24" s="26">
+        <f t="shared" si="0"/>
+        <v>3.4089697388872117E-2</v>
+      </c>
+      <c r="E24" s="26">
+        <f t="shared" si="0"/>
+        <v>2.7416907281963349E-2</v>
+      </c>
+      <c r="F24" s="26">
+        <f t="shared" si="0"/>
+        <v>1.3511002616263583E-2</v>
+      </c>
+      <c r="G24" s="26">
+        <f t="shared" si="0"/>
+        <v>1.9162962383772929E-2</v>
+      </c>
+      <c r="H24" s="26">
+        <f t="shared" si="0"/>
+        <v>9.3957871601391095E-3</v>
+      </c>
+      <c r="I24" s="26">
+        <f t="shared" si="0"/>
+        <v>-1.3613741008030996E-3</v>
+      </c>
+      <c r="J24" s="27">
+        <f t="shared" si="0"/>
+        <v>2.6761033321185217E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A25" s="12"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="13"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="52"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="54"/>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A26" s="77" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26" s="73"/>
+      <c r="C26" s="73"/>
+      <c r="D26" s="73"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="73"/>
+      <c r="G26" s="73"/>
+      <c r="H26" s="73"/>
+      <c r="I26" s="73"/>
+      <c r="J26" s="78"/>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A27" s="12"/>
+      <c r="B27" s="13">
+        <v>1</v>
+      </c>
+      <c r="C27" s="13">
+        <v>2</v>
+      </c>
+      <c r="D27" s="52">
+        <v>3</v>
+      </c>
+      <c r="E27" s="72">
+        <v>4</v>
+      </c>
+      <c r="F27" s="72">
+        <v>5</v>
+      </c>
+      <c r="G27" s="72">
+        <v>6</v>
+      </c>
+      <c r="H27" s="72">
+        <v>7</v>
+      </c>
+      <c r="I27" s="72">
+        <v>8</v>
+      </c>
+      <c r="J27" s="79">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A28" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="28">
+        <f>-(((LN(X14/X9)/24))-B22)</f>
+        <v>7.2284779373988708E-3</v>
+      </c>
+      <c r="C28" s="28">
+        <f t="shared" ref="C28:J30" si="2">-(((LN(Y14/Y9)/24))-C22)</f>
+        <v>6.9202861865744446E-3</v>
+      </c>
+      <c r="D28" s="28">
+        <f t="shared" si="2"/>
+        <v>1.320088482011883E-2</v>
+      </c>
+      <c r="E28" s="28">
+        <f t="shared" si="2"/>
+        <v>7.0030687007238759E-3</v>
+      </c>
+      <c r="F28" s="28">
+        <f t="shared" si="2"/>
+        <v>1.3675649443481146E-2</v>
+      </c>
+      <c r="G28" s="28">
+        <f t="shared" si="2"/>
+        <v>-1.8481606643206243E-3</v>
+      </c>
+      <c r="H28" s="28">
+        <f t="shared" si="2"/>
+        <v>8.2584296909393295E-4</v>
+      </c>
+      <c r="I28" s="28">
+        <f t="shared" si="2"/>
+        <v>-1.9624335793807122E-3</v>
+      </c>
+      <c r="J28" s="29">
+        <f t="shared" si="2"/>
+        <v>1.4745208932578165E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A29" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="28">
+        <f t="shared" ref="B29:B30" si="3">-(((LN(X15/X10)/24))-B23)</f>
+        <v>2.3470310305488337E-3</v>
+      </c>
+      <c r="C29" s="28">
+        <f t="shared" si="2"/>
+        <v>8.5036307806696208E-3</v>
+      </c>
+      <c r="D29" s="28">
+        <f t="shared" si="2"/>
+        <v>7.6448736512982132E-3</v>
+      </c>
+      <c r="E29" s="28">
+        <f t="shared" si="2"/>
+        <v>7.6176649310172075E-3</v>
+      </c>
+      <c r="F29" s="28">
+        <f t="shared" si="2"/>
+        <v>1.3326900254776935E-2</v>
+      </c>
+      <c r="G29" s="28">
+        <f t="shared" si="2"/>
+        <v>7.0821124789969252E-3</v>
+      </c>
+      <c r="H29" s="28">
+        <f t="shared" si="2"/>
+        <v>3.3366555011486278E-3</v>
+      </c>
+      <c r="I29" s="28">
+        <f t="shared" si="2"/>
+        <v>1.1823456598291872E-2</v>
+      </c>
+      <c r="J29" s="29">
+        <f t="shared" si="2"/>
+        <v>1.4880381501685205E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A30" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B30" s="28">
+        <f t="shared" si="3"/>
+        <v>6.4562767364608371E-3</v>
+      </c>
+      <c r="C30" s="28">
+        <f t="shared" si="2"/>
+        <v>1.3611146836093151E-3</v>
+      </c>
+      <c r="D30" s="28">
+        <f t="shared" si="2"/>
+        <v>2.0150946764994293E-2</v>
+      </c>
+      <c r="E30" s="28">
+        <f t="shared" si="2"/>
+        <v>3.592448471430424E-3</v>
+      </c>
+      <c r="F30" s="28">
+        <f t="shared" si="2"/>
+        <v>-5.6938782766678582E-3</v>
+      </c>
+      <c r="G30" s="28">
+        <f t="shared" si="2"/>
+        <v>8.4701745582752216E-3</v>
+      </c>
+      <c r="H30" s="28">
+        <f t="shared" si="2"/>
+        <v>-2.0138153388285732E-3</v>
+      </c>
+      <c r="I30" s="28">
+        <f t="shared" si="2"/>
+        <v>1.4690789054916747E-3</v>
+      </c>
+      <c r="J30" s="29">
+        <f t="shared" si="2"/>
+        <v>1.3284474965304289E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A31" s="12"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="52"/>
+      <c r="E31" s="52"/>
+      <c r="F31" s="52"/>
+      <c r="G31" s="52"/>
+      <c r="H31" s="52"/>
+      <c r="I31" s="52"/>
+      <c r="J31" s="54"/>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A32" s="77" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" s="73"/>
+      <c r="C32" s="73"/>
+      <c r="D32" s="73"/>
+      <c r="E32" s="73"/>
+      <c r="F32" s="73"/>
+      <c r="G32" s="73"/>
+      <c r="H32" s="73"/>
+      <c r="I32" s="73"/>
+      <c r="J32" s="78"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A33" s="12"/>
+      <c r="B33" s="13">
+        <v>1</v>
+      </c>
+      <c r="C33" s="13">
+        <v>2</v>
+      </c>
+      <c r="D33" s="52">
+        <v>3</v>
+      </c>
+      <c r="E33" s="72">
+        <v>4</v>
+      </c>
+      <c r="F33" s="72">
+        <v>5</v>
+      </c>
+      <c r="G33" s="72">
+        <v>6</v>
+      </c>
+      <c r="H33" s="72">
+        <v>7</v>
+      </c>
+      <c r="I33" s="72">
+        <v>8</v>
+      </c>
+      <c r="J33" s="79">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A34" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="30">
+        <f>(X9*(EXP((B22-B28)*24)-1))/(24*(B22-B28))</f>
+        <v>1736217.0076557319</v>
+      </c>
+      <c r="C34" s="30">
+        <f t="shared" ref="C34:J36" si="4">(Y9*(EXP((C22-C28)*24)-1))/(24*(C22-C28))</f>
+        <v>847706.14268161345</v>
+      </c>
+      <c r="D34" s="30">
+        <f t="shared" si="4"/>
+        <v>1408644.4497869215</v>
+      </c>
+      <c r="E34" s="30">
+        <f t="shared" si="4"/>
+        <v>1973507.6657657749</v>
+      </c>
+      <c r="F34" s="30">
+        <f t="shared" si="4"/>
+        <v>1121944.7160063216</v>
+      </c>
+      <c r="G34" s="30">
+        <f t="shared" si="4"/>
+        <v>2239401.4680949938</v>
+      </c>
+      <c r="H34" s="30">
+        <f t="shared" si="4"/>
+        <v>1678183.7570970973</v>
+      </c>
+      <c r="I34" s="30">
+        <f t="shared" si="4"/>
+        <v>1503668.5478970627</v>
+      </c>
+      <c r="J34" s="31">
+        <f t="shared" si="4"/>
+        <v>1359070.9764619903</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="30">
+        <f t="shared" ref="B35:B36" si="5">(X10*(EXP((B23-B29)*24)-1))/(24*(B23-B29))</f>
+        <v>1678320.7696295942</v>
+      </c>
+      <c r="C35" s="30">
+        <f t="shared" si="4"/>
+        <v>910523.12316420884</v>
+      </c>
+      <c r="D35" s="30">
+        <f t="shared" si="4"/>
+        <v>1626713.7259861794</v>
+      </c>
+      <c r="E35" s="30">
+        <f t="shared" si="4"/>
+        <v>1929596.8347110078</v>
+      </c>
+      <c r="F35" s="30">
+        <f t="shared" si="4"/>
+        <v>1269327.0266922922</v>
+      </c>
+      <c r="G35" s="30">
+        <f t="shared" si="4"/>
+        <v>1989540.8482160964</v>
+      </c>
+      <c r="H35" s="30">
+        <f t="shared" si="4"/>
+        <v>1744455.5839027334</v>
+      </c>
+      <c r="I35" s="30">
+        <f t="shared" si="4"/>
+        <v>1531502.6989591031</v>
+      </c>
+      <c r="J35" s="31">
+        <f t="shared" si="4"/>
+        <v>1333349.6497157277</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" s="30">
+        <f t="shared" si="5"/>
+        <v>1655598.8913976166</v>
+      </c>
+      <c r="C36" s="30">
+        <f t="shared" si="4"/>
+        <v>937578.18277622538</v>
+      </c>
+      <c r="D36" s="30">
+        <f t="shared" si="4"/>
+        <v>1580684.4138567238</v>
+      </c>
+      <c r="E36" s="30">
+        <f t="shared" si="4"/>
+        <v>2019807.2407484595</v>
+      </c>
+      <c r="F36" s="30">
+        <f t="shared" si="4"/>
+        <v>1176588.8458439787</v>
+      </c>
+      <c r="G36" s="30">
+        <f t="shared" si="4"/>
+        <v>2045723.4227932999</v>
+      </c>
+      <c r="H36" s="30">
+        <f t="shared" si="4"/>
+        <v>1957821.3145448386</v>
+      </c>
+      <c r="I36" s="30">
+        <f t="shared" si="4"/>
+        <v>1551430.9705410951</v>
+      </c>
+      <c r="J36" s="31">
+        <f t="shared" si="4"/>
+        <v>1338081.5013347871</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" s="12"/>
+      <c r="B37" s="13"/>
+      <c r="C37" s="13"/>
+      <c r="D37" s="52"/>
+      <c r="E37" s="52"/>
+      <c r="F37" s="52"/>
+      <c r="G37" s="52"/>
+      <c r="H37" s="52"/>
+      <c r="I37" s="52"/>
+      <c r="J37" s="54"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" s="77" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" s="73"/>
+      <c r="C38" s="73"/>
+      <c r="D38" s="73"/>
+      <c r="E38" s="73"/>
+      <c r="F38" s="73"/>
+      <c r="G38" s="73"/>
+      <c r="H38" s="73"/>
+      <c r="I38" s="73"/>
+      <c r="J38" s="78"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" s="12"/>
+      <c r="B39" s="13">
+        <v>1</v>
+      </c>
+      <c r="C39" s="13">
+        <v>2</v>
+      </c>
+      <c r="D39" s="52">
+        <v>3</v>
+      </c>
+      <c r="E39" s="72">
+        <v>4</v>
+      </c>
+      <c r="F39" s="72">
+        <v>5</v>
+      </c>
+      <c r="G39" s="72">
+        <v>6</v>
+      </c>
+      <c r="H39" s="72">
+        <v>7</v>
+      </c>
+      <c r="I39" s="72">
+        <v>8</v>
+      </c>
+      <c r="J39" s="79">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A40" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" s="32">
+        <f>(B28*200)/(B9*200)</f>
+        <v>2.0581164666173753E-6</v>
+      </c>
+      <c r="C40" s="32">
+        <f t="shared" ref="C40:J40" si="6">(C28*200)/(C9*200)</f>
+        <v>2.1894069312008167E-6</v>
+      </c>
+      <c r="D40" s="32">
+        <f t="shared" si="6"/>
+        <v>3.2998625950917679E-6</v>
+      </c>
+      <c r="E40" s="32">
+        <f t="shared" si="6"/>
+        <v>1.4493327166331014E-6</v>
+      </c>
+      <c r="F40" s="32">
+        <f t="shared" si="6"/>
+        <v>2.2464901163009141E-6</v>
+      </c>
+      <c r="G40" s="32">
+        <f t="shared" si="6"/>
+        <v>-3.1116333651858392E-7</v>
+      </c>
+      <c r="H40" s="32">
+        <f t="shared" si="6"/>
+        <v>1.4927052463544984E-7</v>
+      </c>
+      <c r="I40" s="32">
+        <f t="shared" si="6"/>
+        <v>-4.7551446114118471E-7</v>
+      </c>
+      <c r="J40" s="33">
+        <f t="shared" si="6"/>
+        <v>2.3308898091334435E-6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A41" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" s="32">
+        <f t="shared" ref="B41:B42" si="7">(B29*200)/(B10*200)</f>
+        <v>6.9596326463557723E-7</v>
+      </c>
+      <c r="C41" s="32">
+        <f t="shared" ref="C41:J41" si="8">(C29*200)/(C10*200)</f>
+        <v>2.3304756727101692E-6</v>
+      </c>
+      <c r="D41" s="32">
+        <f t="shared" si="8"/>
+        <v>1.8425312997138551E-6</v>
+      </c>
+      <c r="E41" s="32">
+        <f t="shared" si="8"/>
+        <v>1.5414620906490027E-6</v>
+      </c>
+      <c r="F41" s="32">
+        <f t="shared" si="8"/>
+        <v>2.4129285812041811E-6</v>
+      </c>
+      <c r="G41" s="32">
+        <f t="shared" si="8"/>
+        <v>1.3895224307499999E-6</v>
+      </c>
+      <c r="H41" s="32">
+        <f t="shared" si="8"/>
+        <v>6.8795313954652659E-7</v>
+      </c>
+      <c r="I41" s="32">
+        <f t="shared" si="8"/>
+        <v>2.9408437255379502E-6</v>
+      </c>
+      <c r="J41" s="33">
+        <f t="shared" si="8"/>
+        <v>2.5302468120532571E-6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B42" s="32">
+        <f t="shared" si="7"/>
+        <v>2.4896751965609415E-6</v>
+      </c>
+      <c r="C42" s="32">
+        <f t="shared" ref="C42:J42" si="9">(C30*200)/(C11*200)</f>
+        <v>3.5356957772643294E-7</v>
+      </c>
+      <c r="D42" s="32">
+        <f t="shared" si="9"/>
+        <v>5.2786096628383427E-6</v>
+      </c>
+      <c r="E42" s="32">
+        <f t="shared" si="9"/>
+        <v>6.4379074521189871E-7</v>
+      </c>
+      <c r="F42" s="32">
+        <f t="shared" si="9"/>
+        <v>-1.0808110816480253E-6</v>
+      </c>
+      <c r="G42" s="32">
+        <f t="shared" si="9"/>
+        <v>1.6527666126015252E-6</v>
+      </c>
+      <c r="H42" s="32">
+        <f t="shared" si="9"/>
+        <v>-3.8980845685162962E-7</v>
+      </c>
+      <c r="I42" s="32">
+        <f t="shared" si="9"/>
+        <v>3.7642540640128763E-7</v>
+      </c>
+      <c r="J42" s="33">
+        <f t="shared" si="9"/>
+        <v>2.3533170886278633E-6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A43" s="12"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="52"/>
+      <c r="E43" s="52"/>
+      <c r="F43" s="52"/>
+      <c r="G43" s="52"/>
+      <c r="H43" s="52"/>
+      <c r="I43" s="52"/>
+      <c r="J43" s="54"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A44" s="77" t="s">
+        <v>47</v>
+      </c>
+      <c r="B44" s="73"/>
+      <c r="C44" s="73"/>
+      <c r="D44" s="73"/>
+      <c r="E44" s="73"/>
+      <c r="F44" s="73"/>
+      <c r="G44" s="73"/>
+      <c r="H44" s="73"/>
+      <c r="I44" s="73"/>
+      <c r="J44" s="78"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" s="12"/>
+      <c r="B45" s="13">
+        <v>1</v>
+      </c>
+      <c r="C45" s="13">
+        <v>2</v>
+      </c>
+      <c r="D45" s="52">
+        <v>3</v>
+      </c>
+      <c r="E45" s="72">
+        <v>4</v>
+      </c>
+      <c r="F45" s="72">
+        <v>5</v>
+      </c>
+      <c r="G45" s="72">
+        <v>6</v>
+      </c>
+      <c r="H45" s="72">
+        <v>7</v>
+      </c>
+      <c r="I45" s="72">
+        <v>8</v>
+      </c>
+      <c r="J45" s="79">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" s="34">
+        <f>B40*B34</f>
+        <v>3.5733368130774075</v>
+      </c>
+      <c r="C46" s="34">
+        <f t="shared" ref="C46:J46" si="10">C40*C34</f>
+        <v>1.8559737044086329</v>
+      </c>
+      <c r="D46" s="34">
+        <f t="shared" si="10"/>
+        <v>4.6483331296354864</v>
+      </c>
+      <c r="E46" s="34">
+        <f t="shared" si="10"/>
+        <v>2.8602692265205611</v>
+      </c>
+      <c r="F46" s="34">
+        <f t="shared" si="10"/>
+        <v>2.5204377155442375</v>
+      </c>
+      <c r="G46" s="34">
+        <f t="shared" si="10"/>
+        <v>-0.69681963261705349</v>
+      </c>
+      <c r="H46" s="34">
+        <f t="shared" si="10"/>
+        <v>0.25050336985657407</v>
+      </c>
+      <c r="I46" s="34">
+        <f t="shared" si="10"/>
+        <v>-0.7150161392882195</v>
+      </c>
+      <c r="J46" s="35">
+        <f t="shared" si="10"/>
+        <v>3.1678446889242911</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B47" s="34">
+        <f t="shared" ref="B47:B48" si="11">B41*B35</f>
+        <v>1.1680496019371069</v>
+      </c>
+      <c r="C47" s="34">
+        <f t="shared" ref="C47:J47" si="12">C41*C35</f>
+        <v>2.1219519879742736</v>
+      </c>
+      <c r="D47" s="34">
+        <f t="shared" si="12"/>
+        <v>2.9972709558036832</v>
+      </c>
+      <c r="E47" s="34">
+        <f t="shared" si="12"/>
+        <v>2.9744003709433282</v>
+      </c>
+      <c r="F47" s="34">
+        <f t="shared" si="12"/>
+        <v>3.0627954616007544</v>
+      </c>
+      <c r="G47" s="34">
+        <f t="shared" si="12"/>
+        <v>2.7645116354896468</v>
+      </c>
+      <c r="H47" s="34">
+        <f t="shared" si="12"/>
+        <v>1.2001036957453546</v>
+      </c>
+      <c r="I47" s="34">
+        <f t="shared" si="12"/>
+        <v>4.5039101028783142</v>
+      </c>
+      <c r="J47" s="35">
+        <f t="shared" si="12"/>
+        <v>3.3737037005455468</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48" s="34">
+        <f t="shared" si="11"/>
+        <v>4.1219034953664382</v>
+      </c>
+      <c r="C48" s="34">
+        <f t="shared" ref="C48:J48" si="13">C42*C36</f>
+        <v>0.33149912216970634</v>
+      </c>
+      <c r="D48" s="34">
+        <f t="shared" si="13"/>
+        <v>8.3438160208820644</v>
+      </c>
+      <c r="E48" s="34">
+        <f t="shared" si="13"/>
+        <v>1.3003332087058397</v>
+      </c>
+      <c r="F48" s="34">
+        <f t="shared" si="13"/>
+        <v>-1.2716702631316323</v>
+      </c>
+      <c r="G48" s="34">
+        <f t="shared" si="13"/>
+        <v>3.3811033718096799</v>
+      </c>
+      <c r="H48" s="34">
+        <f t="shared" si="13"/>
+        <v>-0.76317530541395251</v>
+      </c>
+      <c r="I48" s="34">
+        <f t="shared" si="13"/>
+        <v>0.58399803358947588</v>
+      </c>
+      <c r="J48" s="35">
+        <f t="shared" si="13"/>
+        <v>3.1489300630679815</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" s="69"/>
+      <c r="B49" s="52"/>
+      <c r="C49" s="52"/>
+      <c r="D49" s="52"/>
+      <c r="E49" s="52"/>
+      <c r="F49" s="52"/>
+      <c r="G49" s="52"/>
+      <c r="H49" s="52"/>
+      <c r="I49" s="52"/>
+      <c r="J49" s="54"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A50" s="80" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50" s="81"/>
+      <c r="C50" s="81"/>
+      <c r="D50" s="81"/>
+      <c r="E50" s="81"/>
+      <c r="F50" s="81"/>
+      <c r="G50" s="81"/>
+      <c r="H50" s="81"/>
+      <c r="I50" s="81"/>
+      <c r="J50" s="82"/>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A51" s="83"/>
+      <c r="B51" s="13">
+        <v>1</v>
+      </c>
+      <c r="C51" s="13">
+        <v>2</v>
+      </c>
+      <c r="D51" s="52">
+        <v>3</v>
+      </c>
+      <c r="E51" s="72">
+        <v>4</v>
+      </c>
+      <c r="F51" s="72">
+        <v>5</v>
+      </c>
+      <c r="G51" s="72">
+        <v>6</v>
+      </c>
+      <c r="H51" s="72">
+        <v>7</v>
+      </c>
+      <c r="I51" s="72">
+        <v>8</v>
+      </c>
+      <c r="J51" s="79">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" s="84" t="s">
+        <v>59</v>
+      </c>
+      <c r="B52" s="85">
+        <f>AVERAGE(B46:B48)</f>
+        <v>2.9544299701269843</v>
+      </c>
+      <c r="C52" s="85">
+        <f t="shared" ref="C52:J52" si="14">AVERAGE(C46:C48)</f>
+        <v>1.4364749381842044</v>
+      </c>
+      <c r="D52" s="85">
+        <f t="shared" si="14"/>
+        <v>5.3298067021070779</v>
+      </c>
+      <c r="E52" s="85">
+        <f t="shared" si="14"/>
+        <v>2.3783342687232429</v>
+      </c>
+      <c r="F52" s="85">
+        <f t="shared" si="14"/>
+        <v>1.4371876380044533</v>
+      </c>
+      <c r="G52" s="85">
+        <f t="shared" si="14"/>
+        <v>1.8162651248940911</v>
+      </c>
+      <c r="H52" s="85">
+        <f t="shared" si="14"/>
+        <v>0.22914392006265868</v>
+      </c>
+      <c r="I52" s="85">
+        <f t="shared" si="14"/>
+        <v>1.4576306657265234</v>
+      </c>
+      <c r="J52" s="86">
+        <f t="shared" si="14"/>
+        <v>3.2301594841792731</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="87" t="s">
+        <v>60</v>
+      </c>
+      <c r="B53" s="70">
+        <f>STDEV(B46:B48)</f>
+        <v>1.5711770957215645</v>
+      </c>
+      <c r="C53" s="70">
+        <f t="shared" ref="C53:J53" si="15">STDEV(C46:C48)</f>
+        <v>0.96613393342476606</v>
+      </c>
+      <c r="D53" s="70">
+        <f t="shared" si="15"/>
+        <v>2.7376432758325908</v>
+      </c>
+      <c r="E53" s="70">
+        <f t="shared" si="15"/>
+        <v>0.93531876575892381</v>
+      </c>
+      <c r="F53" s="70">
+        <f t="shared" si="15"/>
+        <v>2.3615612055560669</v>
+      </c>
+      <c r="G53" s="70">
+        <f t="shared" si="15"/>
+        <v>2.1981225150456636</v>
+      </c>
+      <c r="H53" s="70">
+        <f t="shared" si="15"/>
+        <v>0.98181376985143964</v>
+      </c>
+      <c r="I53" s="70">
+        <f t="shared" si="15"/>
+        <v>2.7169326937273688</v>
+      </c>
+      <c r="J53" s="71">
+        <f t="shared" si="15"/>
+        <v>0.12467215930983444</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="A50:J50"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="A26:J26"/>
+    <mergeCell ref="A32:J32"/>
+    <mergeCell ref="A38:J38"/>
+    <mergeCell ref="A44:J44"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A19:J19"/>
+    <mergeCell ref="A6:AF6"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="E3:F3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Data/SupplementalGrazing.xlsx
+++ b/Data/SupplementalGrazing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://outlookuga-my.sharepoint.com/personal/ccz99536_uga_edu/Documents/Cruises/NES_CCS_Comparison/AcidotropicManuscript/AcidotropicDyes/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="362" documentId="8_{976B7C3B-B834-2A4C-A1AE-E694B56BC778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8CD88A32-9D88-2147-9232-EE1936D1FD39}"/>
+  <xr:revisionPtr revIDLastSave="363" documentId="8_{976B7C3B-B834-2A4C-A1AE-E694B56BC778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{86F8C3B7-8D18-7140-94CD-FC67CAEDFA88}"/>
   <bookViews>
-    <workbookView xWindow="32500" yWindow="-1460" windowWidth="35980" windowHeight="18780" activeTab="1" xr2:uid="{B6F7C1C0-5192-CC47-A1D2-D0875B587AFE}"/>
+    <workbookView xWindow="-20" yWindow="760" windowWidth="30240" windowHeight="18780" activeTab="1" xr2:uid="{B6F7C1C0-5192-CC47-A1D2-D0875B587AFE}"/>
   </bookViews>
   <sheets>
     <sheet name="Tetraselmis" sheetId="1" r:id="rId1"/>
@@ -19,9 +19,6 @@
     <sheet name="Raw_TetraselmisPreyRemoval" sheetId="4" r:id="rId4"/>
     <sheet name="Raw_SOmixoPreyRemoval" sheetId="5" r:id="rId5"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId6"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -43,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="59">
   <si>
     <t>Culture</t>
   </si>
@@ -69,9 +66,6 @@
     <t>C</t>
   </si>
   <si>
-    <t>Media</t>
-  </si>
-  <si>
     <t>Date</t>
   </si>
   <si>
@@ -82,9 +76,6 @@
   </si>
   <si>
     <t>GC</t>
-  </si>
-  <si>
-    <t>Replete</t>
   </si>
   <si>
     <t>MA</t>
@@ -233,7 +224,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -396,7 +387,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -410,35 +401,66 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="11" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -448,53 +470,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -506,29 +500,9 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -544,55 +518,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Tetraselmis"/>
-      <sheetName val="Bacteria"/>
-      <sheetName val="ClaireCalc"/>
-      <sheetName val="T24"/>
-      <sheetName val="T48"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3">
-        <row r="39">
-          <cell r="B39" t="str">
-            <v>Lab Tet</v>
-          </cell>
-          <cell r="C39" t="str">
-            <v>ACUFF Tet</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="B44">
-            <v>2.1227773111258625</v>
-          </cell>
-          <cell r="C44">
-            <v>1.7848958096936316</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="B45">
-            <v>0.35765365273472349</v>
-          </cell>
-          <cell r="C45">
-            <v>0.28694308080517811</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="4"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
@@ -939,7 +864,7 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -1033,19 +958,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9BDF01E-F873-7D45-8D6A-2A3A840C9EF6}">
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8:P9"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1058,169 +983,130 @@
       <c r="D1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="B2" s="3">
+        <v>45413</v>
+      </c>
+      <c r="C2">
+        <v>2.9544299701269843</v>
+      </c>
+      <c r="D2">
+        <v>1.5711770957215601</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" s="3">
+        <v>45413</v>
+      </c>
+      <c r="C3">
+        <v>1.4364749381842044</v>
+      </c>
+      <c r="D3">
+        <v>0.96613393342476606</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="3">
+        <v>45413</v>
+      </c>
+      <c r="C4">
+        <v>5.3298067021070779</v>
+      </c>
+      <c r="D4">
+        <v>2.7376432758325908</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="3">
+        <v>45413</v>
+      </c>
+      <c r="C5">
+        <v>2.3783342687232429</v>
+      </c>
+      <c r="D5">
+        <v>0.93531876575892381</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="3">
+      <c r="B6" s="3">
         <v>45413</v>
       </c>
-      <c r="D2" s="45">
-        <v>2.9544299701269843</v>
-      </c>
-      <c r="E2" s="45">
-        <v>1.5711770957215601</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C6">
+        <v>1.4371876380044533</v>
+      </c>
+      <c r="D6">
+        <v>2.3615612055560669</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="3">
+      <c r="B7" s="3">
         <v>45413</v>
       </c>
-      <c r="D3" s="45">
-        <v>1.4364749381842044</v>
-      </c>
-      <c r="E3" s="45">
-        <v>0.96613393342476606</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="C7">
+        <v>1.8162651248940911</v>
+      </c>
+      <c r="D7">
+        <v>2.1981225150456636</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="3">
+      <c r="B8" s="3">
         <v>45413</v>
       </c>
-      <c r="D4" s="45">
-        <v>5.3298067021070779</v>
-      </c>
-      <c r="E4" s="45">
-        <v>2.7376432758325908</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="C8">
+        <v>0.22914392006265868</v>
+      </c>
+      <c r="D8">
+        <v>0.98181376985143964</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="3">
-        <v>45413</v>
-      </c>
-      <c r="D5" s="45">
-        <v>2.3783342687232429</v>
-      </c>
-      <c r="E5" s="45">
-        <v>0.93531876575892381</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="3">
-        <v>45413</v>
-      </c>
-      <c r="D6" s="45">
-        <v>1.4371876380044533</v>
-      </c>
-      <c r="E6" s="45">
-        <v>2.3615612055560669</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="3">
-        <v>45413</v>
-      </c>
-      <c r="D7" s="45">
-        <v>1.8162651248940911</v>
-      </c>
-      <c r="E7" s="45">
-        <v>2.1981225150456636</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="3">
-        <v>45413</v>
-      </c>
-      <c r="D8" s="45">
-        <v>0.22914392006265868</v>
-      </c>
-      <c r="E8" s="45">
-        <v>0.98181376985143964</v>
-      </c>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="45"/>
-      <c r="M8" s="45"/>
-      <c r="N8" s="45"/>
-      <c r="O8" s="45"/>
-      <c r="P8" s="45"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="3">
+      <c r="B9" s="3">
         <v>45566</v>
       </c>
-      <c r="D9" s="45">
+      <c r="C9">
         <v>1.4576306657265234</v>
       </c>
-      <c r="E9" s="45">
+      <c r="D9">
         <v>2.7169326937273688</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="3">
+        <v>11</v>
+      </c>
+      <c r="B10" s="3">
         <v>45352</v>
       </c>
-      <c r="D10" s="45">
+      <c r="C10">
         <v>3.2301594841792731</v>
       </c>
-      <c r="E10" s="45">
+      <c r="D10">
         <v>0.12467215930983444</v>
       </c>
     </row>
@@ -1250,54 +1136,54 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D2" s="5">
         <v>169</v>
@@ -1342,13 +1228,13 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D3" s="5">
         <v>242</v>
@@ -1386,13 +1272,13 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D4" s="5">
         <v>175</v>
@@ -1425,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="2">
-        <f t="shared" ref="M4:M14" si="3">G5-G4</f>
+        <f t="shared" ref="M4" si="3">G5-G4</f>
         <v>6.6006600660066007E-3</v>
       </c>
       <c r="N4" s="5"/>
@@ -1433,13 +1319,13 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D5" s="5">
         <v>301</v>
@@ -1477,13 +1363,13 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D6" s="5">
         <v>396</v>
@@ -1516,7 +1402,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="2">
-        <f t="shared" ref="M6:M14" si="4">G7-G6</f>
+        <f t="shared" ref="M6" si="4">G7-G6</f>
         <v>2.3474178403755869E-3</v>
       </c>
       <c r="N6" s="5"/>
@@ -1524,13 +1410,13 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D7" s="5">
         <v>850</v>
@@ -1568,13 +1454,13 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D8" s="5">
         <v>459</v>
@@ -1607,7 +1493,7 @@
         <v>15.411811863887459</v>
       </c>
       <c r="M8" s="2">
-        <f t="shared" ref="M8:M14" si="5">G9-G8</f>
+        <f t="shared" ref="M8" si="5">G9-G8</f>
         <v>-1.6858749000270433E-3</v>
       </c>
       <c r="N8" s="2">
@@ -1619,13 +1505,13 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D9" s="5">
         <v>752</v>
@@ -1663,13 +1549,13 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D10" s="5">
         <v>471</v>
@@ -1702,7 +1588,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="2">
-        <f t="shared" ref="M10:M14" si="6">G11-G10</f>
+        <f t="shared" ref="M10" si="6">G11-G10</f>
         <v>7.6335877862595417E-3</v>
       </c>
       <c r="N10" s="5"/>
@@ -1710,13 +1596,13 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D11" s="5">
         <v>520</v>
@@ -1754,13 +1640,13 @@
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D12" s="5">
         <v>514</v>
@@ -1793,7 +1679,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="2">
-        <f t="shared" ref="M12:M14" si="7">G13-G12</f>
+        <f t="shared" ref="M12" si="7">G13-G12</f>
         <v>1.8832391713747645E-3</v>
       </c>
       <c r="N12" s="5"/>
@@ -1801,13 +1687,13 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D13" s="5">
         <v>530</v>
@@ -1861,42 +1747,42 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.1640625" style="23"/>
-    <col min="2" max="2" width="13.1640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18" style="23" customWidth="1"/>
-    <col min="4" max="16384" width="12.1640625" style="23"/>
+    <col min="1" max="1" width="12.1640625" style="20"/>
+    <col min="2" max="2" width="13.1640625" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18" style="20" customWidth="1"/>
+    <col min="4" max="16384" width="12.1640625" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
+      <c r="A1" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
       <c r="E2" s="10" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
       <c r="I2" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="J2" s="10"/>
       <c r="K2" s="11"/>
@@ -1904,247 +1790,247 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13" t="s">
+      <c r="D3" s="7"/>
+      <c r="E3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="K3" s="14" t="s">
-        <v>29</v>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="L3" s="7"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" s="15">
+        <v>34</v>
+      </c>
+      <c r="B4" s="14">
         <v>444509</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="14">
         <v>394752</v>
       </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="16">
+      <c r="D4" s="7"/>
+      <c r="E4" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="8">
         <v>749000</v>
       </c>
-      <c r="G4" s="16">
+      <c r="G4" s="8">
         <v>3670000</v>
       </c>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="J4" s="16">
+      <c r="H4" s="8"/>
+      <c r="I4" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" s="8">
         <v>23400000</v>
       </c>
-      <c r="K4" s="17">
+      <c r="K4" s="15">
         <v>32300000</v>
       </c>
       <c r="L4" s="8"/>
-      <c r="M4" s="24"/>
+      <c r="M4" s="21"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="15">
+      <c r="B5" s="14">
         <v>409329</v>
       </c>
-      <c r="C5" s="15">
+      <c r="C5" s="14">
         <v>599417</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13" t="s">
+      <c r="D5" s="7"/>
+      <c r="E5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="8">
         <v>738000</v>
       </c>
-      <c r="G5" s="16">
+      <c r="G5" s="8">
         <v>3510000</v>
       </c>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16" t="s">
+      <c r="H5" s="8"/>
+      <c r="I5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="16">
+      <c r="J5" s="8">
         <v>22200000</v>
       </c>
-      <c r="K5" s="17">
+      <c r="K5" s="15">
         <v>34200000</v>
       </c>
       <c r="L5" s="8"/>
-      <c r="M5" s="24"/>
+      <c r="M5" s="21"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="15">
+      <c r="B6" s="14">
         <v>297959</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="14">
         <v>391837</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13" t="s">
+      <c r="D6" s="7"/>
+      <c r="E6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="8">
         <v>755000</v>
       </c>
-      <c r="G6" s="16">
+      <c r="G6" s="8">
         <v>3390000</v>
       </c>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16" t="s">
+      <c r="H6" s="8"/>
+      <c r="I6" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="J6" s="16">
+      <c r="J6" s="8">
         <v>23900000</v>
       </c>
-      <c r="K6" s="17">
+      <c r="K6" s="15">
         <v>33700000</v>
       </c>
       <c r="L6" s="8"/>
-      <c r="M6" s="24"/>
+      <c r="M6" s="21"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="12"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="17"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="15"/>
       <c r="L7" s="7"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="12"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="J8" s="16"/>
-      <c r="K8" s="17"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8" s="8"/>
+      <c r="K8" s="15"/>
       <c r="L8" s="8"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="12"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="16">
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="8">
         <v>1890000</v>
       </c>
-      <c r="G9" s="16">
+      <c r="G9" s="8">
         <v>6140000</v>
       </c>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="J9" s="16">
+      <c r="H9" s="8"/>
+      <c r="I9" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="J9" s="8">
         <v>20800000</v>
       </c>
-      <c r="K9" s="17">
+      <c r="K9" s="15">
         <v>29300000</v>
       </c>
       <c r="L9" s="8"/>
-      <c r="M9" s="24"/>
+      <c r="M9" s="21"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="12"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="13" t="s">
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="8">
         <v>1930000</v>
       </c>
-      <c r="G10" s="16">
+      <c r="G10" s="8">
         <v>6970000</v>
       </c>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16" t="s">
+      <c r="H10" s="8"/>
+      <c r="I10" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="J10" s="16">
+      <c r="J10" s="8">
         <v>22000000</v>
       </c>
-      <c r="K10" s="17">
+      <c r="K10" s="15">
         <v>35600000</v>
       </c>
       <c r="L10" s="8"/>
-      <c r="M10" s="24"/>
+      <c r="M10" s="21"/>
     </row>
     <row r="11" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="18"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19" t="s">
+      <c r="A11" s="16"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="20">
+      <c r="F11" s="18">
         <v>2180000</v>
       </c>
-      <c r="G11" s="20">
+      <c r="G11" s="18">
         <v>6690000</v>
       </c>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20" t="s">
+      <c r="H11" s="18"/>
+      <c r="I11" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="J11" s="20">
+      <c r="J11" s="18">
         <v>22100000</v>
       </c>
-      <c r="K11" s="21">
+      <c r="K11" s="19">
         <v>30500000</v>
       </c>
       <c r="L11" s="8"/>
-      <c r="M11" s="24"/>
+      <c r="M11" s="21"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="7"/>
@@ -2175,11 +2061,11 @@
       <c r="L13" s="7"/>
     </row>
     <row r="14" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
+      <c r="A14" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="57"/>
+      <c r="C14" s="57"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
@@ -2191,11 +2077,11 @@
       <c r="L14" s="7"/>
     </row>
     <row r="15" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" s="39"/>
-      <c r="C15" s="40"/>
+      <c r="A15" s="59" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="60"/>
+      <c r="C15" s="61"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
@@ -2208,11 +2094,11 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="12"/>
-      <c r="B16" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>29</v>
+      <c r="B16" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
@@ -2228,11 +2114,11 @@
       <c r="A17" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B17" s="26">
+      <c r="B17" s="21">
         <f>LN(F9/F4)/24</f>
         <v>3.8566380189019527E-2</v>
       </c>
-      <c r="C17" s="27">
+      <c r="C17" s="22">
         <f>LN(G9/G4)/24</f>
         <v>2.1443045003857176E-2</v>
       </c>
@@ -2250,11 +2136,11 @@
       <c r="A18" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="26">
+      <c r="B18" s="21">
         <f t="shared" ref="B18:B19" si="0">LN(F10/F5)/24</f>
         <v>4.0055477387435777E-2</v>
       </c>
-      <c r="C18" s="27">
+      <c r="C18" s="22">
         <f t="shared" ref="C18:C19" si="1">LN(G10/G5)/24</f>
         <v>2.8583299470610751E-2</v>
       </c>
@@ -2272,11 +2158,11 @@
       <c r="A19" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="26">
+      <c r="B19" s="21">
         <f t="shared" si="0"/>
         <v>4.4181766938921251E-2</v>
       </c>
-      <c r="C19" s="27">
+      <c r="C19" s="22">
         <f t="shared" si="1"/>
         <v>2.8324331364490755E-2</v>
       </c>
@@ -2292,8 +2178,8 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="12"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="14"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="13"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
@@ -2305,11 +2191,11 @@
       <c r="L20" s="7"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="41" t="s">
-        <v>43</v>
-      </c>
-      <c r="B21" s="42"/>
-      <c r="C21" s="43"/>
+      <c r="A21" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="55"/>
+      <c r="C21" s="56"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
@@ -2322,11 +2208,11 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="12"/>
-      <c r="B22" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>29</v>
+      <c r="B22" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
@@ -2342,11 +2228,11 @@
       <c r="A23" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="28">
+      <c r="B23" s="23">
         <f>-(((LN(J9/J4)/24))-B17)</f>
         <v>4.3474006674702172E-2</v>
       </c>
-      <c r="C23" s="29">
+      <c r="C23" s="24">
         <f>-(((LN(K9/K4)/24))-C17)</f>
         <v>2.5504699762423394E-2</v>
       </c>
@@ -2364,11 +2250,11 @@
       <c r="A24" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B24" s="28">
+      <c r="B24" s="23">
         <f t="shared" ref="B24:C24" si="2">-(((LN(J10/J5)/24))-B18)</f>
         <v>4.0432553867432358E-2</v>
       </c>
-      <c r="C24" s="29">
+      <c r="C24" s="24">
         <f t="shared" si="2"/>
         <v>2.6911633062718029E-2</v>
       </c>
@@ -2386,11 +2272,11 @@
       <c r="A25" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B25" s="28">
+      <c r="B25" s="23">
         <f t="shared" ref="B25:C25" si="3">-(((LN(J11/J6)/24))-B19)</f>
         <v>4.7444302372827825E-2</v>
       </c>
-      <c r="C25" s="29">
+      <c r="C25" s="24">
         <f t="shared" si="3"/>
         <v>3.2481462770530337E-2</v>
       </c>
@@ -2406,8 +2292,8 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="12"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="14"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="13"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
@@ -2419,11 +2305,11 @@
       <c r="L26" s="7"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="41" t="s">
-        <v>44</v>
-      </c>
-      <c r="B27" s="42"/>
-      <c r="C27" s="43"/>
+      <c r="A27" s="54" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="55"/>
+      <c r="C27" s="56"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
@@ -2436,11 +2322,11 @@
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="12"/>
-      <c r="B28" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C28" s="14" t="s">
-        <v>29</v>
+      <c r="B28" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
@@ -2456,11 +2342,11 @@
       <c r="A29" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B29" s="30">
+      <c r="B29" s="25">
         <f>(J4*(EXP((B17-B23)*24)-1))/(24*(B17-B23))</f>
         <v>22074486.240829784</v>
       </c>
-      <c r="C29" s="31">
+      <c r="C29" s="26">
         <f>(K4*(EXP((C17-C23)*24)-1))/(24*(C17-C23))</f>
         <v>30775633.930079643</v>
       </c>
@@ -2478,11 +2364,11 @@
       <c r="A30" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="30">
+      <c r="B30" s="25">
         <f t="shared" ref="B30:C30" si="4">(J5*(EXP((B18-B24)*24)-1))/(24*(B18-B24))</f>
         <v>22099849.169613831</v>
       </c>
-      <c r="C30" s="31">
+      <c r="C30" s="26">
         <f t="shared" si="4"/>
         <v>34895319.459620871</v>
       </c>
@@ -2500,11 +2386,11 @@
       <c r="A31" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B31" s="30">
+      <c r="B31" s="25">
         <f t="shared" ref="B31" si="5">(J6*(EXP((B19-B25)*24)-1))/(24*(B19-B25))</f>
         <v>22988256.0724236</v>
       </c>
-      <c r="C31" s="31">
+      <c r="C31" s="26">
         <f>(K6*(EXP((C19-C25)*24)-1))/(24*(C19-C25))</f>
         <v>32073398.771956831</v>
       </c>
@@ -2520,8 +2406,8 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="12"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="14"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="13"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
@@ -2533,11 +2419,11 @@
       <c r="L32" s="7"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A33" s="41" t="s">
-        <v>45</v>
-      </c>
-      <c r="B33" s="42"/>
-      <c r="C33" s="43"/>
+      <c r="A33" s="54" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" s="55"/>
+      <c r="C33" s="56"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
@@ -2550,11 +2436,11 @@
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="12"/>
-      <c r="B34" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C34" s="14" t="s">
-        <v>29</v>
+      <c r="B34" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
@@ -2570,11 +2456,11 @@
       <c r="A35" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B35" s="32">
+      <c r="B35" s="20">
         <f>(B23*200)/(B4*200)</f>
         <v>9.7802309232663844E-8</v>
       </c>
-      <c r="C35" s="33">
+      <c r="C35" s="27">
         <f>(C23*200)/(C4*200)</f>
         <v>6.4609425062883514E-8</v>
       </c>
@@ -2592,11 +2478,11 @@
       <c r="A36" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="32">
+      <c r="B36" s="20">
         <f t="shared" ref="B36:C37" si="6">(B24*200)/(B5*200)</f>
         <v>9.8777643087668745E-8</v>
       </c>
-      <c r="C36" s="33">
+      <c r="C36" s="27">
         <f t="shared" si="6"/>
         <v>4.4896346054112632E-8</v>
       </c>
@@ -2614,11 +2500,11 @@
       <c r="A37" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="32">
+      <c r="B37" s="20">
         <f t="shared" si="6"/>
         <v>1.5923097598269501E-7</v>
       </c>
-      <c r="C37" s="33">
+      <c r="C37" s="27">
         <f t="shared" si="6"/>
         <v>8.2895343651902036E-8</v>
       </c>
@@ -2634,8 +2520,8 @@
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" s="12"/>
-      <c r="B38" s="13"/>
-      <c r="C38" s="14"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="13"/>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
@@ -2647,11 +2533,11 @@
       <c r="L38" s="7"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A39" s="41" t="s">
-        <v>47</v>
-      </c>
-      <c r="B39" s="42"/>
-      <c r="C39" s="43"/>
+      <c r="A39" s="54" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39" s="55"/>
+      <c r="C39" s="56"/>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
@@ -2664,11 +2550,11 @@
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="12"/>
-      <c r="B40" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C40" s="14" t="s">
-        <v>29</v>
+      <c r="B40" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
@@ -2684,11 +2570,11 @@
       <c r="A41" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B41" s="34">
+      <c r="B41" s="28">
         <f>B35*B29</f>
         <v>2.1589357294778178</v>
       </c>
-      <c r="C41" s="35">
+      <c r="C41" s="29">
         <f>C35*C29</f>
         <v>1.988396014168216</v>
       </c>
@@ -2706,11 +2592,11 @@
       <c r="A42" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B42" s="34">
+      <c r="B42" s="28">
         <f t="shared" ref="B42:C43" si="7">B36*B30</f>
         <v>2.1829710135674274</v>
       </c>
-      <c r="C42" s="35">
+      <c r="C42" s="29">
         <f t="shared" si="7"/>
         <v>1.5666723381279493</v>
       </c>
@@ -2725,14 +2611,14 @@
       <c r="L42" s="7"/>
     </row>
     <row r="43" spans="1:12" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="18" t="s">
+      <c r="A43" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="36">
+      <c r="B43" s="30">
         <f t="shared" si="7"/>
         <v>3.6604424505521247</v>
       </c>
-      <c r="C43" s="37">
+      <c r="C43" s="31">
         <f t="shared" si="7"/>
         <v>2.6587354132858541</v>
       </c>
@@ -2814,110 +2700,108 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="45"/>
-    <col min="2" max="2" width="12.1640625" style="45" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="45"/>
+    <col min="2" max="2" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="63" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A2" s="68" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="68"/>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A3" s="68" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-    </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A2" s="66" t="s">
+      <c r="B3" s="68"/>
+      <c r="C3" s="68" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="68"/>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A4" s="68" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="66"/>
-      <c r="C2" s="66" t="s">
+      <c r="B4" s="68"/>
+      <c r="C4" s="68" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="66"/>
-      <c r="E2" s="66" t="s">
+      <c r="D4" s="68"/>
+      <c r="E4" s="68" t="s">
         <v>55</v>
       </c>
-      <c r="F2" s="66"/>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A3" s="66" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66" t="s">
-        <v>53</v>
-      </c>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66" t="s">
-        <v>56</v>
-      </c>
-      <c r="F3" s="66"/>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A4" s="66" t="s">
-        <v>51</v>
-      </c>
-      <c r="B4" s="66"/>
-      <c r="C4" s="66" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="66"/>
-      <c r="E4" s="66" t="s">
-        <v>57</v>
-      </c>
-      <c r="F4" s="66"/>
+      <c r="F4" s="68"/>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A5" s="65"/>
-      <c r="B5" s="65"/>
-      <c r="C5" s="65"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="65"/>
-      <c r="F5" s="65"/>
+      <c r="A5" s="48"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
     </row>
     <row r="6" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="67" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="67"/>
-      <c r="C6" s="67"/>
-      <c r="D6" s="67"/>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="67"/>
-      <c r="H6" s="67"/>
-      <c r="I6" s="67"/>
-      <c r="J6" s="67"/>
-      <c r="K6" s="67"/>
-      <c r="L6" s="67"/>
-      <c r="M6" s="67"/>
-      <c r="N6" s="67"/>
-      <c r="O6" s="67"/>
-      <c r="P6" s="67"/>
-      <c r="Q6" s="67"/>
-      <c r="R6" s="67"/>
-      <c r="S6" s="67"/>
-      <c r="T6" s="67"/>
-      <c r="U6" s="67"/>
-      <c r="V6" s="67"/>
-      <c r="W6" s="67"/>
-      <c r="X6" s="67"/>
-      <c r="Y6" s="67"/>
-      <c r="Z6" s="67"/>
-      <c r="AA6" s="67"/>
-      <c r="AB6" s="67"/>
-      <c r="AC6" s="67"/>
-      <c r="AD6" s="67"/>
-      <c r="AE6" s="67"/>
-      <c r="AF6" s="67"/>
+      <c r="A6" s="72" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="72"/>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="72"/>
+      <c r="F6" s="72"/>
+      <c r="G6" s="72"/>
+      <c r="H6" s="72"/>
+      <c r="I6" s="72"/>
+      <c r="J6" s="72"/>
+      <c r="K6" s="72"/>
+      <c r="L6" s="72"/>
+      <c r="M6" s="72"/>
+      <c r="N6" s="72"/>
+      <c r="O6" s="72"/>
+      <c r="P6" s="72"/>
+      <c r="Q6" s="72"/>
+      <c r="R6" s="72"/>
+      <c r="S6" s="72"/>
+      <c r="T6" s="72"/>
+      <c r="U6" s="72"/>
+      <c r="V6" s="72"/>
+      <c r="W6" s="72"/>
+      <c r="X6" s="72"/>
+      <c r="Y6" s="72"/>
+      <c r="Z6" s="72"/>
+      <c r="AA6" s="72"/>
+      <c r="AB6" s="72"/>
+      <c r="AC6" s="72"/>
+      <c r="AD6" s="72"/>
+      <c r="AE6" s="72"/>
+      <c r="AF6" s="72"/>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -2926,848 +2810,842 @@
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
       <c r="J7" s="10"/>
-      <c r="K7" s="48"/>
+      <c r="K7" s="35"/>
       <c r="L7" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="M7" s="49"/>
-      <c r="N7" s="49"/>
-      <c r="O7" s="49"/>
-      <c r="P7" s="49"/>
-      <c r="Q7" s="49"/>
-      <c r="R7" s="49"/>
-      <c r="S7" s="49"/>
-      <c r="T7" s="49"/>
-      <c r="U7" s="49"/>
-      <c r="V7" s="48"/>
+        <v>36</v>
+      </c>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36"/>
+      <c r="O7" s="36"/>
+      <c r="P7" s="36"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="36"/>
+      <c r="S7" s="36"/>
+      <c r="T7" s="36"/>
+      <c r="U7" s="36"/>
+      <c r="V7" s="35"/>
       <c r="W7" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="X7" s="49"/>
-      <c r="Y7" s="49"/>
-      <c r="Z7" s="48"/>
-      <c r="AA7" s="49"/>
-      <c r="AB7" s="49"/>
-      <c r="AC7" s="49"/>
-      <c r="AD7" s="49"/>
-      <c r="AE7" s="49"/>
-      <c r="AF7" s="50"/>
+        <v>39</v>
+      </c>
+      <c r="X7" s="36"/>
+      <c r="Y7" s="36"/>
+      <c r="Z7" s="35"/>
+      <c r="AA7" s="36"/>
+      <c r="AB7" s="36"/>
+      <c r="AC7" s="36"/>
+      <c r="AD7" s="36"/>
+      <c r="AE7" s="36"/>
+      <c r="AF7" s="37"/>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A8" s="51" t="s">
-        <v>34</v>
-      </c>
-      <c r="B8" s="52">
+      <c r="A8" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8">
         <v>1</v>
       </c>
-      <c r="C8" s="52">
+      <c r="C8">
         <v>2</v>
       </c>
-      <c r="D8" s="52">
+      <c r="D8">
         <v>3</v>
       </c>
-      <c r="E8" s="52">
+      <c r="E8">
         <v>4</v>
       </c>
-      <c r="F8" s="52">
-        <v>5</v>
-      </c>
-      <c r="G8" s="52">
+      <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="G8">
         <v>6</v>
       </c>
-      <c r="H8" s="52">
+      <c r="H8">
         <v>7</v>
       </c>
-      <c r="I8" s="52">
+      <c r="I8">
         <v>8</v>
       </c>
-      <c r="J8" s="52">
+      <c r="J8">
         <v>9</v>
       </c>
-      <c r="K8" s="53"/>
-      <c r="L8" s="53" t="s">
+      <c r="K8" s="32"/>
+      <c r="L8" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>2</v>
+      </c>
+      <c r="O8">
+        <v>3</v>
+      </c>
+      <c r="P8">
+        <v>4</v>
+      </c>
+      <c r="Q8">
+        <v>5</v>
+      </c>
+      <c r="R8">
+        <v>6</v>
+      </c>
+      <c r="S8">
+        <v>7</v>
+      </c>
+      <c r="T8">
+        <v>8</v>
+      </c>
+      <c r="U8">
+        <v>9</v>
+      </c>
+      <c r="V8" s="32"/>
+      <c r="W8" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="X8">
+        <v>1</v>
+      </c>
+      <c r="Y8">
+        <v>2</v>
+      </c>
+      <c r="Z8">
+        <v>3</v>
+      </c>
+      <c r="AA8">
+        <v>4</v>
+      </c>
+      <c r="AB8">
+        <v>5</v>
+      </c>
+      <c r="AC8">
+        <v>6</v>
+      </c>
+      <c r="AD8">
+        <v>7</v>
+      </c>
+      <c r="AE8">
+        <v>8</v>
+      </c>
+      <c r="AF8" s="39">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A9" s="38" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9">
+        <v>3512.1811883072201</v>
+      </c>
+      <c r="C9">
+        <v>3160.8040003686747</v>
+      </c>
+      <c r="D9">
+        <v>4000.4346968124951</v>
+      </c>
+      <c r="E9">
+        <v>4831.9261825486701</v>
+      </c>
+      <c r="F9">
+        <v>6087.5627024789956</v>
+      </c>
+      <c r="G9">
+        <v>5939.5193694686604</v>
+      </c>
+      <c r="H9">
+        <v>5532.5254005157149</v>
+      </c>
+      <c r="I9">
+        <v>4126.9692927341848</v>
+      </c>
+      <c r="J9" s="40">
+        <v>6326</v>
+      </c>
+      <c r="K9" s="32"/>
+      <c r="L9" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" s="33">
+        <v>1075998.882369377</v>
+      </c>
+      <c r="N9" s="34">
+        <v>376794.72254559566</v>
+      </c>
+      <c r="O9" s="34">
+        <v>589833.13930927438</v>
+      </c>
+      <c r="P9" s="34">
+        <v>858362.43694218074</v>
+      </c>
+      <c r="Q9" s="34">
+        <v>937301.58730158722</v>
+      </c>
+      <c r="R9" s="34">
+        <v>2068650.7936507936</v>
+      </c>
+      <c r="S9" s="34">
+        <v>1857936.5079365082</v>
+      </c>
+      <c r="T9" s="34">
+        <v>1919307.7600161475</v>
+      </c>
+      <c r="U9" s="34">
+        <v>1013492.0634920634</v>
+      </c>
+      <c r="V9" s="33"/>
+      <c r="W9" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="X9" s="34">
+        <v>1160379.9944118469</v>
+      </c>
+      <c r="Y9" s="34">
+        <v>665114.47419480013</v>
+      </c>
+      <c r="Z9" s="34">
+        <v>1145906.0923554522</v>
+      </c>
+      <c r="AA9" s="34">
+        <v>1514939.8525417151</v>
+      </c>
+      <c r="AB9" s="34">
+        <v>1064880.9523809524</v>
+      </c>
+      <c r="AC9" s="34">
+        <v>1811904.7619047619</v>
+      </c>
+      <c r="AD9" s="34">
+        <v>1538095.2380952381</v>
+      </c>
+      <c r="AE9" s="34">
+        <v>1632475.1515877875</v>
+      </c>
+      <c r="AF9" s="41">
+        <v>1153571.4285714284</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A10" s="38" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10">
+        <v>3372.34901583174</v>
+      </c>
+      <c r="C10">
+        <v>3648.88202020171</v>
+      </c>
+      <c r="D10">
+        <v>4149.1146731051249</v>
+      </c>
+      <c r="E10">
+        <v>4941.8438359453503</v>
+      </c>
+      <c r="F10">
+        <v>5523.1225485033192</v>
+      </c>
+      <c r="G10">
+        <v>5096.7960806320552</v>
+      </c>
+      <c r="H10">
+        <v>4850.1203197474006</v>
+      </c>
+      <c r="I10">
+        <v>4020.4300880112501</v>
+      </c>
+      <c r="J10" s="40">
+        <v>5881</v>
+      </c>
+      <c r="K10" s="32"/>
+      <c r="L10" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="M10" s="33">
+        <v>1100866.1637328863</v>
+      </c>
+      <c r="N10" s="34">
+        <v>402405.89833139308</v>
+      </c>
+      <c r="O10" s="34">
+        <v>519984.47807528131</v>
+      </c>
+      <c r="P10" s="34">
+        <v>814901.04772991838</v>
+      </c>
+      <c r="Q10" s="34">
+        <v>952380.95238095243</v>
+      </c>
+      <c r="R10" s="34">
+        <v>2005555.5555555553</v>
+      </c>
+      <c r="S10" s="34">
+        <v>1853968.2539682537</v>
+      </c>
+      <c r="T10" s="34">
+        <v>1819992.6507210676</v>
+      </c>
+      <c r="U10" s="34">
+        <v>867063.49206349195</v>
+      </c>
+      <c r="V10" s="33"/>
+      <c r="W10" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="X10" s="34">
+        <v>1235431.8993777323</v>
+      </c>
+      <c r="Y10" s="34">
+        <v>727202.17306946067</v>
+      </c>
+      <c r="Z10" s="34">
+        <v>1224291.812184711</v>
+      </c>
+      <c r="AA10" s="34">
+        <v>1502910.3608847496</v>
+      </c>
+      <c r="AB10" s="34">
+        <v>1169444.4444444445</v>
+      </c>
+      <c r="AC10" s="34">
+        <v>1753571.4285714284</v>
+      </c>
+      <c r="AD10" s="34">
+        <v>1769841.2698412696</v>
+      </c>
+      <c r="AE10" s="34">
+        <v>1782709.8255714877</v>
+      </c>
+      <c r="AF10" s="41">
+        <v>1063095.2380952381</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A11" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11">
+        <v>2593.2204913231549</v>
+      </c>
+      <c r="C11">
+        <v>3849.637438723445</v>
+      </c>
+      <c r="D11">
+        <v>3817.4724126426499</v>
+      </c>
+      <c r="E11">
+        <v>5580.1492925282701</v>
+      </c>
+      <c r="F11">
+        <v>5268.1531243978452</v>
+      </c>
+      <c r="G11">
+        <v>5124.84611783318</v>
+      </c>
+      <c r="H11">
+        <v>5166.1663656391102</v>
+      </c>
+      <c r="I11">
+        <v>3902.7092234193296</v>
+      </c>
+      <c r="J11" s="40">
+        <v>5645</v>
+      </c>
+      <c r="K11" s="32"/>
+      <c r="L11" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="M11" s="33">
+        <v>1031293.657446214</v>
+      </c>
+      <c r="N11" s="34">
+        <v>390376.40667442762</v>
+      </c>
+      <c r="O11" s="34">
+        <v>494761.35040745052</v>
+      </c>
+      <c r="P11" s="34">
+        <v>768723.32169188978</v>
+      </c>
+      <c r="Q11" s="34">
+        <v>955952.38095238095</v>
+      </c>
+      <c r="R11" s="34">
+        <v>1798412.6984126985</v>
+      </c>
+      <c r="S11" s="34">
+        <v>1896031.746031746</v>
+      </c>
+      <c r="T11" s="34">
+        <v>1978769.1496370875</v>
+      </c>
+      <c r="U11" s="34">
+        <v>1024206.3492063492</v>
+      </c>
+      <c r="V11" s="33"/>
+      <c r="W11" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="X11" s="33">
+        <v>1160100.5867560771</v>
+      </c>
+      <c r="Y11" s="34">
+        <v>727978.26930539391</v>
+      </c>
+      <c r="Z11" s="34">
+        <v>1331005.0446255335</v>
+      </c>
+      <c r="AA11" s="34">
+        <v>1497089.6391152504</v>
+      </c>
+      <c r="AB11" s="34">
+        <v>926190.47619047621</v>
+      </c>
+      <c r="AC11" s="34">
+        <v>1794444.4444444443</v>
+      </c>
+      <c r="AD11" s="34">
+        <v>1701984.1269841269</v>
+      </c>
+      <c r="AE11" s="34">
+        <v>1604722.5573350277</v>
+      </c>
+      <c r="AF11" s="41">
+        <v>1133333.3333333333</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A12" s="38"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="32"/>
+      <c r="M12" s="32"/>
+      <c r="N12" s="32"/>
+      <c r="O12" s="32"/>
+      <c r="Q12" s="32"/>
+      <c r="R12" s="32"/>
+      <c r="S12" s="32"/>
+      <c r="T12" s="32"/>
+      <c r="U12" s="32"/>
+      <c r="V12" s="32"/>
+      <c r="W12" s="32"/>
+      <c r="X12" s="32"/>
+      <c r="Y12" s="32"/>
+      <c r="Z12" s="32"/>
+      <c r="AF12" s="39"/>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A13" s="38"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="42"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="M8" s="52">
+      <c r="M13">
         <v>1</v>
       </c>
-      <c r="N8" s="52">
+      <c r="N13">
         <v>2</v>
       </c>
-      <c r="O8" s="52">
+      <c r="O13">
         <v>3</v>
       </c>
-      <c r="P8" s="52">
+      <c r="P13">
         <v>4</v>
       </c>
-      <c r="Q8" s="52">
-        <v>5</v>
-      </c>
-      <c r="R8" s="52">
+      <c r="Q13">
+        <v>5</v>
+      </c>
+      <c r="R13">
         <v>6</v>
       </c>
-      <c r="S8" s="52">
+      <c r="S13">
         <v>7</v>
       </c>
-      <c r="T8" s="52">
+      <c r="T13">
         <v>8</v>
       </c>
-      <c r="U8" s="52">
+      <c r="U13">
         <v>9</v>
       </c>
-      <c r="V8" s="53"/>
-      <c r="W8" s="53" t="s">
+      <c r="V13" s="32"/>
+      <c r="W13" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="X8" s="52">
+      <c r="X13">
         <v>1</v>
       </c>
-      <c r="Y8" s="52">
+      <c r="Y13">
         <v>2</v>
       </c>
-      <c r="Z8" s="52">
+      <c r="Z13">
         <v>3</v>
       </c>
-      <c r="AA8" s="52">
+      <c r="AA13">
         <v>4</v>
       </c>
-      <c r="AB8" s="52">
-        <v>5</v>
-      </c>
-      <c r="AC8" s="52">
+      <c r="AB13">
+        <v>5</v>
+      </c>
+      <c r="AC13">
         <v>6</v>
       </c>
-      <c r="AD8" s="52">
+      <c r="AD13">
         <v>7</v>
       </c>
-      <c r="AE8" s="52">
+      <c r="AE13">
         <v>8</v>
       </c>
-      <c r="AF8" s="54">
+      <c r="AF13" s="39">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A9" s="51" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="52">
-        <v>3512.1811883072201</v>
-      </c>
-      <c r="C9" s="52">
-        <v>3160.8040003686747</v>
-      </c>
-      <c r="D9" s="52">
-        <v>4000.4346968124951</v>
-      </c>
-      <c r="E9" s="52">
-        <v>4831.9261825486701</v>
-      </c>
-      <c r="F9" s="52">
-        <v>6087.5627024789956</v>
-      </c>
-      <c r="G9" s="52">
-        <v>5939.5193694686604</v>
-      </c>
-      <c r="H9" s="52">
-        <v>5532.5254005157149</v>
-      </c>
-      <c r="I9" s="52">
-        <v>4126.9692927341848</v>
-      </c>
-      <c r="J9" s="55">
-        <v>6326</v>
-      </c>
-      <c r="K9" s="53"/>
-      <c r="L9" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="M9" s="56">
-        <v>1075998.882369377</v>
-      </c>
-      <c r="N9" s="57">
-        <v>376794.72254559566</v>
-      </c>
-      <c r="O9" s="57">
-        <v>589833.13930927438</v>
-      </c>
-      <c r="P9" s="57">
-        <v>858362.43694218074</v>
-      </c>
-      <c r="Q9" s="57">
-        <v>937301.58730158722</v>
-      </c>
-      <c r="R9" s="57">
-        <v>2068650.7936507936</v>
-      </c>
-      <c r="S9" s="57">
-        <v>1857936.5079365082</v>
-      </c>
-      <c r="T9" s="57">
-        <v>1919307.7600161475</v>
-      </c>
-      <c r="U9" s="57">
-        <v>1013492.0634920634</v>
-      </c>
-      <c r="V9" s="56"/>
-      <c r="W9" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="X9" s="57">
-        <v>1160379.9944118469</v>
-      </c>
-      <c r="Y9" s="57">
-        <v>665114.47419480013</v>
-      </c>
-      <c r="Z9" s="57">
-        <v>1145906.0923554522</v>
-      </c>
-      <c r="AA9" s="57">
-        <v>1514939.8525417151</v>
-      </c>
-      <c r="AB9" s="57">
-        <v>1064880.9523809524</v>
-      </c>
-      <c r="AC9" s="57">
-        <v>1811904.7619047619</v>
-      </c>
-      <c r="AD9" s="57">
-        <v>1538095.2380952381</v>
-      </c>
-      <c r="AE9" s="57">
-        <v>1632475.1515877875</v>
-      </c>
-      <c r="AF9" s="58">
-        <v>1153571.4285714284</v>
-      </c>
-    </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A10" s="51" t="s">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A14" s="38"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="M14" s="33">
+        <v>2731830.7267709291</v>
+      </c>
+      <c r="N14" s="34">
+        <v>709666.66666666663</v>
+      </c>
+      <c r="O14" s="34">
+        <v>1207415.9907300116</v>
+      </c>
+      <c r="P14" s="34">
+        <v>1686751.6415604476</v>
+      </c>
+      <c r="Q14" s="34">
+        <v>1443359.9526767228</v>
+      </c>
+      <c r="R14" s="33">
+        <v>2980922.8039041702</v>
+      </c>
+      <c r="S14" s="34">
+        <v>2250517.5983436853</v>
+      </c>
+      <c r="T14" s="34">
+        <v>1549871.5424496131</v>
+      </c>
+      <c r="U14" s="34">
+        <v>1987089.2018779342</v>
+      </c>
+      <c r="V14" s="33"/>
+      <c r="W14" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="X14" s="34">
+        <v>2476847.5927629559</v>
+      </c>
+      <c r="Y14" s="34">
+        <v>1061000</v>
+      </c>
+      <c r="Z14" s="34">
+        <v>1708767.8640401699</v>
+      </c>
+      <c r="AA14" s="34">
+        <v>2516415.6044804943</v>
+      </c>
+      <c r="AB14" s="34">
+        <v>1181011.5350488022</v>
+      </c>
+      <c r="AC14" s="34">
+        <v>2729370.0088731144</v>
+      </c>
+      <c r="AD14" s="34">
+        <v>1826530.612244898</v>
+      </c>
+      <c r="AE14" s="34">
+        <v>1381822.4435061933</v>
+      </c>
+      <c r="AF14" s="41">
+        <v>1587636.9327073554</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A15" s="38"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="52">
-        <v>3372.34901583174</v>
-      </c>
-      <c r="C10" s="52">
-        <v>3648.88202020171</v>
-      </c>
-      <c r="D10" s="52">
-        <v>4149.1146731051249</v>
-      </c>
-      <c r="E10" s="52">
-        <v>4941.8438359453503</v>
-      </c>
-      <c r="F10" s="52">
-        <v>5523.1225485033192</v>
-      </c>
-      <c r="G10" s="52">
-        <v>5096.7960806320552</v>
-      </c>
-      <c r="H10" s="52">
-        <v>4850.1203197474006</v>
-      </c>
-      <c r="I10" s="52">
-        <v>4020.4300880112501</v>
-      </c>
-      <c r="J10" s="55">
-        <v>5881</v>
-      </c>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53" t="s">
+      <c r="M15" s="33">
+        <v>2089229.8948564932</v>
+      </c>
+      <c r="N15" s="34">
+        <v>761666.66666666663</v>
+      </c>
+      <c r="O15" s="34">
+        <v>1076091.1548860564</v>
+      </c>
+      <c r="P15" s="34">
+        <v>1582078.0224024719</v>
+      </c>
+      <c r="Q15" s="34">
+        <v>1541555.7527358772</v>
+      </c>
+      <c r="R15" s="33">
+        <v>3044365.5723158829</v>
+      </c>
+      <c r="S15" s="34">
+        <v>1951197.8704525288</v>
+      </c>
+      <c r="T15" s="34">
+        <v>1769552.0770756132</v>
+      </c>
+      <c r="U15" s="34">
+        <v>1918622.848200313</v>
+      </c>
+      <c r="V15" s="33"/>
+      <c r="W15" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="M10" s="56">
-        <v>1100866.1637328863</v>
-      </c>
-      <c r="N10" s="57">
-        <v>402405.89833139308</v>
-      </c>
-      <c r="O10" s="57">
-        <v>519984.47807528131</v>
-      </c>
-      <c r="P10" s="57">
-        <v>814901.04772991838</v>
-      </c>
-      <c r="Q10" s="57">
-        <v>952380.95238095243</v>
-      </c>
-      <c r="R10" s="57">
-        <v>2005555.5555555553</v>
-      </c>
-      <c r="S10" s="57">
-        <v>1853968.2539682537</v>
-      </c>
-      <c r="T10" s="57">
-        <v>1819992.6507210676</v>
-      </c>
-      <c r="U10" s="57">
-        <v>867063.49206349195</v>
-      </c>
-      <c r="V10" s="56"/>
-      <c r="W10" s="56" t="s">
-        <v>6</v>
-      </c>
-      <c r="X10" s="57">
-        <v>1235431.8993777323</v>
-      </c>
-      <c r="Y10" s="57">
-        <v>727202.17306946067</v>
-      </c>
-      <c r="Z10" s="57">
-        <v>1224291.812184711</v>
-      </c>
-      <c r="AA10" s="57">
-        <v>1502910.3608847496</v>
-      </c>
-      <c r="AB10" s="57">
-        <v>1169444.4444444445</v>
-      </c>
-      <c r="AC10" s="57">
-        <v>1753571.4285714284</v>
-      </c>
-      <c r="AD10" s="57">
-        <v>1769841.2698412696</v>
-      </c>
-      <c r="AE10" s="57">
-        <v>1782709.8255714877</v>
-      </c>
-      <c r="AF10" s="58">
-        <v>1063095.2380952381</v>
-      </c>
-    </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A11" s="51" t="s">
+      <c r="X15" s="33">
+        <v>2216191.3523459062</v>
+      </c>
+      <c r="Y15" s="34">
+        <v>1122333.3333333333</v>
+      </c>
+      <c r="Z15" s="34">
+        <v>2108922.3638470448</v>
+      </c>
+      <c r="AA15" s="34">
+        <v>2430281.9621475474</v>
+      </c>
+      <c r="AB15" s="34">
+        <v>1374741.2008281574</v>
+      </c>
+      <c r="AC15" s="34">
+        <v>2245785.2706299913</v>
+      </c>
+      <c r="AD15" s="34">
+        <v>1719313.8124815144</v>
+      </c>
+      <c r="AE15" s="34">
+        <v>1305081.6553551534</v>
+      </c>
+      <c r="AF15" s="41">
+        <v>1645931.1424100157</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="43"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="52">
-        <v>2593.2204913231549</v>
-      </c>
-      <c r="C11" s="52">
-        <v>3849.637438723445</v>
-      </c>
-      <c r="D11" s="52">
-        <v>3817.4724126426499</v>
-      </c>
-      <c r="E11" s="52">
-        <v>5580.1492925282701</v>
-      </c>
-      <c r="F11" s="52">
-        <v>5268.1531243978452</v>
-      </c>
-      <c r="G11" s="52">
-        <v>5124.84611783318</v>
-      </c>
-      <c r="H11" s="52">
-        <v>5166.1663656391102</v>
-      </c>
-      <c r="I11" s="52">
-        <v>3902.7092234193296</v>
-      </c>
-      <c r="J11" s="55">
-        <v>5645</v>
-      </c>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53" t="s">
+      <c r="M16" s="45">
+        <v>2361750.4973003692</v>
+      </c>
+      <c r="N16" s="46">
+        <v>656000</v>
+      </c>
+      <c r="O16" s="46">
+        <v>1121282.3483970645</v>
+      </c>
+      <c r="P16" s="46">
+        <v>1484356.8945538818</v>
+      </c>
+      <c r="Q16" s="46">
+        <v>1322094.0550133095</v>
+      </c>
+      <c r="R16" s="45">
+        <v>2848565.5131617864</v>
+      </c>
+      <c r="S16" s="46">
+        <v>2375628.5122744753</v>
+      </c>
+      <c r="T16" s="46">
+        <v>1915161.6495935631</v>
+      </c>
+      <c r="U16" s="46">
+        <v>1946791.8622848203</v>
+      </c>
+      <c r="V16" s="45"/>
+      <c r="W16" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="M11" s="56">
-        <v>1031293.657446214</v>
-      </c>
-      <c r="N11" s="57">
-        <v>390376.40667442762</v>
-      </c>
-      <c r="O11" s="57">
-        <v>494761.35040745052</v>
-      </c>
-      <c r="P11" s="57">
-        <v>768723.32169188978</v>
-      </c>
-      <c r="Q11" s="57">
-        <v>955952.38095238095</v>
-      </c>
-      <c r="R11" s="57">
-        <v>1798412.6984126985</v>
-      </c>
-      <c r="S11" s="57">
-        <v>1896031.746031746</v>
-      </c>
-      <c r="T11" s="57">
-        <v>1978769.1496370875</v>
-      </c>
-      <c r="U11" s="57">
-        <v>1024206.3492063492</v>
-      </c>
-      <c r="V11" s="56"/>
-      <c r="W11" s="56" t="s">
-        <v>7</v>
-      </c>
-      <c r="X11" s="56">
-        <v>1160100.5867560771</v>
-      </c>
-      <c r="Y11" s="57">
-        <v>727978.26930539391</v>
-      </c>
-      <c r="Z11" s="57">
-        <v>1331005.0446255335</v>
-      </c>
-      <c r="AA11" s="57">
-        <v>1497089.6391152504</v>
-      </c>
-      <c r="AB11" s="57">
-        <v>926190.47619047621</v>
-      </c>
-      <c r="AC11" s="57">
-        <v>1794444.4444444443</v>
-      </c>
-      <c r="AD11" s="57">
-        <v>1701984.1269841269</v>
-      </c>
-      <c r="AE11" s="57">
-        <v>1604722.5573350277</v>
-      </c>
-      <c r="AF11" s="58">
-        <v>1133333.3333333333</v>
-      </c>
-    </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A12" s="51"/>
-      <c r="B12" s="53"/>
-      <c r="C12" s="53"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="53"/>
-      <c r="L12" s="53"/>
-      <c r="M12" s="53"/>
-      <c r="N12" s="53"/>
-      <c r="O12" s="53"/>
-      <c r="P12" s="52"/>
-      <c r="Q12" s="53"/>
-      <c r="R12" s="53"/>
-      <c r="S12" s="53"/>
-      <c r="T12" s="53"/>
-      <c r="U12" s="53"/>
-      <c r="V12" s="53"/>
-      <c r="W12" s="53"/>
-      <c r="X12" s="53"/>
-      <c r="Y12" s="53"/>
-      <c r="Z12" s="53"/>
-      <c r="AA12" s="52"/>
-      <c r="AB12" s="52"/>
-      <c r="AC12" s="52"/>
-      <c r="AD12" s="52"/>
-      <c r="AE12" s="52"/>
-      <c r="AF12" s="54"/>
-    </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A13" s="51"/>
-      <c r="B13" s="59"/>
-      <c r="C13" s="59"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="53" t="s">
-        <v>37</v>
-      </c>
-      <c r="M13" s="52">
-        <v>1</v>
-      </c>
-      <c r="N13" s="52">
-        <v>2</v>
-      </c>
-      <c r="O13" s="52">
-        <v>3</v>
-      </c>
-      <c r="P13" s="52">
-        <v>4</v>
-      </c>
-      <c r="Q13" s="52">
-        <v>5</v>
-      </c>
-      <c r="R13" s="52">
-        <v>6</v>
-      </c>
-      <c r="S13" s="52">
-        <v>7</v>
-      </c>
-      <c r="T13" s="52">
-        <v>8</v>
-      </c>
-      <c r="U13" s="52">
-        <v>9</v>
-      </c>
-      <c r="V13" s="53"/>
-      <c r="W13" s="53" t="s">
-        <v>37</v>
-      </c>
-      <c r="X13" s="52">
-        <v>1</v>
-      </c>
-      <c r="Y13" s="52">
-        <v>2</v>
-      </c>
-      <c r="Z13" s="52">
-        <v>3</v>
-      </c>
-      <c r="AA13" s="52">
-        <v>4</v>
-      </c>
-      <c r="AB13" s="52">
-        <v>5</v>
-      </c>
-      <c r="AC13" s="52">
-        <v>6</v>
-      </c>
-      <c r="AD13" s="52">
-        <v>7</v>
-      </c>
-      <c r="AE13" s="52">
-        <v>8</v>
-      </c>
-      <c r="AF13" s="54">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A14" s="51"/>
-      <c r="B14" s="53"/>
-      <c r="C14" s="53"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="53"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="53"/>
-      <c r="L14" s="53" t="s">
-        <v>5</v>
-      </c>
-      <c r="M14" s="56">
-        <v>2731830.7267709291</v>
-      </c>
-      <c r="N14" s="57">
-        <v>709666.66666666663</v>
-      </c>
-      <c r="O14" s="57">
-        <v>1207415.9907300116</v>
-      </c>
-      <c r="P14" s="57">
-        <v>1686751.6415604476</v>
-      </c>
-      <c r="Q14" s="57">
-        <v>1443359.9526767228</v>
-      </c>
-      <c r="R14" s="56">
-        <v>2980922.8039041702</v>
-      </c>
-      <c r="S14" s="57">
-        <v>2250517.5983436853</v>
-      </c>
-      <c r="T14" s="57">
-        <v>1549871.5424496131</v>
-      </c>
-      <c r="U14" s="57">
-        <v>1987089.2018779342</v>
-      </c>
-      <c r="V14" s="56"/>
-      <c r="W14" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="X14" s="57">
-        <v>2476847.5927629559</v>
-      </c>
-      <c r="Y14" s="57">
-        <v>1061000</v>
-      </c>
-      <c r="Z14" s="57">
-        <v>1708767.8640401699</v>
-      </c>
-      <c r="AA14" s="57">
-        <v>2516415.6044804943</v>
-      </c>
-      <c r="AB14" s="57">
-        <v>1181011.5350488022</v>
-      </c>
-      <c r="AC14" s="57">
-        <v>2729370.0088731144</v>
-      </c>
-      <c r="AD14" s="57">
-        <v>1826530.612244898</v>
-      </c>
-      <c r="AE14" s="57">
-        <v>1381822.4435061933</v>
-      </c>
-      <c r="AF14" s="58">
-        <v>1587636.9327073554</v>
-      </c>
-    </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A15" s="51"/>
-      <c r="B15" s="53"/>
-      <c r="C15" s="53"/>
-      <c r="D15" s="53"/>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="53"/>
-      <c r="H15" s="53"/>
-      <c r="I15" s="53"/>
-      <c r="J15" s="53"/>
-      <c r="K15" s="53"/>
-      <c r="L15" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="M15" s="56">
-        <v>2089229.8948564932</v>
-      </c>
-      <c r="N15" s="57">
-        <v>761666.66666666663</v>
-      </c>
-      <c r="O15" s="57">
-        <v>1076091.1548860564</v>
-      </c>
-      <c r="P15" s="57">
-        <v>1582078.0224024719</v>
-      </c>
-      <c r="Q15" s="57">
-        <v>1541555.7527358772</v>
-      </c>
-      <c r="R15" s="56">
-        <v>3044365.5723158829</v>
-      </c>
-      <c r="S15" s="57">
-        <v>1951197.8704525288</v>
-      </c>
-      <c r="T15" s="57">
-        <v>1769552.0770756132</v>
-      </c>
-      <c r="U15" s="57">
-        <v>1918622.848200313</v>
-      </c>
-      <c r="V15" s="56"/>
-      <c r="W15" s="56" t="s">
-        <v>6</v>
-      </c>
-      <c r="X15" s="56">
-        <v>2216191.3523459062</v>
-      </c>
-      <c r="Y15" s="57">
-        <v>1122333.3333333333</v>
-      </c>
-      <c r="Z15" s="57">
-        <v>2108922.3638470448</v>
-      </c>
-      <c r="AA15" s="57">
-        <v>2430281.9621475474</v>
-      </c>
-      <c r="AB15" s="57">
-        <v>1374741.2008281574</v>
-      </c>
-      <c r="AC15" s="57">
-        <v>2245785.2706299913</v>
-      </c>
-      <c r="AD15" s="57">
-        <v>1719313.8124815144</v>
-      </c>
-      <c r="AE15" s="57">
-        <v>1305081.6553551534</v>
-      </c>
-      <c r="AF15" s="58">
-        <v>1645931.1424100157</v>
-      </c>
-    </row>
-    <row r="16" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="60"/>
-      <c r="B16" s="61"/>
-      <c r="C16" s="61"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="61"/>
-      <c r="F16" s="61"/>
-      <c r="G16" s="61"/>
-      <c r="H16" s="61"/>
-      <c r="I16" s="61"/>
-      <c r="J16" s="61"/>
-      <c r="K16" s="61"/>
-      <c r="L16" s="61" t="s">
-        <v>7</v>
-      </c>
-      <c r="M16" s="62">
-        <v>2361750.4973003692</v>
-      </c>
-      <c r="N16" s="63">
-        <v>656000</v>
-      </c>
-      <c r="O16" s="63">
-        <v>1121282.3483970645</v>
-      </c>
-      <c r="P16" s="63">
-        <v>1484356.8945538818</v>
-      </c>
-      <c r="Q16" s="63">
-        <v>1322094.0550133095</v>
-      </c>
-      <c r="R16" s="62">
-        <v>2848565.5131617864</v>
-      </c>
-      <c r="S16" s="63">
-        <v>2375628.5122744753</v>
-      </c>
-      <c r="T16" s="63">
-        <v>1915161.6495935631</v>
-      </c>
-      <c r="U16" s="63">
-        <v>1946791.8622848203</v>
-      </c>
-      <c r="V16" s="62"/>
-      <c r="W16" s="62" t="s">
-        <v>7</v>
-      </c>
-      <c r="X16" s="62">
+      <c r="X16" s="45">
         <v>2275375.6516406015</v>
       </c>
-      <c r="Y16" s="63">
+      <c r="Y16" s="46">
         <v>1184000</v>
       </c>
-      <c r="Z16" s="63">
+      <c r="Z16" s="46">
         <v>1859791.4252607182</v>
       </c>
-      <c r="AA16" s="63">
+      <c r="AA16" s="46">
         <v>2651989.1850135182</v>
       </c>
-      <c r="AB16" s="63">
+      <c r="AB16" s="46">
         <v>1468500.443655723</v>
       </c>
-      <c r="AC16" s="63">
+      <c r="AC16" s="46">
         <v>2319432.1206743568</v>
       </c>
-      <c r="AD16" s="63">
+      <c r="AD16" s="46">
         <v>2238095.2380952383</v>
       </c>
-      <c r="AE16" s="63">
+      <c r="AE16" s="46">
         <v>1499332.4984239831</v>
       </c>
-      <c r="AF16" s="64">
+      <c r="AF16" s="47">
         <v>1566118.9358372458</v>
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A17" s="44"/>
-      <c r="B17" s="44"/>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44"/>
-      <c r="H17" s="44"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="44"/>
-      <c r="K17" s="44"/>
-      <c r="L17" s="44"/>
-      <c r="M17" s="46"/>
-      <c r="N17" s="46"/>
-      <c r="O17" s="46"/>
-      <c r="Q17" s="47"/>
-      <c r="R17" s="47"/>
-      <c r="S17" s="47"/>
-      <c r="T17" s="47"/>
-      <c r="U17" s="47"/>
-      <c r="V17" s="46"/>
-      <c r="W17" s="46"/>
-      <c r="X17" s="46"/>
-      <c r="Y17" s="46"/>
-      <c r="Z17" s="46"/>
+      <c r="A17" s="32"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="32"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="32"/>
+      <c r="M17" s="33"/>
+      <c r="N17" s="33"/>
+      <c r="O17" s="33"/>
+      <c r="Q17" s="34"/>
+      <c r="R17" s="34"/>
+      <c r="S17" s="34"/>
+      <c r="T17" s="34"/>
+      <c r="U17" s="34"/>
+      <c r="V17" s="33"/>
+      <c r="W17" s="33"/>
+      <c r="X17" s="33"/>
+      <c r="Y17" s="33"/>
+      <c r="Z17" s="33"/>
     </row>
     <row r="18" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="44"/>
-      <c r="B18" s="44"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="44"/>
-      <c r="J18" s="44"/>
-      <c r="K18" s="44"/>
-      <c r="L18" s="44"/>
-      <c r="M18" s="46"/>
-      <c r="N18" s="46"/>
-      <c r="O18" s="46"/>
-      <c r="Q18" s="46"/>
-      <c r="R18" s="46"/>
-      <c r="S18" s="46"/>
-      <c r="T18" s="46"/>
-      <c r="U18" s="46"/>
-      <c r="V18" s="44"/>
-      <c r="W18" s="44"/>
-      <c r="X18" s="44"/>
-      <c r="Y18" s="44"/>
-      <c r="Z18" s="44"/>
+      <c r="A18" s="32"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="32"/>
+      <c r="L18" s="32"/>
+      <c r="M18" s="33"/>
+      <c r="N18" s="33"/>
+      <c r="O18" s="33"/>
+      <c r="Q18" s="33"/>
+      <c r="R18" s="33"/>
+      <c r="S18" s="33"/>
+      <c r="T18" s="33"/>
+      <c r="U18" s="33"/>
+      <c r="V18" s="32"/>
+      <c r="W18" s="32"/>
+      <c r="X18" s="32"/>
+      <c r="Y18" s="32"/>
+      <c r="Z18" s="32"/>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A19" s="74" t="s">
-        <v>46</v>
-      </c>
-      <c r="B19" s="75"/>
-      <c r="C19" s="75"/>
-      <c r="D19" s="75"/>
-      <c r="E19" s="75"/>
-      <c r="F19" s="75"/>
-      <c r="G19" s="75"/>
-      <c r="H19" s="75"/>
-      <c r="I19" s="75"/>
-      <c r="J19" s="76"/>
+      <c r="A19" s="69" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="70"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="70"/>
+      <c r="I19" s="70"/>
+      <c r="J19" s="71"/>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A20" s="77" t="s">
-        <v>42</v>
-      </c>
-      <c r="B20" s="73"/>
-      <c r="C20" s="73"/>
-      <c r="D20" s="73"/>
-      <c r="E20" s="73"/>
-      <c r="F20" s="73"/>
-      <c r="G20" s="73"/>
-      <c r="H20" s="73"/>
-      <c r="I20" s="73"/>
-      <c r="J20" s="78"/>
+      <c r="A20" s="65" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="66"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="66"/>
+      <c r="I20" s="66"/>
+      <c r="J20" s="67"/>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A21" s="12"/>
-      <c r="B21" s="13">
+      <c r="B21" s="7">
         <v>1</v>
       </c>
-      <c r="C21" s="13">
+      <c r="C21" s="7">
         <v>2</v>
       </c>
-      <c r="D21" s="52">
+      <c r="D21">
         <v>3</v>
       </c>
-      <c r="E21" s="72">
+      <c r="E21" s="7">
         <v>4</v>
       </c>
-      <c r="F21" s="72">
-        <v>5</v>
-      </c>
-      <c r="G21" s="72">
+      <c r="F21" s="7">
+        <v>5</v>
+      </c>
+      <c r="G21" s="7">
         <v>6</v>
       </c>
-      <c r="H21" s="72">
+      <c r="H21" s="7">
         <v>7</v>
       </c>
-      <c r="I21" s="72">
+      <c r="I21" s="7">
         <v>8</v>
       </c>
-      <c r="J21" s="79">
+      <c r="J21" s="13">
         <v>9</v>
       </c>
     </row>
@@ -3775,39 +3653,39 @@
       <c r="A22" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="26">
+      <c r="B22" s="21">
         <f>LN(M14/M9)/24</f>
         <v>3.8821773220242599E-2</v>
       </c>
-      <c r="C22" s="26">
+      <c r="C22" s="21">
         <f t="shared" ref="C22:J24" si="0">LN(N14/N9)/24</f>
         <v>2.6378951650178034E-2</v>
       </c>
-      <c r="D22" s="26">
+      <c r="D22" s="21">
         <f t="shared" si="0"/>
         <v>2.9849922001746965E-2</v>
       </c>
-      <c r="E22" s="26">
+      <c r="E22" s="21">
         <f t="shared" si="0"/>
         <v>2.8147225906006785E-2</v>
       </c>
-      <c r="F22" s="26">
+      <c r="F22" s="21">
         <f t="shared" si="0"/>
         <v>1.7988494995311178E-2</v>
       </c>
-      <c r="G22" s="26">
+      <c r="G22" s="21">
         <f t="shared" si="0"/>
         <v>1.5222346419074641E-2</v>
       </c>
-      <c r="H22" s="26">
+      <c r="H22" s="21">
         <f t="shared" si="0"/>
         <v>7.9872402468020662E-3</v>
       </c>
-      <c r="I22" s="26">
+      <c r="I22" s="21">
         <f t="shared" si="0"/>
         <v>-8.9080219880358167E-3</v>
       </c>
-      <c r="J22" s="27">
+      <c r="J22" s="22">
         <f>LN(U14/U9)/24</f>
         <v>2.8052874967366831E-2</v>
       </c>
@@ -3816,39 +3694,39 @@
       <c r="A23" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="26">
+      <c r="B23" s="21">
         <f t="shared" ref="B23:B24" si="1">LN(M15/M10)/24</f>
         <v>2.6695759799499338E-2</v>
       </c>
-      <c r="C23" s="26">
+      <c r="C23" s="21">
         <f t="shared" si="0"/>
         <v>2.658532242087067E-2</v>
       </c>
-      <c r="D23" s="26">
+      <c r="D23" s="21">
         <f t="shared" si="0"/>
         <v>3.0303812178984226E-2</v>
       </c>
-      <c r="E23" s="26">
+      <c r="E23" s="21">
         <f t="shared" si="0"/>
         <v>2.7642823912860701E-2</v>
       </c>
-      <c r="F23" s="26">
+      <c r="F23" s="21">
         <f t="shared" si="0"/>
         <v>2.0065929154428414E-2</v>
       </c>
-      <c r="G23" s="26">
+      <c r="G23" s="21">
         <f t="shared" si="0"/>
         <v>1.7390475890666796E-2</v>
       </c>
-      <c r="H23" s="26">
+      <c r="H23" s="21">
         <f t="shared" si="0"/>
         <v>2.1297971880162923E-3</v>
       </c>
-      <c r="I23" s="26">
+      <c r="I23" s="21">
         <f t="shared" si="0"/>
         <v>-1.1710838439416965E-3</v>
       </c>
-      <c r="J23" s="27">
+      <c r="J23" s="22">
         <f t="shared" si="0"/>
         <v>3.309378062893336E-2</v>
       </c>
@@ -3857,96 +3735,90 @@
       <c r="A24" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="26">
+      <c r="B24" s="21">
         <f t="shared" si="1"/>
         <v>3.4524545331977852E-2</v>
       </c>
-      <c r="C24" s="26">
+      <c r="C24" s="21">
         <f t="shared" si="0"/>
         <v>2.1627057081443021E-2</v>
       </c>
-      <c r="D24" s="26">
+      <c r="D24" s="21">
         <f t="shared" si="0"/>
         <v>3.4089697388872117E-2</v>
       </c>
-      <c r="E24" s="26">
+      <c r="E24" s="21">
         <f t="shared" si="0"/>
         <v>2.7416907281963349E-2</v>
       </c>
-      <c r="F24" s="26">
+      <c r="F24" s="21">
         <f t="shared" si="0"/>
         <v>1.3511002616263583E-2</v>
       </c>
-      <c r="G24" s="26">
+      <c r="G24" s="21">
         <f t="shared" si="0"/>
         <v>1.9162962383772929E-2</v>
       </c>
-      <c r="H24" s="26">
+      <c r="H24" s="21">
         <f t="shared" si="0"/>
         <v>9.3957871601391095E-3</v>
       </c>
-      <c r="I24" s="26">
+      <c r="I24" s="21">
         <f t="shared" si="0"/>
         <v>-1.3613741008030996E-3</v>
       </c>
-      <c r="J24" s="27">
+      <c r="J24" s="22">
         <f t="shared" si="0"/>
         <v>2.6761033321185217E-2</v>
       </c>
     </row>
     <row r="25" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A25" s="12"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="52"/>
-      <c r="F25" s="52"/>
-      <c r="G25" s="52"/>
-      <c r="H25" s="52"/>
-      <c r="I25" s="52"/>
-      <c r="J25" s="54"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="J25" s="39"/>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A26" s="77" t="s">
-        <v>43</v>
-      </c>
-      <c r="B26" s="73"/>
-      <c r="C26" s="73"/>
-      <c r="D26" s="73"/>
-      <c r="E26" s="73"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="73"/>
-      <c r="H26" s="73"/>
-      <c r="I26" s="73"/>
-      <c r="J26" s="78"/>
+      <c r="A26" s="65" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="66"/>
+      <c r="C26" s="66"/>
+      <c r="D26" s="66"/>
+      <c r="E26" s="66"/>
+      <c r="F26" s="66"/>
+      <c r="G26" s="66"/>
+      <c r="H26" s="66"/>
+      <c r="I26" s="66"/>
+      <c r="J26" s="67"/>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A27" s="12"/>
-      <c r="B27" s="13">
+      <c r="B27" s="7">
         <v>1</v>
       </c>
-      <c r="C27" s="13">
+      <c r="C27" s="7">
         <v>2</v>
       </c>
-      <c r="D27" s="52">
+      <c r="D27">
         <v>3</v>
       </c>
-      <c r="E27" s="72">
+      <c r="E27" s="7">
         <v>4</v>
       </c>
-      <c r="F27" s="72">
-        <v>5</v>
-      </c>
-      <c r="G27" s="72">
+      <c r="F27" s="7">
+        <v>5</v>
+      </c>
+      <c r="G27" s="7">
         <v>6</v>
       </c>
-      <c r="H27" s="72">
+      <c r="H27" s="7">
         <v>7</v>
       </c>
-      <c r="I27" s="72">
+      <c r="I27" s="7">
         <v>8</v>
       </c>
-      <c r="J27" s="79">
+      <c r="J27" s="13">
         <v>9</v>
       </c>
     </row>
@@ -3954,39 +3826,39 @@
       <c r="A28" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B28" s="28">
+      <c r="B28" s="23">
         <f>-(((LN(X14/X9)/24))-B22)</f>
         <v>7.2284779373988708E-3</v>
       </c>
-      <c r="C28" s="28">
+      <c r="C28" s="23">
         <f t="shared" ref="C28:J30" si="2">-(((LN(Y14/Y9)/24))-C22)</f>
         <v>6.9202861865744446E-3</v>
       </c>
-      <c r="D28" s="28">
+      <c r="D28" s="23">
         <f t="shared" si="2"/>
         <v>1.320088482011883E-2</v>
       </c>
-      <c r="E28" s="28">
+      <c r="E28" s="23">
         <f t="shared" si="2"/>
         <v>7.0030687007238759E-3</v>
       </c>
-      <c r="F28" s="28">
+      <c r="F28" s="23">
         <f t="shared" si="2"/>
         <v>1.3675649443481146E-2</v>
       </c>
-      <c r="G28" s="28">
+      <c r="G28" s="23">
         <f t="shared" si="2"/>
         <v>-1.8481606643206243E-3</v>
       </c>
-      <c r="H28" s="28">
+      <c r="H28" s="23">
         <f t="shared" si="2"/>
         <v>8.2584296909393295E-4</v>
       </c>
-      <c r="I28" s="28">
+      <c r="I28" s="23">
         <f t="shared" si="2"/>
         <v>-1.9624335793807122E-3</v>
       </c>
-      <c r="J28" s="29">
+      <c r="J28" s="24">
         <f t="shared" si="2"/>
         <v>1.4745208932578165E-2</v>
       </c>
@@ -3995,39 +3867,39 @@
       <c r="A29" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B29" s="28">
+      <c r="B29" s="23">
         <f t="shared" ref="B29:B30" si="3">-(((LN(X15/X10)/24))-B23)</f>
         <v>2.3470310305488337E-3</v>
       </c>
-      <c r="C29" s="28">
+      <c r="C29" s="23">
         <f t="shared" si="2"/>
         <v>8.5036307806696208E-3</v>
       </c>
-      <c r="D29" s="28">
+      <c r="D29" s="23">
         <f t="shared" si="2"/>
         <v>7.6448736512982132E-3</v>
       </c>
-      <c r="E29" s="28">
+      <c r="E29" s="23">
         <f t="shared" si="2"/>
         <v>7.6176649310172075E-3</v>
       </c>
-      <c r="F29" s="28">
+      <c r="F29" s="23">
         <f t="shared" si="2"/>
         <v>1.3326900254776935E-2</v>
       </c>
-      <c r="G29" s="28">
+      <c r="G29" s="23">
         <f t="shared" si="2"/>
         <v>7.0821124789969252E-3</v>
       </c>
-      <c r="H29" s="28">
+      <c r="H29" s="23">
         <f t="shared" si="2"/>
         <v>3.3366555011486278E-3</v>
       </c>
-      <c r="I29" s="28">
+      <c r="I29" s="23">
         <f t="shared" si="2"/>
         <v>1.1823456598291872E-2</v>
       </c>
-      <c r="J29" s="29">
+      <c r="J29" s="24">
         <f t="shared" si="2"/>
         <v>1.4880381501685205E-2</v>
       </c>
@@ -4036,96 +3908,90 @@
       <c r="A30" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B30" s="28">
+      <c r="B30" s="23">
         <f t="shared" si="3"/>
         <v>6.4562767364608371E-3</v>
       </c>
-      <c r="C30" s="28">
+      <c r="C30" s="23">
         <f t="shared" si="2"/>
         <v>1.3611146836093151E-3</v>
       </c>
-      <c r="D30" s="28">
+      <c r="D30" s="23">
         <f t="shared" si="2"/>
         <v>2.0150946764994293E-2</v>
       </c>
-      <c r="E30" s="28">
+      <c r="E30" s="23">
         <f t="shared" si="2"/>
         <v>3.592448471430424E-3</v>
       </c>
-      <c r="F30" s="28">
+      <c r="F30" s="23">
         <f t="shared" si="2"/>
         <v>-5.6938782766678582E-3</v>
       </c>
-      <c r="G30" s="28">
+      <c r="G30" s="23">
         <f t="shared" si="2"/>
         <v>8.4701745582752216E-3</v>
       </c>
-      <c r="H30" s="28">
+      <c r="H30" s="23">
         <f t="shared" si="2"/>
         <v>-2.0138153388285732E-3</v>
       </c>
-      <c r="I30" s="28">
+      <c r="I30" s="23">
         <f t="shared" si="2"/>
         <v>1.4690789054916747E-3</v>
       </c>
-      <c r="J30" s="29">
+      <c r="J30" s="24">
         <f t="shared" si="2"/>
         <v>1.3284474965304289E-2</v>
       </c>
     </row>
     <row r="31" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A31" s="12"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="52"/>
-      <c r="E31" s="52"/>
-      <c r="F31" s="52"/>
-      <c r="G31" s="52"/>
-      <c r="H31" s="52"/>
-      <c r="I31" s="52"/>
-      <c r="J31" s="54"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="J31" s="39"/>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A32" s="77" t="s">
-        <v>44</v>
-      </c>
-      <c r="B32" s="73"/>
-      <c r="C32" s="73"/>
-      <c r="D32" s="73"/>
-      <c r="E32" s="73"/>
-      <c r="F32" s="73"/>
-      <c r="G32" s="73"/>
-      <c r="H32" s="73"/>
-      <c r="I32" s="73"/>
-      <c r="J32" s="78"/>
+      <c r="A32" s="65" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32" s="66"/>
+      <c r="C32" s="66"/>
+      <c r="D32" s="66"/>
+      <c r="E32" s="66"/>
+      <c r="F32" s="66"/>
+      <c r="G32" s="66"/>
+      <c r="H32" s="66"/>
+      <c r="I32" s="66"/>
+      <c r="J32" s="67"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="12"/>
-      <c r="B33" s="13">
+      <c r="B33" s="7">
         <v>1</v>
       </c>
-      <c r="C33" s="13">
+      <c r="C33" s="7">
         <v>2</v>
       </c>
-      <c r="D33" s="52">
+      <c r="D33">
         <v>3</v>
       </c>
-      <c r="E33" s="72">
+      <c r="E33" s="7">
         <v>4</v>
       </c>
-      <c r="F33" s="72">
-        <v>5</v>
-      </c>
-      <c r="G33" s="72">
+      <c r="F33" s="7">
+        <v>5</v>
+      </c>
+      <c r="G33" s="7">
         <v>6</v>
       </c>
-      <c r="H33" s="72">
+      <c r="H33" s="7">
         <v>7</v>
       </c>
-      <c r="I33" s="72">
+      <c r="I33" s="7">
         <v>8</v>
       </c>
-      <c r="J33" s="79">
+      <c r="J33" s="13">
         <v>9</v>
       </c>
     </row>
@@ -4133,39 +3999,39 @@
       <c r="A34" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B34" s="30">
+      <c r="B34" s="25">
         <f>(X9*(EXP((B22-B28)*24)-1))/(24*(B22-B28))</f>
         <v>1736217.0076557319</v>
       </c>
-      <c r="C34" s="30">
+      <c r="C34" s="25">
         <f t="shared" ref="C34:J36" si="4">(Y9*(EXP((C22-C28)*24)-1))/(24*(C22-C28))</f>
         <v>847706.14268161345</v>
       </c>
-      <c r="D34" s="30">
+      <c r="D34" s="25">
         <f t="shared" si="4"/>
         <v>1408644.4497869215</v>
       </c>
-      <c r="E34" s="30">
+      <c r="E34" s="25">
         <f t="shared" si="4"/>
         <v>1973507.6657657749</v>
       </c>
-      <c r="F34" s="30">
+      <c r="F34" s="25">
         <f t="shared" si="4"/>
         <v>1121944.7160063216</v>
       </c>
-      <c r="G34" s="30">
+      <c r="G34" s="25">
         <f t="shared" si="4"/>
         <v>2239401.4680949938</v>
       </c>
-      <c r="H34" s="30">
+      <c r="H34" s="25">
         <f t="shared" si="4"/>
         <v>1678183.7570970973</v>
       </c>
-      <c r="I34" s="30">
+      <c r="I34" s="25">
         <f t="shared" si="4"/>
         <v>1503668.5478970627</v>
       </c>
-      <c r="J34" s="31">
+      <c r="J34" s="26">
         <f t="shared" si="4"/>
         <v>1359070.9764619903</v>
       </c>
@@ -4174,39 +4040,39 @@
       <c r="A35" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B35" s="30">
+      <c r="B35" s="25">
         <f t="shared" ref="B35:B36" si="5">(X10*(EXP((B23-B29)*24)-1))/(24*(B23-B29))</f>
         <v>1678320.7696295942</v>
       </c>
-      <c r="C35" s="30">
+      <c r="C35" s="25">
         <f t="shared" si="4"/>
         <v>910523.12316420884</v>
       </c>
-      <c r="D35" s="30">
+      <c r="D35" s="25">
         <f t="shared" si="4"/>
         <v>1626713.7259861794</v>
       </c>
-      <c r="E35" s="30">
+      <c r="E35" s="25">
         <f t="shared" si="4"/>
         <v>1929596.8347110078</v>
       </c>
-      <c r="F35" s="30">
+      <c r="F35" s="25">
         <f t="shared" si="4"/>
         <v>1269327.0266922922</v>
       </c>
-      <c r="G35" s="30">
+      <c r="G35" s="25">
         <f t="shared" si="4"/>
         <v>1989540.8482160964</v>
       </c>
-      <c r="H35" s="30">
+      <c r="H35" s="25">
         <f t="shared" si="4"/>
         <v>1744455.5839027334</v>
       </c>
-      <c r="I35" s="30">
+      <c r="I35" s="25">
         <f t="shared" si="4"/>
         <v>1531502.6989591031</v>
       </c>
-      <c r="J35" s="31">
+      <c r="J35" s="26">
         <f t="shared" si="4"/>
         <v>1333349.6497157277</v>
       </c>
@@ -4215,96 +4081,90 @@
       <c r="A36" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B36" s="30">
+      <c r="B36" s="25">
         <f t="shared" si="5"/>
         <v>1655598.8913976166</v>
       </c>
-      <c r="C36" s="30">
+      <c r="C36" s="25">
         <f t="shared" si="4"/>
         <v>937578.18277622538</v>
       </c>
-      <c r="D36" s="30">
+      <c r="D36" s="25">
         <f t="shared" si="4"/>
         <v>1580684.4138567238</v>
       </c>
-      <c r="E36" s="30">
+      <c r="E36" s="25">
         <f t="shared" si="4"/>
         <v>2019807.2407484595</v>
       </c>
-      <c r="F36" s="30">
+      <c r="F36" s="25">
         <f t="shared" si="4"/>
         <v>1176588.8458439787</v>
       </c>
-      <c r="G36" s="30">
+      <c r="G36" s="25">
         <f t="shared" si="4"/>
         <v>2045723.4227932999</v>
       </c>
-      <c r="H36" s="30">
+      <c r="H36" s="25">
         <f t="shared" si="4"/>
         <v>1957821.3145448386</v>
       </c>
-      <c r="I36" s="30">
+      <c r="I36" s="25">
         <f t="shared" si="4"/>
         <v>1551430.9705410951</v>
       </c>
-      <c r="J36" s="31">
+      <c r="J36" s="26">
         <f t="shared" si="4"/>
         <v>1338081.5013347871</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="12"/>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="52"/>
-      <c r="E37" s="52"/>
-      <c r="F37" s="52"/>
-      <c r="G37" s="52"/>
-      <c r="H37" s="52"/>
-      <c r="I37" s="52"/>
-      <c r="J37" s="54"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="J37" s="39"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="77" t="s">
-        <v>45</v>
-      </c>
-      <c r="B38" s="73"/>
-      <c r="C38" s="73"/>
-      <c r="D38" s="73"/>
-      <c r="E38" s="73"/>
-      <c r="F38" s="73"/>
-      <c r="G38" s="73"/>
-      <c r="H38" s="73"/>
-      <c r="I38" s="73"/>
-      <c r="J38" s="78"/>
+      <c r="A38" s="65" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="66"/>
+      <c r="C38" s="66"/>
+      <c r="D38" s="66"/>
+      <c r="E38" s="66"/>
+      <c r="F38" s="66"/>
+      <c r="G38" s="66"/>
+      <c r="H38" s="66"/>
+      <c r="I38" s="66"/>
+      <c r="J38" s="67"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="12"/>
-      <c r="B39" s="13">
+      <c r="B39" s="7">
         <v>1</v>
       </c>
-      <c r="C39" s="13">
+      <c r="C39" s="7">
         <v>2</v>
       </c>
-      <c r="D39" s="52">
+      <c r="D39">
         <v>3</v>
       </c>
-      <c r="E39" s="72">
+      <c r="E39" s="7">
         <v>4</v>
       </c>
-      <c r="F39" s="72">
-        <v>5</v>
-      </c>
-      <c r="G39" s="72">
+      <c r="F39" s="7">
+        <v>5</v>
+      </c>
+      <c r="G39" s="7">
         <v>6</v>
       </c>
-      <c r="H39" s="72">
+      <c r="H39" s="7">
         <v>7</v>
       </c>
-      <c r="I39" s="72">
+      <c r="I39" s="7">
         <v>8</v>
       </c>
-      <c r="J39" s="79">
+      <c r="J39" s="13">
         <v>9</v>
       </c>
     </row>
@@ -4312,39 +4172,39 @@
       <c r="A40" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B40" s="32">
+      <c r="B40" s="20">
         <f>(B28*200)/(B9*200)</f>
         <v>2.0581164666173753E-6</v>
       </c>
-      <c r="C40" s="32">
+      <c r="C40" s="20">
         <f t="shared" ref="C40:J40" si="6">(C28*200)/(C9*200)</f>
         <v>2.1894069312008167E-6</v>
       </c>
-      <c r="D40" s="32">
+      <c r="D40" s="20">
         <f t="shared" si="6"/>
         <v>3.2998625950917679E-6</v>
       </c>
-      <c r="E40" s="32">
+      <c r="E40" s="20">
         <f t="shared" si="6"/>
         <v>1.4493327166331014E-6</v>
       </c>
-      <c r="F40" s="32">
+      <c r="F40" s="20">
         <f t="shared" si="6"/>
         <v>2.2464901163009141E-6</v>
       </c>
-      <c r="G40" s="32">
+      <c r="G40" s="20">
         <f t="shared" si="6"/>
         <v>-3.1116333651858392E-7</v>
       </c>
-      <c r="H40" s="32">
+      <c r="H40" s="20">
         <f t="shared" si="6"/>
         <v>1.4927052463544984E-7</v>
       </c>
-      <c r="I40" s="32">
+      <c r="I40" s="20">
         <f t="shared" si="6"/>
         <v>-4.7551446114118471E-7</v>
       </c>
-      <c r="J40" s="33">
+      <c r="J40" s="27">
         <f t="shared" si="6"/>
         <v>2.3308898091334435E-6</v>
       </c>
@@ -4353,39 +4213,39 @@
       <c r="A41" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B41" s="32">
+      <c r="B41" s="20">
         <f t="shared" ref="B41:B42" si="7">(B29*200)/(B10*200)</f>
         <v>6.9596326463557723E-7</v>
       </c>
-      <c r="C41" s="32">
+      <c r="C41" s="20">
         <f t="shared" ref="C41:J41" si="8">(C29*200)/(C10*200)</f>
         <v>2.3304756727101692E-6</v>
       </c>
-      <c r="D41" s="32">
+      <c r="D41" s="20">
         <f t="shared" si="8"/>
         <v>1.8425312997138551E-6</v>
       </c>
-      <c r="E41" s="32">
+      <c r="E41" s="20">
         <f t="shared" si="8"/>
         <v>1.5414620906490027E-6</v>
       </c>
-      <c r="F41" s="32">
+      <c r="F41" s="20">
         <f t="shared" si="8"/>
         <v>2.4129285812041811E-6</v>
       </c>
-      <c r="G41" s="32">
+      <c r="G41" s="20">
         <f t="shared" si="8"/>
         <v>1.3895224307499999E-6</v>
       </c>
-      <c r="H41" s="32">
+      <c r="H41" s="20">
         <f t="shared" si="8"/>
         <v>6.8795313954652659E-7</v>
       </c>
-      <c r="I41" s="32">
+      <c r="I41" s="20">
         <f t="shared" si="8"/>
         <v>2.9408437255379502E-6</v>
       </c>
-      <c r="J41" s="33">
+      <c r="J41" s="27">
         <f t="shared" si="8"/>
         <v>2.5302468120532571E-6</v>
       </c>
@@ -4394,96 +4254,90 @@
       <c r="A42" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B42" s="32">
+      <c r="B42" s="20">
         <f t="shared" si="7"/>
         <v>2.4896751965609415E-6</v>
       </c>
-      <c r="C42" s="32">
+      <c r="C42" s="20">
         <f t="shared" ref="C42:J42" si="9">(C30*200)/(C11*200)</f>
         <v>3.5356957772643294E-7</v>
       </c>
-      <c r="D42" s="32">
+      <c r="D42" s="20">
         <f t="shared" si="9"/>
         <v>5.2786096628383427E-6</v>
       </c>
-      <c r="E42" s="32">
+      <c r="E42" s="20">
         <f t="shared" si="9"/>
         <v>6.4379074521189871E-7</v>
       </c>
-      <c r="F42" s="32">
+      <c r="F42" s="20">
         <f t="shared" si="9"/>
         <v>-1.0808110816480253E-6</v>
       </c>
-      <c r="G42" s="32">
+      <c r="G42" s="20">
         <f t="shared" si="9"/>
         <v>1.6527666126015252E-6</v>
       </c>
-      <c r="H42" s="32">
+      <c r="H42" s="20">
         <f t="shared" si="9"/>
         <v>-3.8980845685162962E-7</v>
       </c>
-      <c r="I42" s="32">
+      <c r="I42" s="20">
         <f t="shared" si="9"/>
         <v>3.7642540640128763E-7</v>
       </c>
-      <c r="J42" s="33">
+      <c r="J42" s="27">
         <f t="shared" si="9"/>
         <v>2.3533170886278633E-6</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="12"/>
-      <c r="B43" s="13"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="52"/>
-      <c r="E43" s="52"/>
-      <c r="F43" s="52"/>
-      <c r="G43" s="52"/>
-      <c r="H43" s="52"/>
-      <c r="I43" s="52"/>
-      <c r="J43" s="54"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="J43" s="39"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" s="77" t="s">
-        <v>47</v>
-      </c>
-      <c r="B44" s="73"/>
-      <c r="C44" s="73"/>
-      <c r="D44" s="73"/>
-      <c r="E44" s="73"/>
-      <c r="F44" s="73"/>
-      <c r="G44" s="73"/>
-      <c r="H44" s="73"/>
-      <c r="I44" s="73"/>
-      <c r="J44" s="78"/>
+      <c r="A44" s="65" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" s="66"/>
+      <c r="C44" s="66"/>
+      <c r="D44" s="66"/>
+      <c r="E44" s="66"/>
+      <c r="F44" s="66"/>
+      <c r="G44" s="66"/>
+      <c r="H44" s="66"/>
+      <c r="I44" s="66"/>
+      <c r="J44" s="67"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="12"/>
-      <c r="B45" s="13">
+      <c r="B45" s="7">
         <v>1</v>
       </c>
-      <c r="C45" s="13">
+      <c r="C45" s="7">
         <v>2</v>
       </c>
-      <c r="D45" s="52">
+      <c r="D45">
         <v>3</v>
       </c>
-      <c r="E45" s="72">
+      <c r="E45" s="7">
         <v>4</v>
       </c>
-      <c r="F45" s="72">
-        <v>5</v>
-      </c>
-      <c r="G45" s="72">
+      <c r="F45" s="7">
+        <v>5</v>
+      </c>
+      <c r="G45" s="7">
         <v>6</v>
       </c>
-      <c r="H45" s="72">
+      <c r="H45" s="7">
         <v>7</v>
       </c>
-      <c r="I45" s="72">
+      <c r="I45" s="7">
         <v>8</v>
       </c>
-      <c r="J45" s="79">
+      <c r="J45" s="13">
         <v>9</v>
       </c>
     </row>
@@ -4491,39 +4345,39 @@
       <c r="A46" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B46" s="34">
+      <c r="B46" s="28">
         <f>B40*B34</f>
         <v>3.5733368130774075</v>
       </c>
-      <c r="C46" s="34">
+      <c r="C46" s="28">
         <f t="shared" ref="C46:J46" si="10">C40*C34</f>
         <v>1.8559737044086329</v>
       </c>
-      <c r="D46" s="34">
+      <c r="D46" s="28">
         <f t="shared" si="10"/>
         <v>4.6483331296354864</v>
       </c>
-      <c r="E46" s="34">
+      <c r="E46" s="28">
         <f t="shared" si="10"/>
         <v>2.8602692265205611</v>
       </c>
-      <c r="F46" s="34">
+      <c r="F46" s="28">
         <f t="shared" si="10"/>
         <v>2.5204377155442375</v>
       </c>
-      <c r="G46" s="34">
+      <c r="G46" s="28">
         <f t="shared" si="10"/>
         <v>-0.69681963261705349</v>
       </c>
-      <c r="H46" s="34">
+      <c r="H46" s="28">
         <f t="shared" si="10"/>
         <v>0.25050336985657407</v>
       </c>
-      <c r="I46" s="34">
+      <c r="I46" s="28">
         <f t="shared" si="10"/>
         <v>-0.7150161392882195</v>
       </c>
-      <c r="J46" s="35">
+      <c r="J46" s="29">
         <f t="shared" si="10"/>
         <v>3.1678446889242911</v>
       </c>
@@ -4532,39 +4386,39 @@
       <c r="A47" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B47" s="34">
+      <c r="B47" s="28">
         <f t="shared" ref="B47:B48" si="11">B41*B35</f>
         <v>1.1680496019371069</v>
       </c>
-      <c r="C47" s="34">
+      <c r="C47" s="28">
         <f t="shared" ref="C47:J47" si="12">C41*C35</f>
         <v>2.1219519879742736</v>
       </c>
-      <c r="D47" s="34">
+      <c r="D47" s="28">
         <f t="shared" si="12"/>
         <v>2.9972709558036832</v>
       </c>
-      <c r="E47" s="34">
+      <c r="E47" s="28">
         <f t="shared" si="12"/>
         <v>2.9744003709433282</v>
       </c>
-      <c r="F47" s="34">
+      <c r="F47" s="28">
         <f t="shared" si="12"/>
         <v>3.0627954616007544</v>
       </c>
-      <c r="G47" s="34">
+      <c r="G47" s="28">
         <f t="shared" si="12"/>
         <v>2.7645116354896468</v>
       </c>
-      <c r="H47" s="34">
+      <c r="H47" s="28">
         <f t="shared" si="12"/>
         <v>1.2001036957453546</v>
       </c>
-      <c r="I47" s="34">
+      <c r="I47" s="28">
         <f t="shared" si="12"/>
         <v>4.5039101028783142</v>
       </c>
-      <c r="J47" s="35">
+      <c r="J47" s="29">
         <f t="shared" si="12"/>
         <v>3.3737037005455468</v>
       </c>
@@ -4573,189 +4427,175 @@
       <c r="A48" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B48" s="34">
+      <c r="B48" s="28">
         <f t="shared" si="11"/>
         <v>4.1219034953664382</v>
       </c>
-      <c r="C48" s="34">
+      <c r="C48" s="28">
         <f t="shared" ref="C48:J48" si="13">C42*C36</f>
         <v>0.33149912216970634</v>
       </c>
-      <c r="D48" s="34">
+      <c r="D48" s="28">
         <f t="shared" si="13"/>
         <v>8.3438160208820644</v>
       </c>
-      <c r="E48" s="34">
+      <c r="E48" s="28">
         <f t="shared" si="13"/>
         <v>1.3003332087058397</v>
       </c>
-      <c r="F48" s="34">
+      <c r="F48" s="28">
         <f t="shared" si="13"/>
         <v>-1.2716702631316323</v>
       </c>
-      <c r="G48" s="34">
+      <c r="G48" s="28">
         <f t="shared" si="13"/>
         <v>3.3811033718096799</v>
       </c>
-      <c r="H48" s="34">
+      <c r="H48" s="28">
         <f t="shared" si="13"/>
         <v>-0.76317530541395251</v>
       </c>
-      <c r="I48" s="34">
+      <c r="I48" s="28">
         <f t="shared" si="13"/>
         <v>0.58399803358947588</v>
       </c>
-      <c r="J48" s="35">
+      <c r="J48" s="29">
         <f t="shared" si="13"/>
         <v>3.1489300630679815</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" s="69"/>
-      <c r="B49" s="52"/>
-      <c r="C49" s="52"/>
-      <c r="D49" s="52"/>
-      <c r="E49" s="52"/>
-      <c r="F49" s="52"/>
-      <c r="G49" s="52"/>
-      <c r="H49" s="52"/>
-      <c r="I49" s="52"/>
-      <c r="J49" s="54"/>
+      <c r="A49" s="49"/>
+      <c r="J49" s="39"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" s="80" t="s">
-        <v>58</v>
-      </c>
-      <c r="B50" s="81"/>
-      <c r="C50" s="81"/>
-      <c r="D50" s="81"/>
-      <c r="E50" s="81"/>
-      <c r="F50" s="81"/>
-      <c r="G50" s="81"/>
-      <c r="H50" s="81"/>
-      <c r="I50" s="81"/>
-      <c r="J50" s="82"/>
+      <c r="A50" s="62" t="s">
+        <v>56</v>
+      </c>
+      <c r="B50" s="63"/>
+      <c r="C50" s="63"/>
+      <c r="D50" s="63"/>
+      <c r="E50" s="63"/>
+      <c r="F50" s="63"/>
+      <c r="G50" s="63"/>
+      <c r="H50" s="63"/>
+      <c r="I50" s="63"/>
+      <c r="J50" s="64"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" s="83"/>
-      <c r="B51" s="13">
+      <c r="A51" s="52"/>
+      <c r="B51" s="7">
         <v>1</v>
       </c>
-      <c r="C51" s="13">
+      <c r="C51" s="7">
         <v>2</v>
       </c>
-      <c r="D51" s="52">
+      <c r="D51">
         <v>3</v>
       </c>
-      <c r="E51" s="72">
+      <c r="E51" s="7">
         <v>4</v>
       </c>
-      <c r="F51" s="72">
-        <v>5</v>
-      </c>
-      <c r="G51" s="72">
+      <c r="F51" s="7">
+        <v>5</v>
+      </c>
+      <c r="G51" s="7">
         <v>6</v>
       </c>
-      <c r="H51" s="72">
+      <c r="H51" s="7">
         <v>7</v>
       </c>
-      <c r="I51" s="72">
+      <c r="I51" s="7">
         <v>8</v>
       </c>
-      <c r="J51" s="79">
+      <c r="J51" s="13">
         <v>9</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A52" s="84" t="s">
-        <v>59</v>
-      </c>
-      <c r="B52" s="85">
+      <c r="A52" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B52" s="6">
         <f>AVERAGE(B46:B48)</f>
         <v>2.9544299701269843</v>
       </c>
-      <c r="C52" s="85">
+      <c r="C52" s="6">
         <f t="shared" ref="C52:J52" si="14">AVERAGE(C46:C48)</f>
         <v>1.4364749381842044</v>
       </c>
-      <c r="D52" s="85">
+      <c r="D52" s="6">
         <f t="shared" si="14"/>
         <v>5.3298067021070779</v>
       </c>
-      <c r="E52" s="85">
+      <c r="E52" s="6">
         <f t="shared" si="14"/>
         <v>2.3783342687232429</v>
       </c>
-      <c r="F52" s="85">
+      <c r="F52" s="6">
         <f t="shared" si="14"/>
         <v>1.4371876380044533</v>
       </c>
-      <c r="G52" s="85">
+      <c r="G52" s="6">
         <f t="shared" si="14"/>
         <v>1.8162651248940911</v>
       </c>
-      <c r="H52" s="85">
+      <c r="H52" s="6">
         <f t="shared" si="14"/>
         <v>0.22914392006265868</v>
       </c>
-      <c r="I52" s="85">
+      <c r="I52" s="6">
         <f t="shared" si="14"/>
         <v>1.4576306657265234</v>
       </c>
-      <c r="J52" s="86">
+      <c r="J52" s="53">
         <f t="shared" si="14"/>
         <v>3.2301594841792731</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="87" t="s">
-        <v>60</v>
-      </c>
-      <c r="B53" s="70">
+      <c r="A53" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53" s="50">
         <f>STDEV(B46:B48)</f>
         <v>1.5711770957215645</v>
       </c>
-      <c r="C53" s="70">
+      <c r="C53" s="50">
         <f t="shared" ref="C53:J53" si="15">STDEV(C46:C48)</f>
         <v>0.96613393342476606</v>
       </c>
-      <c r="D53" s="70">
+      <c r="D53" s="50">
         <f t="shared" si="15"/>
         <v>2.7376432758325908</v>
       </c>
-      <c r="E53" s="70">
+      <c r="E53" s="50">
         <f t="shared" si="15"/>
         <v>0.93531876575892381</v>
       </c>
-      <c r="F53" s="70">
+      <c r="F53" s="50">
         <f t="shared" si="15"/>
         <v>2.3615612055560669</v>
       </c>
-      <c r="G53" s="70">
+      <c r="G53" s="50">
         <f t="shared" si="15"/>
         <v>2.1981225150456636</v>
       </c>
-      <c r="H53" s="70">
+      <c r="H53" s="50">
         <f t="shared" si="15"/>
         <v>0.98181376985143964</v>
       </c>
-      <c r="I53" s="70">
+      <c r="I53" s="50">
         <f t="shared" si="15"/>
         <v>2.7169326937273688</v>
       </c>
-      <c r="J53" s="71">
+      <c r="J53" s="51">
         <f t="shared" si="15"/>
         <v>0.12467215930983444</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A50:J50"/>
-    <mergeCell ref="A20:J20"/>
-    <mergeCell ref="A26:J26"/>
-    <mergeCell ref="A32:J32"/>
-    <mergeCell ref="A38:J38"/>
-    <mergeCell ref="A44:J44"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="A19:J19"/>
     <mergeCell ref="A6:AF6"/>
@@ -4768,6 +4608,12 @@
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="E3:F3"/>
+    <mergeCell ref="A50:J50"/>
+    <mergeCell ref="A20:J20"/>
+    <mergeCell ref="A26:J26"/>
+    <mergeCell ref="A32:J32"/>
+    <mergeCell ref="A38:J38"/>
+    <mergeCell ref="A44:J44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/SupplementalGrazing.xlsx
+++ b/Data/SupplementalGrazing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10905"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10913"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://outlookuga-my.sharepoint.com/personal/ccz99536_uga_edu/Documents/Cruises/NES_CCS_Comparison/AcidotropicManuscript/AcidotropicDyes/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="363" documentId="8_{976B7C3B-B834-2A4C-A1AE-E694B56BC778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{86F8C3B7-8D18-7140-94CD-FC67CAEDFA88}"/>
+  <xr:revisionPtr revIDLastSave="377" documentId="8_{976B7C3B-B834-2A4C-A1AE-E694B56BC778}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D7F1C8E5-5012-8449-9CC1-9CD1A294AF38}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="760" windowWidth="30240" windowHeight="18780" activeTab="1" xr2:uid="{B6F7C1C0-5192-CC47-A1D2-D0875B587AFE}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18780" activeTab="4" xr2:uid="{B6F7C1C0-5192-CC47-A1D2-D0875B587AFE}"/>
   </bookViews>
   <sheets>
     <sheet name="Tetraselmis" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="57">
   <si>
     <t>Culture</t>
   </si>
@@ -100,12 +100,6 @@
   </si>
   <si>
     <t>NumSquareCounted</t>
-  </si>
-  <si>
-    <t>nanoeukconc</t>
-  </si>
-  <si>
-    <t>mixoconc</t>
   </si>
   <si>
     <t>subpercent</t>
@@ -387,7 +381,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -415,7 +409,6 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -960,7 +953,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9BDF01E-F873-7D45-8D6A-2A3A840C9EF6}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
@@ -1117,10 +1110,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6960837-3E1F-0D49-BB90-0373E4F6625D}">
-  <dimension ref="A1:O14"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="K1" sqref="K1:L1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1128,7 +1121,7 @@
     <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1139,13 +1132,13 @@
         <v>15</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>29</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>31</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>16</v>
@@ -1168,22 +1161,16 @@
       <c r="M1" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="N1" s="4" t="s">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>25</v>
       </c>
       <c r="D2" s="5">
         <v>169</v>
@@ -1207,34 +1194,26 @@
       <c r="J2" s="5">
         <v>15</v>
       </c>
-      <c r="K2" s="5">
-        <f>((D2*981.747704247)/(I2*J2))/H2</f>
-        <v>1302.2981024984902</v>
-      </c>
-      <c r="L2" s="5">
-        <f>((E2*981.747704247)/(J2*I2))/H2</f>
-        <v>0</v>
-      </c>
-      <c r="M2" s="2">
+      <c r="K2" s="2">
         <f>G3-G2</f>
         <v>4.11522633744856E-3</v>
       </c>
-      <c r="N2" s="2">
+      <c r="L2" s="2">
         <v>4.4000000000000003E-3</v>
       </c>
-      <c r="O2" s="2">
+      <c r="M2" s="2">
         <v>2.2000000000000001E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D3" s="5">
         <v>242</v>
@@ -1258,27 +1237,19 @@
       <c r="J3" s="5">
         <v>15</v>
       </c>
-      <c r="K3" s="5">
-        <f t="shared" ref="K3:K13" si="0">((D3*981.747704247)/(I3*J3))/H3</f>
-        <v>1864.8292355303824</v>
-      </c>
-      <c r="L3" s="5">
-        <f t="shared" ref="L3:L13" si="1">((E3*981.747704247)/(J3*I3))/H3</f>
-        <v>7.7059059319437297</v>
-      </c>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
       <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D4" s="5">
         <v>175</v>
@@ -1290,7 +1261,7 @@
         <v>0</v>
       </c>
       <c r="G4" s="2">
-        <f t="shared" ref="G4:G13" si="2">E4/(E4+D4)</f>
+        <f t="shared" ref="G4:G13" si="0">E4/(E4+D4)</f>
         <v>0</v>
       </c>
       <c r="H4" s="5">
@@ -1302,30 +1273,22 @@
       <c r="J4" s="5">
         <v>15</v>
       </c>
-      <c r="K4" s="5">
-        <f t="shared" si="0"/>
-        <v>1348.5335380901527</v>
-      </c>
-      <c r="L4" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M4" s="2">
-        <f t="shared" ref="M4" si="3">G5-G4</f>
+      <c r="K4" s="2">
+        <f t="shared" ref="K4" si="1">G5-G4</f>
         <v>6.6006600660066007E-3</v>
       </c>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D5" s="5">
         <v>301</v>
@@ -1337,7 +1300,7 @@
         <v>2</v>
       </c>
       <c r="G5" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>6.6006600660066007E-3</v>
       </c>
       <c r="H5" s="5">
@@ -1349,27 +1312,19 @@
       <c r="J5" s="5">
         <v>15</v>
       </c>
-      <c r="K5" s="5">
-        <f t="shared" si="0"/>
-        <v>2319.4776855150621</v>
-      </c>
-      <c r="L5" s="5">
-        <f t="shared" si="1"/>
-        <v>15.411811863887459</v>
-      </c>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
       <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D6" s="5">
         <v>396</v>
@@ -1381,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H6" s="5">
@@ -1393,30 +1348,22 @@
       <c r="J6" s="5">
         <v>15</v>
       </c>
-      <c r="K6" s="5">
-        <f t="shared" si="0"/>
-        <v>3051.5387490497169</v>
-      </c>
-      <c r="L6" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M6" s="2">
-        <f t="shared" ref="M6" si="4">G7-G6</f>
+      <c r="K6" s="2">
+        <f t="shared" ref="K6" si="2">G7-G6</f>
         <v>2.3474178403755869E-3</v>
       </c>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D7" s="5">
         <v>850</v>
@@ -1428,7 +1375,7 @@
         <v>2</v>
       </c>
       <c r="G7" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>2.3474178403755869E-3</v>
       </c>
       <c r="H7" s="5">
@@ -1440,27 +1387,19 @@
       <c r="J7" s="5">
         <v>15</v>
       </c>
-      <c r="K7" s="5">
-        <f t="shared" si="0"/>
-        <v>6550.0200421521704</v>
-      </c>
-      <c r="L7" s="5">
-        <f t="shared" si="1"/>
-        <v>15.411811863887459</v>
-      </c>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
       <c r="M7" s="5"/>
-      <c r="N7" s="5"/>
-      <c r="O7" s="5"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D8" s="5">
         <v>459</v>
@@ -1472,7 +1411,7 @@
         <v>2</v>
       </c>
       <c r="G8" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>4.3383947939262474E-3</v>
       </c>
       <c r="H8" s="5">
@@ -1484,34 +1423,26 @@
       <c r="J8" s="5">
         <v>15</v>
       </c>
-      <c r="K8" s="5">
-        <f t="shared" si="0"/>
-        <v>3537.0108227621722</v>
-      </c>
-      <c r="L8" s="5">
-        <f t="shared" si="1"/>
-        <v>15.411811863887459</v>
+      <c r="K8" s="2">
+        <f t="shared" ref="K8" si="3">G9-G8</f>
+        <v>-1.6858749000270433E-3</v>
+      </c>
+      <c r="L8" s="2">
+        <v>2.5999999999999999E-3</v>
       </c>
       <c r="M8" s="2">
-        <f t="shared" ref="M8" si="5">G9-G8</f>
-        <v>-1.6858749000270433E-3</v>
-      </c>
-      <c r="N8" s="2">
-        <v>2.5999999999999999E-3</v>
-      </c>
-      <c r="O8" s="2">
         <v>4.7000000000000002E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>5</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D9" s="5">
         <v>752</v>
@@ -1523,7 +1454,7 @@
         <v>2</v>
       </c>
       <c r="G9" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>2.6525198938992041E-3</v>
       </c>
       <c r="H9" s="5">
@@ -1535,27 +1466,19 @@
       <c r="J9" s="5">
         <v>15</v>
       </c>
-      <c r="K9" s="5">
-        <f t="shared" si="0"/>
-        <v>5794.841260821684</v>
-      </c>
-      <c r="L9" s="5">
-        <f t="shared" si="1"/>
-        <v>15.411811863887459</v>
-      </c>
+      <c r="K9" s="5"/>
+      <c r="L9" s="5"/>
       <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-      <c r="O9" s="5"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D10" s="5">
         <v>471</v>
@@ -1567,7 +1490,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H10" s="5">
@@ -1579,30 +1502,22 @@
       <c r="J10" s="5">
         <v>15</v>
       </c>
-      <c r="K10" s="5">
-        <f t="shared" si="0"/>
-        <v>3629.4816939454963</v>
-      </c>
-      <c r="L10" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M10" s="2">
-        <f t="shared" ref="M10" si="6">G11-G10</f>
+      <c r="K10" s="2">
+        <f t="shared" ref="K10" si="4">G11-G10</f>
         <v>7.6335877862595417E-3</v>
       </c>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D11" s="5">
         <v>520</v>
@@ -1614,7 +1529,7 @@
         <v>4</v>
       </c>
       <c r="G11" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>7.6335877862595417E-3</v>
       </c>
       <c r="H11" s="5">
@@ -1626,27 +1541,19 @@
       <c r="J11" s="5">
         <v>15</v>
       </c>
-      <c r="K11" s="5">
-        <f t="shared" si="0"/>
-        <v>4007.0710846107395</v>
-      </c>
-      <c r="L11" s="5">
-        <f t="shared" si="1"/>
-        <v>30.823623727774919</v>
-      </c>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
       <c r="M11" s="5"/>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D12" s="5">
         <v>514</v>
@@ -1658,7 +1565,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H12" s="5">
@@ -1670,30 +1577,22 @@
       <c r="J12" s="5">
         <v>15</v>
       </c>
-      <c r="K12" s="5">
-        <f t="shared" si="0"/>
-        <v>3960.8356490190772</v>
-      </c>
-      <c r="L12" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="M12" s="2">
-        <f t="shared" ref="M12" si="7">G13-G12</f>
+      <c r="K12" s="2">
+        <f t="shared" ref="K12" si="5">G13-G12</f>
         <v>1.8832391713747645E-3</v>
       </c>
-      <c r="N12" s="5"/>
-      <c r="O12" s="5"/>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D13" s="5">
         <v>530</v>
@@ -1705,7 +1604,7 @@
         <v>1</v>
       </c>
       <c r="G13" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>1.8832391713747645E-3</v>
       </c>
       <c r="H13" s="5">
@@ -1717,20 +1616,12 @@
       <c r="J13" s="5">
         <v>15</v>
       </c>
-      <c r="K13" s="5">
-        <f t="shared" si="0"/>
-        <v>4084.1301439301765</v>
-      </c>
-      <c r="L13" s="5">
-        <f t="shared" si="1"/>
-        <v>7.7059059319437297</v>
-      </c>
+      <c r="K13" s="5"/>
+      <c r="L13" s="5"/>
       <c r="M13" s="5"/>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="M14" s="2"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K14" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1742,7 +1633,7 @@
   <dimension ref="A1:M47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:C43"/>
+      <selection activeCell="B35" sqref="B35:C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1754,35 +1645,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
+      <c r="A1" s="57" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
       <c r="E2" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
       <c r="I2" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="J2" s="10"/>
       <c r="K2" s="11"/>
@@ -1790,39 +1681,39 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>27</v>
       </c>
       <c r="H3" s="7"/>
       <c r="I3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="13" t="s">
         <v>25</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>27</v>
       </c>
       <c r="L3" s="7"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B4" s="14">
         <v>444509</v>
@@ -1939,13 +1830,13 @@
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="J8" s="8"/>
       <c r="K8" s="15"/>
@@ -2061,11 +1952,11 @@
       <c r="L13" s="7"/>
     </row>
     <row r="14" spans="1:13" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" s="57"/>
-      <c r="C14" s="57"/>
+      <c r="A14" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="56"/>
+      <c r="C14" s="56"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
@@ -2077,11 +1968,11 @@
       <c r="L14" s="7"/>
     </row>
     <row r="15" spans="1:13" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="59" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="60"/>
-      <c r="C15" s="61"/>
+      <c r="A15" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="59"/>
+      <c r="C15" s="60"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
@@ -2095,10 +1986,10 @@
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="12"/>
       <c r="B16" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
@@ -2191,11 +2082,11 @@
       <c r="L20" s="7"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="54" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="55"/>
-      <c r="C21" s="56"/>
+      <c r="A21" s="53" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="54"/>
+      <c r="C21" s="55"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
@@ -2209,10 +2100,10 @@
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="12"/>
       <c r="B22" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
@@ -2305,11 +2196,11 @@
       <c r="L26" s="7"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="54" t="s">
-        <v>42</v>
-      </c>
-      <c r="B27" s="55"/>
-      <c r="C27" s="56"/>
+      <c r="A27" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="54"/>
+      <c r="C27" s="55"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
@@ -2323,10 +2214,10 @@
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" s="12"/>
       <c r="B28" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
@@ -2419,11 +2310,11 @@
       <c r="L32" s="7"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A33" s="54" t="s">
-        <v>43</v>
-      </c>
-      <c r="B33" s="55"/>
-      <c r="C33" s="56"/>
+      <c r="A33" s="53" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" s="54"/>
+      <c r="C33" s="55"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
@@ -2437,10 +2328,10 @@
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="12"/>
       <c r="B34" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
@@ -2457,11 +2348,11 @@
         <v>5</v>
       </c>
       <c r="B35" s="20">
-        <f>(B23*200)/(B4*200)</f>
+        <f>(B23*1000)/(B4*1000)</f>
         <v>9.7802309232663844E-8</v>
       </c>
-      <c r="C35" s="27">
-        <f>(C23*200)/(C4*200)</f>
+      <c r="C35" s="20">
+        <f>(C23*1000)/(C4*1000)</f>
         <v>6.4609425062883514E-8</v>
       </c>
       <c r="D35" s="7"/>
@@ -2479,12 +2370,12 @@
         <v>6</v>
       </c>
       <c r="B36" s="20">
-        <f t="shared" ref="B36:C37" si="6">(B24*200)/(B5*200)</f>
+        <f t="shared" ref="B36:C37" si="6">(B24*1000)/(B5*1000)</f>
         <v>9.8777643087668745E-8</v>
       </c>
-      <c r="C36" s="27">
+      <c r="C36" s="20">
         <f t="shared" si="6"/>
-        <v>4.4896346054112632E-8</v>
+        <v>4.4896346054112625E-8</v>
       </c>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
@@ -2502,11 +2393,11 @@
       </c>
       <c r="B37" s="20">
         <f t="shared" si="6"/>
-        <v>1.5923097598269501E-7</v>
-      </c>
-      <c r="C37" s="27">
+        <v>1.5923097598269503E-7</v>
+      </c>
+      <c r="C37" s="20">
         <f t="shared" si="6"/>
-        <v>8.2895343651902036E-8</v>
+        <v>8.2895343651902022E-8</v>
       </c>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
@@ -2533,11 +2424,11 @@
       <c r="L38" s="7"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A39" s="54" t="s">
-        <v>45</v>
-      </c>
-      <c r="B39" s="55"/>
-      <c r="C39" s="56"/>
+      <c r="A39" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39" s="54"/>
+      <c r="C39" s="55"/>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
@@ -2551,10 +2442,10 @@
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="12"/>
       <c r="B40" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
@@ -2570,11 +2461,11 @@
       <c r="A41" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B41" s="28">
+      <c r="B41" s="27">
         <f>B35*B29</f>
         <v>2.1589357294778178</v>
       </c>
-      <c r="C41" s="29">
+      <c r="C41" s="28">
         <f>C35*C29</f>
         <v>1.988396014168216</v>
       </c>
@@ -2592,13 +2483,13 @@
       <c r="A42" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B42" s="28">
+      <c r="B42" s="27">
         <f t="shared" ref="B42:C43" si="7">B36*B30</f>
         <v>2.1829710135674274</v>
       </c>
-      <c r="C42" s="29">
+      <c r="C42" s="28">
         <f t="shared" si="7"/>
-        <v>1.5666723381279493</v>
+        <v>1.566672338127949</v>
       </c>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
@@ -2614,13 +2505,13 @@
       <c r="A43" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B43" s="30">
+      <c r="B43" s="29">
         <f t="shared" si="7"/>
-        <v>3.6604424505521247</v>
-      </c>
-      <c r="C43" s="31">
+        <v>3.6604424505521256</v>
+      </c>
+      <c r="C43" s="30">
         <f t="shared" si="7"/>
-        <v>2.6587354132858541</v>
+        <v>2.6587354132858536</v>
       </c>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
@@ -2694,8 +2585,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F04B14C-6342-794A-B115-ABE7D5AFFDF0}">
   <dimension ref="A1:AF53"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="M40" sqref="M40:U40"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K40" sqref="K40:L40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2704,104 +2595,104 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="62" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A2" s="67" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="67"/>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A3" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-    </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A2" s="68" t="s">
+      <c r="B3" s="67"/>
+      <c r="C3" s="67" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="67"/>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A4" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68" t="s">
+      <c r="B4" s="67"/>
+      <c r="C4" s="67" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68" t="s">
+      <c r="D4" s="67"/>
+      <c r="E4" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="F2" s="68"/>
-    </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A3" s="68" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68" t="s">
-        <v>54</v>
-      </c>
-      <c r="F3" s="68"/>
-    </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A4" s="68" t="s">
-        <v>49</v>
-      </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="68" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" s="68"/>
-      <c r="E4" s="68" t="s">
-        <v>55</v>
-      </c>
-      <c r="F4" s="68"/>
+      <c r="F4" s="67"/>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A5" s="48"/>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
+      <c r="A5" s="47"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
     </row>
     <row r="6" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="72" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="72"/>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="72"/>
-      <c r="F6" s="72"/>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="72"/>
-      <c r="L6" s="72"/>
-      <c r="M6" s="72"/>
-      <c r="N6" s="72"/>
-      <c r="O6" s="72"/>
-      <c r="P6" s="72"/>
-      <c r="Q6" s="72"/>
-      <c r="R6" s="72"/>
-      <c r="S6" s="72"/>
-      <c r="T6" s="72"/>
-      <c r="U6" s="72"/>
-      <c r="V6" s="72"/>
-      <c r="W6" s="72"/>
-      <c r="X6" s="72"/>
-      <c r="Y6" s="72"/>
-      <c r="Z6" s="72"/>
-      <c r="AA6" s="72"/>
-      <c r="AB6" s="72"/>
-      <c r="AC6" s="72"/>
-      <c r="AD6" s="72"/>
-      <c r="AE6" s="72"/>
-      <c r="AF6" s="72"/>
+      <c r="A6" s="71" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="71"/>
+      <c r="C6" s="71"/>
+      <c r="D6" s="71"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="71"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="71"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="71"/>
+      <c r="K6" s="71"/>
+      <c r="L6" s="71"/>
+      <c r="M6" s="71"/>
+      <c r="N6" s="71"/>
+      <c r="O6" s="71"/>
+      <c r="P6" s="71"/>
+      <c r="Q6" s="71"/>
+      <c r="R6" s="71"/>
+      <c r="S6" s="71"/>
+      <c r="T6" s="71"/>
+      <c r="U6" s="71"/>
+      <c r="V6" s="71"/>
+      <c r="W6" s="71"/>
+      <c r="X6" s="71"/>
+      <c r="Y6" s="71"/>
+      <c r="Z6" s="71"/>
+      <c r="AA6" s="71"/>
+      <c r="AB6" s="71"/>
+      <c r="AC6" s="71"/>
+      <c r="AD6" s="71"/>
+      <c r="AE6" s="71"/>
+      <c r="AF6" s="71"/>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
@@ -2810,36 +2701,36 @@
       <c r="G7" s="10"/>
       <c r="H7" s="10"/>
       <c r="J7" s="10"/>
-      <c r="K7" s="35"/>
+      <c r="K7" s="34"/>
       <c r="L7" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36"/>
-      <c r="O7" s="36"/>
-      <c r="P7" s="36"/>
-      <c r="Q7" s="36"/>
-      <c r="R7" s="36"/>
-      <c r="S7" s="36"/>
-      <c r="T7" s="36"/>
-      <c r="U7" s="36"/>
-      <c r="V7" s="35"/>
+        <v>34</v>
+      </c>
+      <c r="M7" s="35"/>
+      <c r="N7" s="35"/>
+      <c r="O7" s="35"/>
+      <c r="P7" s="35"/>
+      <c r="Q7" s="35"/>
+      <c r="R7" s="35"/>
+      <c r="S7" s="35"/>
+      <c r="T7" s="35"/>
+      <c r="U7" s="35"/>
+      <c r="V7" s="34"/>
       <c r="W7" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="X7" s="36"/>
-      <c r="Y7" s="36"/>
-      <c r="Z7" s="35"/>
-      <c r="AA7" s="36"/>
-      <c r="AB7" s="36"/>
-      <c r="AC7" s="36"/>
-      <c r="AD7" s="36"/>
-      <c r="AE7" s="36"/>
-      <c r="AF7" s="37"/>
+        <v>37</v>
+      </c>
+      <c r="X7" s="35"/>
+      <c r="Y7" s="35"/>
+      <c r="Z7" s="34"/>
+      <c r="AA7" s="35"/>
+      <c r="AB7" s="35"/>
+      <c r="AC7" s="35"/>
+      <c r="AD7" s="35"/>
+      <c r="AE7" s="35"/>
+      <c r="AF7" s="36"/>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A8" s="38" t="s">
-        <v>32</v>
+      <c r="A8" s="37" t="s">
+        <v>30</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -2868,9 +2759,9 @@
       <c r="J8">
         <v>9</v>
       </c>
-      <c r="K8" s="32"/>
-      <c r="L8" s="32" t="s">
-        <v>33</v>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31" t="s">
+        <v>31</v>
       </c>
       <c r="M8">
         <v>1</v>
@@ -2899,9 +2790,9 @@
       <c r="U8">
         <v>9</v>
       </c>
-      <c r="V8" s="32"/>
-      <c r="W8" s="32" t="s">
-        <v>33</v>
+      <c r="V8" s="31"/>
+      <c r="W8" s="31" t="s">
+        <v>31</v>
       </c>
       <c r="X8">
         <v>1</v>
@@ -2927,12 +2818,12 @@
       <c r="AE8">
         <v>8</v>
       </c>
-      <c r="AF8" s="39">
+      <c r="AF8" s="38">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A9" s="38" t="s">
+      <c r="A9" s="37" t="s">
         <v>5</v>
       </c>
       <c r="B9">
@@ -2959,74 +2850,74 @@
       <c r="I9">
         <v>4126.9692927341848</v>
       </c>
-      <c r="J9" s="40">
+      <c r="J9" s="39">
         <v>6326</v>
       </c>
-      <c r="K9" s="32"/>
-      <c r="L9" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="M9" s="33">
+      <c r="K9" s="31"/>
+      <c r="L9" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" s="32">
         <v>1075998.882369377</v>
       </c>
-      <c r="N9" s="34">
+      <c r="N9" s="33">
         <v>376794.72254559566</v>
       </c>
-      <c r="O9" s="34">
+      <c r="O9" s="33">
         <v>589833.13930927438</v>
       </c>
-      <c r="P9" s="34">
+      <c r="P9" s="33">
         <v>858362.43694218074</v>
       </c>
-      <c r="Q9" s="34">
+      <c r="Q9" s="33">
         <v>937301.58730158722</v>
       </c>
-      <c r="R9" s="34">
+      <c r="R9" s="33">
         <v>2068650.7936507936</v>
       </c>
-      <c r="S9" s="34">
+      <c r="S9" s="33">
         <v>1857936.5079365082</v>
       </c>
-      <c r="T9" s="34">
+      <c r="T9" s="33">
         <v>1919307.7600161475</v>
       </c>
-      <c r="U9" s="34">
+      <c r="U9" s="33">
         <v>1013492.0634920634</v>
       </c>
-      <c r="V9" s="33"/>
-      <c r="W9" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="X9" s="34">
+      <c r="V9" s="32"/>
+      <c r="W9" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="X9" s="33">
         <v>1160379.9944118469</v>
       </c>
-      <c r="Y9" s="34">
+      <c r="Y9" s="33">
         <v>665114.47419480013</v>
       </c>
-      <c r="Z9" s="34">
+      <c r="Z9" s="33">
         <v>1145906.0923554522</v>
       </c>
-      <c r="AA9" s="34">
+      <c r="AA9" s="33">
         <v>1514939.8525417151</v>
       </c>
-      <c r="AB9" s="34">
+      <c r="AB9" s="33">
         <v>1064880.9523809524</v>
       </c>
-      <c r="AC9" s="34">
+      <c r="AC9" s="33">
         <v>1811904.7619047619</v>
       </c>
-      <c r="AD9" s="34">
+      <c r="AD9" s="33">
         <v>1538095.2380952381</v>
       </c>
-      <c r="AE9" s="34">
+      <c r="AE9" s="33">
         <v>1632475.1515877875</v>
       </c>
-      <c r="AF9" s="41">
+      <c r="AF9" s="40">
         <v>1153571.4285714284</v>
       </c>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A10" s="38" t="s">
+      <c r="A10" s="37" t="s">
         <v>6</v>
       </c>
       <c r="B10">
@@ -3053,74 +2944,74 @@
       <c r="I10">
         <v>4020.4300880112501</v>
       </c>
-      <c r="J10" s="40">
+      <c r="J10" s="39">
         <v>5881</v>
       </c>
-      <c r="K10" s="32"/>
-      <c r="L10" s="32" t="s">
+      <c r="K10" s="31"/>
+      <c r="L10" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="M10" s="33">
+      <c r="M10" s="32">
         <v>1100866.1637328863</v>
       </c>
-      <c r="N10" s="34">
+      <c r="N10" s="33">
         <v>402405.89833139308</v>
       </c>
-      <c r="O10" s="34">
+      <c r="O10" s="33">
         <v>519984.47807528131</v>
       </c>
-      <c r="P10" s="34">
+      <c r="P10" s="33">
         <v>814901.04772991838</v>
       </c>
-      <c r="Q10" s="34">
+      <c r="Q10" s="33">
         <v>952380.95238095243</v>
       </c>
-      <c r="R10" s="34">
+      <c r="R10" s="33">
         <v>2005555.5555555553</v>
       </c>
-      <c r="S10" s="34">
+      <c r="S10" s="33">
         <v>1853968.2539682537</v>
       </c>
-      <c r="T10" s="34">
+      <c r="T10" s="33">
         <v>1819992.6507210676</v>
       </c>
-      <c r="U10" s="34">
+      <c r="U10" s="33">
         <v>867063.49206349195</v>
       </c>
-      <c r="V10" s="33"/>
-      <c r="W10" s="33" t="s">
+      <c r="V10" s="32"/>
+      <c r="W10" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="X10" s="34">
+      <c r="X10" s="33">
         <v>1235431.8993777323</v>
       </c>
-      <c r="Y10" s="34">
+      <c r="Y10" s="33">
         <v>727202.17306946067</v>
       </c>
-      <c r="Z10" s="34">
+      <c r="Z10" s="33">
         <v>1224291.812184711</v>
       </c>
-      <c r="AA10" s="34">
+      <c r="AA10" s="33">
         <v>1502910.3608847496</v>
       </c>
-      <c r="AB10" s="34">
+      <c r="AB10" s="33">
         <v>1169444.4444444445</v>
       </c>
-      <c r="AC10" s="34">
+      <c r="AC10" s="33">
         <v>1753571.4285714284</v>
       </c>
-      <c r="AD10" s="34">
+      <c r="AD10" s="33">
         <v>1769841.2698412696</v>
       </c>
-      <c r="AE10" s="34">
+      <c r="AE10" s="33">
         <v>1782709.8255714877</v>
       </c>
-      <c r="AF10" s="41">
+      <c r="AF10" s="40">
         <v>1063095.2380952381</v>
       </c>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="37" t="s">
         <v>7</v>
       </c>
       <c r="B11">
@@ -3147,114 +3038,114 @@
       <c r="I11">
         <v>3902.7092234193296</v>
       </c>
-      <c r="J11" s="40">
+      <c r="J11" s="39">
         <v>5645</v>
       </c>
-      <c r="K11" s="32"/>
-      <c r="L11" s="32" t="s">
+      <c r="K11" s="31"/>
+      <c r="L11" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="M11" s="33">
+      <c r="M11" s="32">
         <v>1031293.657446214</v>
       </c>
-      <c r="N11" s="34">
+      <c r="N11" s="33">
         <v>390376.40667442762</v>
       </c>
-      <c r="O11" s="34">
+      <c r="O11" s="33">
         <v>494761.35040745052</v>
       </c>
-      <c r="P11" s="34">
+      <c r="P11" s="33">
         <v>768723.32169188978</v>
       </c>
-      <c r="Q11" s="34">
+      <c r="Q11" s="33">
         <v>955952.38095238095</v>
       </c>
-      <c r="R11" s="34">
+      <c r="R11" s="33">
         <v>1798412.6984126985</v>
       </c>
-      <c r="S11" s="34">
+      <c r="S11" s="33">
         <v>1896031.746031746</v>
       </c>
-      <c r="T11" s="34">
+      <c r="T11" s="33">
         <v>1978769.1496370875</v>
       </c>
-      <c r="U11" s="34">
+      <c r="U11" s="33">
         <v>1024206.3492063492</v>
       </c>
-      <c r="V11" s="33"/>
-      <c r="W11" s="33" t="s">
+      <c r="V11" s="32"/>
+      <c r="W11" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="X11" s="33">
+      <c r="X11" s="32">
         <v>1160100.5867560771</v>
       </c>
-      <c r="Y11" s="34">
+      <c r="Y11" s="33">
         <v>727978.26930539391</v>
       </c>
-      <c r="Z11" s="34">
+      <c r="Z11" s="33">
         <v>1331005.0446255335</v>
       </c>
-      <c r="AA11" s="34">
+      <c r="AA11" s="33">
         <v>1497089.6391152504</v>
       </c>
-      <c r="AB11" s="34">
+      <c r="AB11" s="33">
         <v>926190.47619047621</v>
       </c>
-      <c r="AC11" s="34">
+      <c r="AC11" s="33">
         <v>1794444.4444444443</v>
       </c>
-      <c r="AD11" s="34">
+      <c r="AD11" s="33">
         <v>1701984.1269841269</v>
       </c>
-      <c r="AE11" s="34">
+      <c r="AE11" s="33">
         <v>1604722.5573350277</v>
       </c>
-      <c r="AF11" s="41">
+      <c r="AF11" s="40">
         <v>1133333.3333333333</v>
       </c>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A12" s="38"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-      <c r="H12" s="32"/>
-      <c r="I12" s="32"/>
-      <c r="J12" s="32"/>
-      <c r="K12" s="32"/>
-      <c r="L12" s="32"/>
-      <c r="M12" s="32"/>
-      <c r="N12" s="32"/>
-      <c r="O12" s="32"/>
-      <c r="Q12" s="32"/>
-      <c r="R12" s="32"/>
-      <c r="S12" s="32"/>
-      <c r="T12" s="32"/>
-      <c r="U12" s="32"/>
-      <c r="V12" s="32"/>
-      <c r="W12" s="32"/>
-      <c r="X12" s="32"/>
-      <c r="Y12" s="32"/>
-      <c r="Z12" s="32"/>
-      <c r="AF12" s="39"/>
+      <c r="A12" s="37"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="31"/>
+      <c r="Q12" s="31"/>
+      <c r="R12" s="31"/>
+      <c r="S12" s="31"/>
+      <c r="T12" s="31"/>
+      <c r="U12" s="31"/>
+      <c r="V12" s="31"/>
+      <c r="W12" s="31"/>
+      <c r="X12" s="31"/>
+      <c r="Y12" s="31"/>
+      <c r="Z12" s="31"/>
+      <c r="AF12" s="38"/>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A13" s="38"/>
-      <c r="B13" s="42"/>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="32" t="s">
-        <v>35</v>
+      <c r="A13" s="37"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31" t="s">
+        <v>33</v>
       </c>
       <c r="M13">
         <v>1</v>
@@ -3283,9 +3174,9 @@
       <c r="U13">
         <v>9</v>
       </c>
-      <c r="V13" s="32"/>
-      <c r="W13" s="32" t="s">
-        <v>35</v>
+      <c r="V13" s="31"/>
+      <c r="W13" s="31" t="s">
+        <v>33</v>
       </c>
       <c r="X13">
         <v>1</v>
@@ -3311,313 +3202,313 @@
       <c r="AE13">
         <v>8</v>
       </c>
-      <c r="AF13" s="39">
+      <c r="AF13" s="38">
         <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A14" s="38"/>
-      <c r="B14" s="32"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="32" t="s">
-        <v>5</v>
-      </c>
-      <c r="M14" s="33">
+      <c r="A14" s="37"/>
+      <c r="B14" s="31"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="31"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="31"/>
+      <c r="K14" s="31"/>
+      <c r="L14" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="M14" s="32">
         <v>2731830.7267709291</v>
       </c>
-      <c r="N14" s="34">
+      <c r="N14" s="33">
         <v>709666.66666666663</v>
       </c>
-      <c r="O14" s="34">
+      <c r="O14" s="33">
         <v>1207415.9907300116</v>
       </c>
-      <c r="P14" s="34">
+      <c r="P14" s="33">
         <v>1686751.6415604476</v>
       </c>
-      <c r="Q14" s="34">
+      <c r="Q14" s="33">
         <v>1443359.9526767228</v>
       </c>
-      <c r="R14" s="33">
+      <c r="R14" s="32">
         <v>2980922.8039041702</v>
       </c>
-      <c r="S14" s="34">
+      <c r="S14" s="33">
         <v>2250517.5983436853</v>
       </c>
-      <c r="T14" s="34">
+      <c r="T14" s="33">
         <v>1549871.5424496131</v>
       </c>
-      <c r="U14" s="34">
+      <c r="U14" s="33">
         <v>1987089.2018779342</v>
       </c>
-      <c r="V14" s="33"/>
-      <c r="W14" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="X14" s="34">
+      <c r="V14" s="32"/>
+      <c r="W14" s="32" t="s">
+        <v>5</v>
+      </c>
+      <c r="X14" s="33">
         <v>2476847.5927629559</v>
       </c>
-      <c r="Y14" s="34">
+      <c r="Y14" s="33">
         <v>1061000</v>
       </c>
-      <c r="Z14" s="34">
+      <c r="Z14" s="33">
         <v>1708767.8640401699</v>
       </c>
-      <c r="AA14" s="34">
+      <c r="AA14" s="33">
         <v>2516415.6044804943</v>
       </c>
-      <c r="AB14" s="34">
+      <c r="AB14" s="33">
         <v>1181011.5350488022</v>
       </c>
-      <c r="AC14" s="34">
+      <c r="AC14" s="33">
         <v>2729370.0088731144</v>
       </c>
-      <c r="AD14" s="34">
+      <c r="AD14" s="33">
         <v>1826530.612244898</v>
       </c>
-      <c r="AE14" s="34">
+      <c r="AE14" s="33">
         <v>1381822.4435061933</v>
       </c>
-      <c r="AF14" s="41">
+      <c r="AF14" s="40">
         <v>1587636.9327073554</v>
       </c>
     </row>
     <row r="15" spans="1:32" x14ac:dyDescent="0.2">
-      <c r="A15" s="38"/>
-      <c r="B15" s="32"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="32" t="s">
+      <c r="A15" s="37"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="31"/>
+      <c r="L15" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="M15" s="33">
+      <c r="M15" s="32">
         <v>2089229.8948564932</v>
       </c>
-      <c r="N15" s="34">
+      <c r="N15" s="33">
         <v>761666.66666666663</v>
       </c>
-      <c r="O15" s="34">
+      <c r="O15" s="33">
         <v>1076091.1548860564</v>
       </c>
-      <c r="P15" s="34">
+      <c r="P15" s="33">
         <v>1582078.0224024719</v>
       </c>
-      <c r="Q15" s="34">
+      <c r="Q15" s="33">
         <v>1541555.7527358772</v>
       </c>
-      <c r="R15" s="33">
+      <c r="R15" s="32">
         <v>3044365.5723158829</v>
       </c>
-      <c r="S15" s="34">
+      <c r="S15" s="33">
         <v>1951197.8704525288</v>
       </c>
-      <c r="T15" s="34">
+      <c r="T15" s="33">
         <v>1769552.0770756132</v>
       </c>
-      <c r="U15" s="34">
+      <c r="U15" s="33">
         <v>1918622.848200313</v>
       </c>
-      <c r="V15" s="33"/>
-      <c r="W15" s="33" t="s">
+      <c r="V15" s="32"/>
+      <c r="W15" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="X15" s="33">
+      <c r="X15" s="32">
         <v>2216191.3523459062</v>
       </c>
-      <c r="Y15" s="34">
+      <c r="Y15" s="33">
         <v>1122333.3333333333</v>
       </c>
-      <c r="Z15" s="34">
+      <c r="Z15" s="33">
         <v>2108922.3638470448</v>
       </c>
-      <c r="AA15" s="34">
+      <c r="AA15" s="33">
         <v>2430281.9621475474</v>
       </c>
-      <c r="AB15" s="34">
+      <c r="AB15" s="33">
         <v>1374741.2008281574</v>
       </c>
-      <c r="AC15" s="34">
+      <c r="AC15" s="33">
         <v>2245785.2706299913</v>
       </c>
-      <c r="AD15" s="34">
+      <c r="AD15" s="33">
         <v>1719313.8124815144</v>
       </c>
-      <c r="AE15" s="34">
+      <c r="AE15" s="33">
         <v>1305081.6553551534</v>
       </c>
-      <c r="AF15" s="41">
+      <c r="AF15" s="40">
         <v>1645931.1424100157</v>
       </c>
     </row>
     <row r="16" spans="1:32" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="43"/>
-      <c r="B16" s="44"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="44"/>
-      <c r="I16" s="44"/>
-      <c r="J16" s="44"/>
-      <c r="K16" s="44"/>
-      <c r="L16" s="44" t="s">
+      <c r="A16" s="42"/>
+      <c r="B16" s="43"/>
+      <c r="C16" s="43"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="43"/>
+      <c r="L16" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="M16" s="45">
+      <c r="M16" s="44">
         <v>2361750.4973003692</v>
       </c>
-      <c r="N16" s="46">
+      <c r="N16" s="45">
         <v>656000</v>
       </c>
-      <c r="O16" s="46">
+      <c r="O16" s="45">
         <v>1121282.3483970645</v>
       </c>
-      <c r="P16" s="46">
+      <c r="P16" s="45">
         <v>1484356.8945538818</v>
       </c>
-      <c r="Q16" s="46">
+      <c r="Q16" s="45">
         <v>1322094.0550133095</v>
       </c>
-      <c r="R16" s="45">
+      <c r="R16" s="44">
         <v>2848565.5131617864</v>
       </c>
-      <c r="S16" s="46">
+      <c r="S16" s="45">
         <v>2375628.5122744753</v>
       </c>
-      <c r="T16" s="46">
+      <c r="T16" s="45">
         <v>1915161.6495935631</v>
       </c>
-      <c r="U16" s="46">
+      <c r="U16" s="45">
         <v>1946791.8622848203</v>
       </c>
-      <c r="V16" s="45"/>
-      <c r="W16" s="45" t="s">
+      <c r="V16" s="44"/>
+      <c r="W16" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="X16" s="45">
+      <c r="X16" s="44">
         <v>2275375.6516406015</v>
       </c>
-      <c r="Y16" s="46">
+      <c r="Y16" s="45">
         <v>1184000</v>
       </c>
-      <c r="Z16" s="46">
+      <c r="Z16" s="45">
         <v>1859791.4252607182</v>
       </c>
-      <c r="AA16" s="46">
+      <c r="AA16" s="45">
         <v>2651989.1850135182</v>
       </c>
-      <c r="AB16" s="46">
+      <c r="AB16" s="45">
         <v>1468500.443655723</v>
       </c>
-      <c r="AC16" s="46">
+      <c r="AC16" s="45">
         <v>2319432.1206743568</v>
       </c>
-      <c r="AD16" s="46">
+      <c r="AD16" s="45">
         <v>2238095.2380952383</v>
       </c>
-      <c r="AE16" s="46">
+      <c r="AE16" s="45">
         <v>1499332.4984239831</v>
       </c>
-      <c r="AF16" s="47">
+      <c r="AF16" s="46">
         <v>1566118.9358372458</v>
       </c>
     </row>
     <row r="17" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A17" s="32"/>
-      <c r="B17" s="32"/>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="32"/>
-      <c r="G17" s="32"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="32"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="32"/>
-      <c r="M17" s="33"/>
-      <c r="N17" s="33"/>
-      <c r="O17" s="33"/>
-      <c r="Q17" s="34"/>
-      <c r="R17" s="34"/>
-      <c r="S17" s="34"/>
-      <c r="T17" s="34"/>
-      <c r="U17" s="34"/>
-      <c r="V17" s="33"/>
-      <c r="W17" s="33"/>
-      <c r="X17" s="33"/>
-      <c r="Y17" s="33"/>
-      <c r="Z17" s="33"/>
+      <c r="A17" s="31"/>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="31"/>
+      <c r="L17" s="31"/>
+      <c r="M17" s="32"/>
+      <c r="N17" s="32"/>
+      <c r="O17" s="32"/>
+      <c r="Q17" s="33"/>
+      <c r="R17" s="33"/>
+      <c r="S17" s="33"/>
+      <c r="T17" s="33"/>
+      <c r="U17" s="33"/>
+      <c r="V17" s="32"/>
+      <c r="W17" s="32"/>
+      <c r="X17" s="32"/>
+      <c r="Y17" s="32"/>
+      <c r="Z17" s="32"/>
     </row>
     <row r="18" spans="1:26" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="32"/>
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="32"/>
-      <c r="G18" s="32"/>
-      <c r="H18" s="32"/>
-      <c r="I18" s="32"/>
-      <c r="J18" s="32"/>
-      <c r="K18" s="32"/>
-      <c r="L18" s="32"/>
-      <c r="M18" s="33"/>
-      <c r="N18" s="33"/>
-      <c r="O18" s="33"/>
-      <c r="Q18" s="33"/>
-      <c r="R18" s="33"/>
-      <c r="S18" s="33"/>
-      <c r="T18" s="33"/>
-      <c r="U18" s="33"/>
-      <c r="V18" s="32"/>
-      <c r="W18" s="32"/>
-      <c r="X18" s="32"/>
-      <c r="Y18" s="32"/>
-      <c r="Z18" s="32"/>
+      <c r="A18" s="31"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="32"/>
+      <c r="N18" s="32"/>
+      <c r="O18" s="32"/>
+      <c r="Q18" s="32"/>
+      <c r="R18" s="32"/>
+      <c r="S18" s="32"/>
+      <c r="T18" s="32"/>
+      <c r="U18" s="32"/>
+      <c r="V18" s="31"/>
+      <c r="W18" s="31"/>
+      <c r="X18" s="31"/>
+      <c r="Y18" s="31"/>
+      <c r="Z18" s="31"/>
     </row>
     <row r="19" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A19" s="69" t="s">
-        <v>44</v>
-      </c>
-      <c r="B19" s="70"/>
-      <c r="C19" s="70"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="70"/>
-      <c r="H19" s="70"/>
-      <c r="I19" s="70"/>
-      <c r="J19" s="71"/>
+      <c r="A19" s="68" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="69"/>
+      <c r="C19" s="69"/>
+      <c r="D19" s="69"/>
+      <c r="E19" s="69"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="69"/>
+      <c r="H19" s="69"/>
+      <c r="I19" s="69"/>
+      <c r="J19" s="70"/>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A20" s="65" t="s">
-        <v>40</v>
-      </c>
-      <c r="B20" s="66"/>
-      <c r="C20" s="66"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="66"/>
-      <c r="I20" s="66"/>
-      <c r="J20" s="67"/>
+      <c r="A20" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="65"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="65"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="65"/>
+      <c r="I20" s="65"/>
+      <c r="J20" s="66"/>
     </row>
     <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A21" s="12"/>
@@ -3776,21 +3667,21 @@
       <c r="A25" s="12"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
-      <c r="J25" s="39"/>
+      <c r="J25" s="38"/>
     </row>
     <row r="26" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A26" s="65" t="s">
-        <v>41</v>
-      </c>
-      <c r="B26" s="66"/>
-      <c r="C26" s="66"/>
-      <c r="D26" s="66"/>
-      <c r="E26" s="66"/>
-      <c r="F26" s="66"/>
-      <c r="G26" s="66"/>
-      <c r="H26" s="66"/>
-      <c r="I26" s="66"/>
-      <c r="J26" s="67"/>
+      <c r="A26" s="64" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="65"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="65"/>
+      <c r="F26" s="65"/>
+      <c r="G26" s="65"/>
+      <c r="H26" s="65"/>
+      <c r="I26" s="65"/>
+      <c r="J26" s="66"/>
     </row>
     <row r="27" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A27" s="12"/>
@@ -3949,21 +3840,21 @@
       <c r="A31" s="12"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
-      <c r="J31" s="39"/>
+      <c r="J31" s="38"/>
     </row>
     <row r="32" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A32" s="65" t="s">
-        <v>42</v>
-      </c>
-      <c r="B32" s="66"/>
-      <c r="C32" s="66"/>
-      <c r="D32" s="66"/>
-      <c r="E32" s="66"/>
-      <c r="F32" s="66"/>
-      <c r="G32" s="66"/>
-      <c r="H32" s="66"/>
-      <c r="I32" s="66"/>
-      <c r="J32" s="67"/>
+      <c r="A32" s="64" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="65"/>
+      <c r="C32" s="65"/>
+      <c r="D32" s="65"/>
+      <c r="E32" s="65"/>
+      <c r="F32" s="65"/>
+      <c r="G32" s="65"/>
+      <c r="H32" s="65"/>
+      <c r="I32" s="65"/>
+      <c r="J32" s="66"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="12"/>
@@ -4122,21 +4013,21 @@
       <c r="A37" s="12"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
-      <c r="J37" s="39"/>
+      <c r="J37" s="38"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="65" t="s">
-        <v>43</v>
-      </c>
-      <c r="B38" s="66"/>
-      <c r="C38" s="66"/>
-      <c r="D38" s="66"/>
-      <c r="E38" s="66"/>
-      <c r="F38" s="66"/>
-      <c r="G38" s="66"/>
-      <c r="H38" s="66"/>
-      <c r="I38" s="66"/>
-      <c r="J38" s="67"/>
+      <c r="A38" s="64" t="s">
+        <v>41</v>
+      </c>
+      <c r="B38" s="65"/>
+      <c r="C38" s="65"/>
+      <c r="D38" s="65"/>
+      <c r="E38" s="65"/>
+      <c r="F38" s="65"/>
+      <c r="G38" s="65"/>
+      <c r="H38" s="65"/>
+      <c r="I38" s="65"/>
+      <c r="J38" s="66"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="12"/>
@@ -4173,11 +4064,11 @@
         <v>5</v>
       </c>
       <c r="B40" s="20">
-        <f>(B28*200)/(B9*200)</f>
+        <f>(B28*350)/(B9*350)</f>
         <v>2.0581164666173753E-6</v>
       </c>
       <c r="C40" s="20">
-        <f t="shared" ref="C40:J40" si="6">(C28*200)/(C9*200)</f>
+        <f t="shared" ref="C40:J40" si="6">(C28*350)/(C9*350)</f>
         <v>2.1894069312008167E-6</v>
       </c>
       <c r="D40" s="20">
@@ -4186,11 +4077,11 @@
       </c>
       <c r="E40" s="20">
         <f t="shared" si="6"/>
-        <v>1.4493327166331014E-6</v>
+        <v>1.4493327166331016E-6</v>
       </c>
       <c r="F40" s="20">
         <f t="shared" si="6"/>
-        <v>2.2464901163009141E-6</v>
+        <v>2.2464901163009145E-6</v>
       </c>
       <c r="G40" s="20">
         <f t="shared" si="6"/>
@@ -4202,11 +4093,11 @@
       </c>
       <c r="I40" s="20">
         <f t="shared" si="6"/>
-        <v>-4.7551446114118471E-7</v>
-      </c>
-      <c r="J40" s="27">
+        <v>-4.7551446114118476E-7</v>
+      </c>
+      <c r="J40" s="20">
         <f t="shared" si="6"/>
-        <v>2.3308898091334435E-6</v>
+        <v>2.3308898091334439E-6</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
@@ -4214,39 +4105,39 @@
         <v>6</v>
       </c>
       <c r="B41" s="20">
-        <f t="shared" ref="B41:B42" si="7">(B29*200)/(B10*200)</f>
+        <f t="shared" ref="B41:J42" si="7">(B29*350)/(B10*350)</f>
         <v>6.9596326463557723E-7</v>
       </c>
       <c r="C41" s="20">
-        <f t="shared" ref="C41:J41" si="8">(C29*200)/(C10*200)</f>
-        <v>2.3304756727101692E-6</v>
+        <f t="shared" si="7"/>
+        <v>2.3304756727101687E-6</v>
       </c>
       <c r="D41" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1.8425312997138551E-6</v>
       </c>
       <c r="E41" s="20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>1.5414620906490027E-6</v>
       </c>
       <c r="F41" s="20">
-        <f t="shared" si="8"/>
-        <v>2.4129285812041811E-6</v>
+        <f t="shared" si="7"/>
+        <v>2.4129285812041816E-6</v>
       </c>
       <c r="G41" s="20">
-        <f t="shared" si="8"/>
-        <v>1.3895224307499999E-6</v>
+        <f t="shared" si="7"/>
+        <v>1.3895224307499997E-6</v>
       </c>
       <c r="H41" s="20">
-        <f t="shared" si="8"/>
-        <v>6.8795313954652659E-7</v>
+        <f t="shared" si="7"/>
+        <v>6.879531395465267E-7</v>
       </c>
       <c r="I41" s="20">
-        <f t="shared" si="8"/>
-        <v>2.9408437255379502E-6</v>
-      </c>
-      <c r="J41" s="27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
+        <v>2.9408437255379498E-6</v>
+      </c>
+      <c r="J41" s="20">
+        <f t="shared" si="7"/>
         <v>2.5302468120532571E-6</v>
       </c>
     </row>
@@ -4256,38 +4147,38 @@
       </c>
       <c r="B42" s="20">
         <f t="shared" si="7"/>
-        <v>2.4896751965609415E-6</v>
+        <v>2.4896751965609419E-6</v>
       </c>
       <c r="C42" s="20">
-        <f t="shared" ref="C42:J42" si="9">(C30*200)/(C11*200)</f>
-        <v>3.5356957772643294E-7</v>
+        <f t="shared" si="7"/>
+        <v>3.5356957772643288E-7</v>
       </c>
       <c r="D42" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>5.2786096628383427E-6</v>
       </c>
       <c r="E42" s="20">
-        <f t="shared" si="9"/>
-        <v>6.4379074521189871E-7</v>
+        <f t="shared" si="7"/>
+        <v>6.437907452118986E-7</v>
       </c>
       <c r="F42" s="20">
-        <f t="shared" si="9"/>
-        <v>-1.0808110816480253E-6</v>
+        <f t="shared" si="7"/>
+        <v>-1.080811081648025E-6</v>
       </c>
       <c r="G42" s="20">
-        <f t="shared" si="9"/>
-        <v>1.6527666126015252E-6</v>
+        <f t="shared" si="7"/>
+        <v>1.652766612601525E-6</v>
       </c>
       <c r="H42" s="20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-3.8980845685162962E-7</v>
       </c>
       <c r="I42" s="20">
-        <f t="shared" si="9"/>
-        <v>3.7642540640128763E-7</v>
-      </c>
-      <c r="J42" s="27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
+        <v>3.7642540640128758E-7</v>
+      </c>
+      <c r="J42" s="20">
+        <f t="shared" si="7"/>
         <v>2.3533170886278633E-6</v>
       </c>
     </row>
@@ -4295,21 +4186,21 @@
       <c r="A43" s="12"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
-      <c r="J43" s="39"/>
+      <c r="J43" s="38"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" s="65" t="s">
-        <v>45</v>
-      </c>
-      <c r="B44" s="66"/>
-      <c r="C44" s="66"/>
-      <c r="D44" s="66"/>
-      <c r="E44" s="66"/>
-      <c r="F44" s="66"/>
-      <c r="G44" s="66"/>
-      <c r="H44" s="66"/>
-      <c r="I44" s="66"/>
-      <c r="J44" s="67"/>
+      <c r="A44" s="64" t="s">
+        <v>43</v>
+      </c>
+      <c r="B44" s="65"/>
+      <c r="C44" s="65"/>
+      <c r="D44" s="65"/>
+      <c r="E44" s="65"/>
+      <c r="F44" s="65"/>
+      <c r="G44" s="65"/>
+      <c r="H44" s="65"/>
+      <c r="I44" s="65"/>
+      <c r="J44" s="66"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="12"/>
@@ -4345,81 +4236,81 @@
       <c r="A46" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B46" s="28">
+      <c r="B46" s="27">
         <f>B40*B34</f>
         <v>3.5733368130774075</v>
       </c>
-      <c r="C46" s="28">
-        <f t="shared" ref="C46:J46" si="10">C40*C34</f>
+      <c r="C46" s="27">
+        <f t="shared" ref="C46:J46" si="8">C40*C34</f>
         <v>1.8559737044086329</v>
       </c>
-      <c r="D46" s="28">
-        <f t="shared" si="10"/>
+      <c r="D46" s="27">
+        <f t="shared" si="8"/>
         <v>4.6483331296354864</v>
       </c>
-      <c r="E46" s="28">
-        <f t="shared" si="10"/>
-        <v>2.8602692265205611</v>
-      </c>
-      <c r="F46" s="28">
-        <f t="shared" si="10"/>
-        <v>2.5204377155442375</v>
-      </c>
-      <c r="G46" s="28">
-        <f t="shared" si="10"/>
+      <c r="E46" s="27">
+        <f t="shared" si="8"/>
+        <v>2.8602692265205616</v>
+      </c>
+      <c r="F46" s="27">
+        <f t="shared" si="8"/>
+        <v>2.5204377155442379</v>
+      </c>
+      <c r="G46" s="27">
+        <f t="shared" si="8"/>
         <v>-0.69681963261705349</v>
       </c>
-      <c r="H46" s="28">
-        <f t="shared" si="10"/>
+      <c r="H46" s="27">
+        <f t="shared" si="8"/>
         <v>0.25050336985657407</v>
       </c>
-      <c r="I46" s="28">
-        <f t="shared" si="10"/>
+      <c r="I46" s="27">
+        <f t="shared" si="8"/>
         <v>-0.7150161392882195</v>
       </c>
-      <c r="J46" s="29">
-        <f t="shared" si="10"/>
-        <v>3.1678446889242911</v>
+      <c r="J46" s="28">
+        <f t="shared" si="8"/>
+        <v>3.1678446889242915</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B47" s="28">
-        <f t="shared" ref="B47:B48" si="11">B41*B35</f>
+      <c r="B47" s="27">
+        <f t="shared" ref="B47:B48" si="9">B41*B35</f>
         <v>1.1680496019371069</v>
       </c>
-      <c r="C47" s="28">
-        <f t="shared" ref="C47:J47" si="12">C41*C35</f>
+      <c r="C47" s="27">
+        <f t="shared" ref="C47:J47" si="10">C41*C35</f>
         <v>2.1219519879742736</v>
       </c>
-      <c r="D47" s="28">
-        <f t="shared" si="12"/>
+      <c r="D47" s="27">
+        <f t="shared" si="10"/>
         <v>2.9972709558036832</v>
       </c>
-      <c r="E47" s="28">
-        <f t="shared" si="12"/>
+      <c r="E47" s="27">
+        <f t="shared" si="10"/>
         <v>2.9744003709433282</v>
       </c>
-      <c r="F47" s="28">
-        <f t="shared" si="12"/>
-        <v>3.0627954616007544</v>
-      </c>
-      <c r="G47" s="28">
-        <f t="shared" si="12"/>
-        <v>2.7645116354896468</v>
-      </c>
-      <c r="H47" s="28">
-        <f t="shared" si="12"/>
-        <v>1.2001036957453546</v>
-      </c>
-      <c r="I47" s="28">
-        <f t="shared" si="12"/>
+      <c r="F47" s="27">
+        <f t="shared" si="10"/>
+        <v>3.0627954616007549</v>
+      </c>
+      <c r="G47" s="27">
+        <f t="shared" si="10"/>
+        <v>2.7645116354896464</v>
+      </c>
+      <c r="H47" s="27">
+        <f t="shared" si="10"/>
+        <v>1.2001036957453548</v>
+      </c>
+      <c r="I47" s="27">
+        <f t="shared" si="10"/>
         <v>4.5039101028783142</v>
       </c>
-      <c r="J47" s="29">
-        <f t="shared" si="12"/>
+      <c r="J47" s="28">
+        <f t="shared" si="10"/>
         <v>3.3737037005455468</v>
       </c>
     </row>
@@ -4427,63 +4318,63 @@
       <c r="A48" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B48" s="28">
+      <c r="B48" s="27">
+        <f t="shared" si="9"/>
+        <v>4.1219034953664391</v>
+      </c>
+      <c r="C48" s="27">
+        <f t="shared" ref="C48:J48" si="11">C42*C36</f>
+        <v>0.33149912216970634</v>
+      </c>
+      <c r="D48" s="27">
         <f t="shared" si="11"/>
-        <v>4.1219034953664382</v>
-      </c>
-      <c r="C48" s="28">
-        <f t="shared" ref="C48:J48" si="13">C42*C36</f>
-        <v>0.33149912216970634</v>
-      </c>
-      <c r="D48" s="28">
-        <f t="shared" si="13"/>
         <v>8.3438160208820644</v>
       </c>
-      <c r="E48" s="28">
-        <f t="shared" si="13"/>
-        <v>1.3003332087058397</v>
-      </c>
-      <c r="F48" s="28">
-        <f t="shared" si="13"/>
-        <v>-1.2716702631316323</v>
-      </c>
-      <c r="G48" s="28">
-        <f t="shared" si="13"/>
-        <v>3.3811033718096799</v>
-      </c>
-      <c r="H48" s="28">
-        <f t="shared" si="13"/>
+      <c r="E48" s="27">
+        <f t="shared" si="11"/>
+        <v>1.3003332087058395</v>
+      </c>
+      <c r="F48" s="27">
+        <f t="shared" si="11"/>
+        <v>-1.2716702631316321</v>
+      </c>
+      <c r="G48" s="27">
+        <f t="shared" si="11"/>
+        <v>3.3811033718096795</v>
+      </c>
+      <c r="H48" s="27">
+        <f t="shared" si="11"/>
         <v>-0.76317530541395251</v>
       </c>
-      <c r="I48" s="28">
-        <f t="shared" si="13"/>
-        <v>0.58399803358947588</v>
-      </c>
-      <c r="J48" s="29">
-        <f t="shared" si="13"/>
+      <c r="I48" s="27">
+        <f t="shared" si="11"/>
+        <v>0.58399803358947577</v>
+      </c>
+      <c r="J48" s="28">
+        <f t="shared" si="11"/>
         <v>3.1489300630679815</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" s="49"/>
-      <c r="J49" s="39"/>
+      <c r="A49" s="48"/>
+      <c r="J49" s="38"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" s="62" t="s">
-        <v>56</v>
-      </c>
-      <c r="B50" s="63"/>
-      <c r="C50" s="63"/>
-      <c r="D50" s="63"/>
-      <c r="E50" s="63"/>
-      <c r="F50" s="63"/>
-      <c r="G50" s="63"/>
-      <c r="H50" s="63"/>
-      <c r="I50" s="63"/>
-      <c r="J50" s="64"/>
+      <c r="A50" s="61" t="s">
+        <v>54</v>
+      </c>
+      <c r="B50" s="62"/>
+      <c r="C50" s="62"/>
+      <c r="D50" s="62"/>
+      <c r="E50" s="62"/>
+      <c r="F50" s="62"/>
+      <c r="G50" s="62"/>
+      <c r="H50" s="62"/>
+      <c r="I50" s="62"/>
+      <c r="J50" s="63"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" s="52"/>
+      <c r="A51" s="51"/>
       <c r="B51" s="7">
         <v>1</v>
       </c>
@@ -4514,84 +4405,84 @@
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" s="12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B52" s="6">
         <f>AVERAGE(B46:B48)</f>
         <v>2.9544299701269843</v>
       </c>
       <c r="C52" s="6">
-        <f t="shared" ref="C52:J52" si="14">AVERAGE(C46:C48)</f>
+        <f t="shared" ref="C52:J52" si="12">AVERAGE(C46:C48)</f>
         <v>1.4364749381842044</v>
       </c>
       <c r="D52" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>5.3298067021070779</v>
       </c>
       <c r="E52" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>2.3783342687232429</v>
       </c>
       <c r="F52" s="6">
-        <f t="shared" si="14"/>
-        <v>1.4371876380044533</v>
+        <f t="shared" si="12"/>
+        <v>1.4371876380044535</v>
       </c>
       <c r="G52" s="6">
-        <f t="shared" si="14"/>
-        <v>1.8162651248940911</v>
+        <f t="shared" si="12"/>
+        <v>1.8162651248940909</v>
       </c>
       <c r="H52" s="6">
-        <f t="shared" si="14"/>
-        <v>0.22914392006265868</v>
+        <f t="shared" si="12"/>
+        <v>0.22914392006265882</v>
       </c>
       <c r="I52" s="6">
-        <f t="shared" si="14"/>
+        <f t="shared" si="12"/>
         <v>1.4576306657265234</v>
       </c>
-      <c r="J52" s="53">
-        <f t="shared" si="14"/>
+      <c r="J52" s="52">
+        <f t="shared" si="12"/>
         <v>3.2301594841792731</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A53" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="B53" s="50">
+        <v>56</v>
+      </c>
+      <c r="B53" s="49">
         <f>STDEV(B46:B48)</f>
-        <v>1.5711770957215645</v>
-      </c>
-      <c r="C53" s="50">
-        <f t="shared" ref="C53:J53" si="15">STDEV(C46:C48)</f>
+        <v>1.5711770957215656</v>
+      </c>
+      <c r="C53" s="49">
+        <f t="shared" ref="C53:J53" si="13">STDEV(C46:C48)</f>
         <v>0.96613393342476606</v>
       </c>
-      <c r="D53" s="50">
-        <f t="shared" si="15"/>
+      <c r="D53" s="49">
+        <f t="shared" si="13"/>
         <v>2.7376432758325908</v>
       </c>
-      <c r="E53" s="50">
-        <f t="shared" si="15"/>
-        <v>0.93531876575892381</v>
-      </c>
-      <c r="F53" s="50">
-        <f t="shared" si="15"/>
+      <c r="E53" s="49">
+        <f t="shared" si="13"/>
+        <v>0.93531876575892481</v>
+      </c>
+      <c r="F53" s="49">
+        <f t="shared" si="13"/>
         <v>2.3615612055560669</v>
       </c>
-      <c r="G53" s="50">
-        <f t="shared" si="15"/>
+      <c r="G53" s="49">
+        <f t="shared" si="13"/>
         <v>2.1981225150456636</v>
       </c>
-      <c r="H53" s="50">
-        <f t="shared" si="15"/>
-        <v>0.98181376985143964</v>
-      </c>
-      <c r="I53" s="50">
-        <f t="shared" si="15"/>
-        <v>2.7169326937273688</v>
-      </c>
-      <c r="J53" s="51">
-        <f t="shared" si="15"/>
-        <v>0.12467215930983444</v>
+      <c r="H53" s="49">
+        <f t="shared" si="13"/>
+        <v>0.98181376985143975</v>
+      </c>
+      <c r="I53" s="49">
+        <f t="shared" si="13"/>
+        <v>2.7169326937273683</v>
+      </c>
+      <c r="J53" s="50">
+        <f t="shared" si="13"/>
+        <v>0.12467215930983433</v>
       </c>
     </row>
   </sheetData>
